--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B1EEB-DAE7-4392-BF64-1B959E934614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EDC0A1-FE4A-44E8-897B-3F167EAFCB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="23955" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="975" windowWidth="20805" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_det" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>numcols</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>gapfinal</t>
+  </si>
+  <si>
+    <t>n.optimal</t>
+  </si>
+  <si>
+    <t>n.infeas</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -686,6 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1044,9 +1051,9 @@
   <dimension ref="A1:K240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="O232" sqref="O232"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9458,18 +9465,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -9483,34 +9490,64 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>50</v>
       </c>
@@ -9524,36 +9561,66 @@
         <v>0</v>
       </c>
       <c r="E2" s="11">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F2" s="11">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="G2" s="11">
-        <v>355</v>
+        <v>113320.78</v>
       </c>
       <c r="H2" s="11">
-        <v>113320.78</v>
+        <v>113763</v>
       </c>
       <c r="I2" s="11">
-        <v>113763</v>
-      </c>
-      <c r="J2" s="11">
         <v>113752</v>
       </c>
-      <c r="K2" s="12">
+      <c r="J2" s="12">
         <v>2.7496999999999998</v>
       </c>
+      <c r="K2" s="13">
+        <f>(H2-G2)/H2</f>
+        <v>3.8872040997512476E-3</v>
+      </c>
       <c r="L2" s="13">
-        <f>(I2-H2)/I2</f>
-        <v>3.8872040997512476E-3</v>
-      </c>
-      <c r="M2" s="13">
-        <f>(I2-J2)/I2</f>
+        <f>(H2-I2)/H2</f>
         <v>9.6692246160878318E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>52</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>416</v>
+      </c>
+      <c r="S2">
+        <v>316</v>
+      </c>
+      <c r="T2" s="13">
+        <v>2.1173348779865903E-3</v>
+      </c>
+      <c r="U2" s="13">
+        <v>7.1203627492855761E-5</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0.2893</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>50</v>
       </c>
@@ -9567,36 +9634,66 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F3" s="11">
+        <v>355</v>
+      </c>
+      <c r="G3" s="11">
+        <v>124097.36</v>
+      </c>
+      <c r="H3" s="11">
+        <v>124596.4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>124583.87</v>
+      </c>
+      <c r="J3" s="12">
+        <v>3.8605</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K57" si="0">(H3-G3)/H3</f>
+        <v>4.0052521581682423E-3</v>
+      </c>
+      <c r="L3" s="13">
+        <f t="shared" ref="L3:L57" si="1">(H3-I3)/H3</f>
+        <v>1.005647033140511E-4</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>500</v>
       </c>
-      <c r="G3" s="11">
+      <c r="S3">
         <v>355</v>
       </c>
-      <c r="H3" s="11">
-        <v>124097.36</v>
-      </c>
-      <c r="I3" s="11">
-        <v>124596.4</v>
-      </c>
-      <c r="J3" s="11">
-        <v>124583.87</v>
-      </c>
-      <c r="K3" s="12">
-        <v>3.8605</v>
-      </c>
-      <c r="L3" s="13">
-        <f t="shared" ref="L3:L57" si="0">(I3-H3)/I3</f>
-        <v>4.0052521581682423E-3</v>
-      </c>
-      <c r="M3" s="13">
-        <f t="shared" ref="M3:M57" si="1">(I3-J3)/I3</f>
-        <v>1.005647033140511E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T3" s="13">
+        <v>3.8872040997512476E-3</v>
+      </c>
+      <c r="U3" s="13">
+        <v>9.6692246160878318E-5</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3" s="14">
+        <v>2.7496999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -9610,36 +9707,66 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="2">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G4" s="2">
-        <v>610</v>
+        <v>137764.66666700001</v>
       </c>
       <c r="H4" s="2">
-        <v>137764.66666700001</v>
+        <v>139340.33333299999</v>
       </c>
       <c r="I4" s="2">
-        <v>139340.33333299999</v>
-      </c>
-      <c r="J4" s="2">
         <v>139326.33333299999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <v>152.97049999999999</v>
       </c>
-      <c r="L4" s="13">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>1.1308044327943417E-2</v>
       </c>
-      <c r="M4" s="13">
+      <c r="L4" s="13">
         <f t="shared" si="1"/>
         <v>1.0047342119199868E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+      <c r="S4">
+        <v>355</v>
+      </c>
+      <c r="T4" s="13">
+        <v>4.0052521581682423E-3</v>
+      </c>
+      <c r="U4" s="13">
+        <v>1.005647033140511E-4</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4" s="14">
+        <v>3.8605</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>50</v>
       </c>
@@ -9653,36 +9780,66 @@
         <v>600</v>
       </c>
       <c r="E5" s="5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G5" s="5">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H5" s="5">
-        <v>120356.5</v>
+        <v>122226.75</v>
       </c>
       <c r="I5" s="5">
-        <v>122226.75</v>
-      </c>
-      <c r="J5" s="5">
         <v>121631.75</v>
       </c>
-      <c r="K5" s="6">
+      <c r="J5" s="6">
         <v>607.45749999999998</v>
       </c>
-      <c r="L5" s="13">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>1.5301478604315339E-2</v>
       </c>
-      <c r="M5" s="13">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>4.8680014808542317E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1000</v>
+      </c>
+      <c r="S5">
+        <v>610</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1.4706965854297479E-2</v>
+      </c>
+      <c r="U5" s="13">
+        <v>4.0031763444205214E-3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>3608.5250000000001</v>
+      </c>
+      <c r="Y5">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -9696,36 +9853,66 @@
         <v>1200</v>
       </c>
       <c r="E6" s="5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G6" s="5">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H6" s="5">
-        <v>120356.5</v>
+        <v>122300.5</v>
       </c>
       <c r="I6" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="J6" s="5">
         <v>121503</v>
       </c>
-      <c r="K6" s="6">
+      <c r="J6" s="6">
         <v>1200</v>
       </c>
-      <c r="L6" s="13">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>1.5895274344749202E-2</v>
       </c>
-      <c r="M6" s="13">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>6.5208237088155811E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>1000</v>
+      </c>
+      <c r="S6">
+        <v>610</v>
+      </c>
+      <c r="T6" s="13">
+        <v>1.3383067882978142E-2</v>
+      </c>
+      <c r="U6" s="13">
+        <v>5.0722997807205791E-4</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14">
+        <v>600.04600000000005</v>
+      </c>
+      <c r="Y6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>50</v>
       </c>
@@ -9739,36 +9926,66 @@
         <v>1800</v>
       </c>
       <c r="E7" s="5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G7" s="5">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H7" s="5">
-        <v>120356.5</v>
+        <v>122300.5</v>
       </c>
       <c r="I7" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="J7" s="5">
         <v>121503</v>
       </c>
-      <c r="K7" s="6">
+      <c r="J7" s="6">
         <v>1800</v>
       </c>
-      <c r="L7" s="13">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>1.5895274344749202E-2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>6.5208237088155811E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>610</v>
+      </c>
+      <c r="T7" s="13">
+        <v>1.6942548951944164E-2</v>
+      </c>
+      <c r="U7" s="13">
+        <v>3.5361912289099402E-3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>3610.81</v>
+      </c>
+      <c r="Y7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>50</v>
       </c>
@@ -9782,36 +9999,66 @@
         <v>2400</v>
       </c>
       <c r="E8" s="5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G8" s="5">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H8" s="5">
-        <v>120356.5</v>
+        <v>122300.5</v>
       </c>
       <c r="I8" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="J8" s="5">
         <v>121539.5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="J8" s="6">
         <v>2400</v>
       </c>
-      <c r="L8" s="13">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>1.5895274344749202E-2</v>
       </c>
-      <c r="M8" s="13">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>6.2223784857788804E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
+      <c r="S8">
+        <v>1210</v>
+      </c>
+      <c r="T8" s="13">
+        <v>5.6476729012614182E-3</v>
+      </c>
+      <c r="U8" s="13">
+        <v>1.7503262287951284E-3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8" s="14">
+        <v>3612.44</v>
+      </c>
+      <c r="Y8">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>50</v>
       </c>
@@ -9825,36 +10072,66 @@
         <v>3000</v>
       </c>
       <c r="E9" s="5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G9" s="5">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H9" s="5">
-        <v>120356.5</v>
+        <v>122300.5</v>
       </c>
       <c r="I9" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="J9" s="5">
         <v>121539.5</v>
       </c>
-      <c r="K9" s="6">
+      <c r="J9" s="6">
         <v>3000</v>
       </c>
-      <c r="L9" s="13">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>1.5895274344749202E-2</v>
       </c>
-      <c r="M9" s="13">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>6.2223784857788804E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>10000</v>
+      </c>
+      <c r="S9">
+        <v>5250</v>
+      </c>
+      <c r="T9" s="13">
+        <v>4.5952792689139405E-2</v>
+      </c>
+      <c r="U9" s="13">
+        <v>2.4191927418153111E-2</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>3606.7159999999999</v>
+      </c>
+      <c r="Y9">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>50</v>
       </c>
@@ -9868,36 +10145,66 @@
         <v>3600</v>
       </c>
       <c r="E10" s="8">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="8">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G10" s="8">
-        <v>610</v>
+        <v>120356.5</v>
       </c>
       <c r="H10" s="8">
-        <v>120356.5</v>
+        <v>122153</v>
       </c>
       <c r="I10" s="8">
-        <v>122153</v>
-      </c>
-      <c r="J10" s="8">
         <v>121664</v>
       </c>
-      <c r="K10" s="9">
+      <c r="J10" s="9">
         <v>3608.5250000000001</v>
       </c>
-      <c r="L10" s="13">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>1.4706965854297479E-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>4.0031763444205214E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <v>10000</v>
+      </c>
+      <c r="S10">
+        <v>5250</v>
+      </c>
+      <c r="T10" s="13">
+        <v>4.421342787879988E-2</v>
+      </c>
+      <c r="U10" s="13">
+        <v>2.4743707472136445E-2</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>3607.0219999999999</v>
+      </c>
+      <c r="Y10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>50</v>
       </c>
@@ -9911,36 +10218,66 @@
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>1.7647060000000001</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G11" s="5">
-        <v>610</v>
+        <v>132450.11764700001</v>
       </c>
       <c r="H11" s="5">
-        <v>132450.11764700001</v>
+        <v>134239.29411799999</v>
       </c>
       <c r="I11" s="5">
-        <v>134239.29411799999</v>
-      </c>
-      <c r="J11" s="5">
         <v>134006.82352899999</v>
       </c>
-      <c r="K11" s="6">
+      <c r="J11" s="6">
         <v>181.07400000000001</v>
       </c>
-      <c r="L11" s="13">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>1.3328261912843862E-2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>1.7317625999705879E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>20000</v>
+      </c>
+      <c r="S11">
+        <v>10450</v>
+      </c>
+      <c r="T11" s="13">
+        <v>1.5953523100034114E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1.2013490301966639E-2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>3604.2266669999999</v>
+      </c>
+      <c r="Y11">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>50</v>
       </c>
@@ -9954,36 +10291,66 @@
         <v>600</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="8">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G12" s="8">
-        <v>610</v>
+        <v>126432</v>
       </c>
       <c r="H12" s="8">
-        <v>126432</v>
+        <v>128147</v>
       </c>
       <c r="I12" s="8">
-        <v>128147</v>
-      </c>
-      <c r="J12" s="8">
         <v>128082</v>
       </c>
-      <c r="K12" s="9">
+      <c r="J12" s="9">
         <v>600.04600000000005</v>
       </c>
-      <c r="L12" s="13">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>1.3383067882978142E-2</v>
       </c>
-      <c r="M12" s="13">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>5.0722997807205791E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>20000</v>
+      </c>
+      <c r="S12">
+        <v>10450</v>
+      </c>
+      <c r="T12" s="13">
+        <v>1.5994340223030753E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <v>1.2519865615816876E-2</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>3603.04</v>
+      </c>
+      <c r="Y12">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -9997,36 +10364,66 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="2">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G13" s="2">
-        <v>610</v>
+        <v>110832.533333</v>
       </c>
       <c r="H13" s="2">
-        <v>110832.533333</v>
+        <v>112085</v>
       </c>
       <c r="I13" s="2">
-        <v>112085</v>
-      </c>
-      <c r="J13" s="2">
         <v>112076.36666699999</v>
       </c>
-      <c r="K13" s="3">
+      <c r="J13" s="3">
         <v>87.983999999999995</v>
       </c>
-      <c r="L13" s="13">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>1.1174257634830714E-2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="L13" s="13">
         <f t="shared" si="1"/>
         <v>7.7024873979615675E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>300</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>30000</v>
+      </c>
+      <c r="S13">
+        <v>15650</v>
+      </c>
+      <c r="T13" s="13">
+        <v>8.4850099809070448E-3</v>
+      </c>
+      <c r="U13" s="13">
+        <v>6.4010747368333067E-3</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>3603.3440000000001</v>
+      </c>
+      <c r="Y13">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>50</v>
       </c>
@@ -10040,36 +10437,33 @@
         <v>600</v>
       </c>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G14" s="5">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H14" s="5">
-        <v>132466.5</v>
+        <v>134806.75</v>
       </c>
       <c r="I14" s="5">
-        <v>134806.75</v>
-      </c>
-      <c r="J14" s="5">
         <v>134012.25</v>
       </c>
-      <c r="K14" s="6">
+      <c r="J14" s="6">
         <v>606.51675</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>1.736003575488616E-2</v>
       </c>
-      <c r="M14" s="13">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>5.8936217956445059E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>50</v>
       </c>
@@ -10083,36 +10477,33 @@
         <v>1200</v>
       </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G15" s="5">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H15" s="5">
-        <v>132466.5</v>
+        <v>134864</v>
       </c>
       <c r="I15" s="5">
-        <v>134864</v>
-      </c>
-      <c r="J15" s="5">
         <v>134103.5</v>
       </c>
-      <c r="K15" s="6">
+      <c r="J15" s="6">
         <v>1200</v>
       </c>
-      <c r="L15" s="13">
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>1.7777168110096098E-2</v>
       </c>
-      <c r="M15" s="13">
+      <c r="L15" s="13">
         <f t="shared" si="1"/>
         <v>5.6390141179262073E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>50</v>
       </c>
@@ -10126,36 +10517,33 @@
         <v>1800</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G16" s="5">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H16" s="5">
-        <v>132466.5</v>
+        <v>134864</v>
       </c>
       <c r="I16" s="5">
-        <v>134864</v>
-      </c>
-      <c r="J16" s="5">
         <v>134103.5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="J16" s="6">
         <v>1800</v>
       </c>
-      <c r="L16" s="13">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>1.7777168110096098E-2</v>
       </c>
-      <c r="M16" s="13">
+      <c r="L16" s="13">
         <f t="shared" si="1"/>
         <v>5.6390141179262073E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>50</v>
       </c>
@@ -10169,36 +10557,33 @@
         <v>2400</v>
       </c>
       <c r="E17" s="5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G17" s="5">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H17" s="5">
-        <v>132466.5</v>
+        <v>134864</v>
       </c>
       <c r="I17" s="5">
-        <v>134864</v>
-      </c>
-      <c r="J17" s="5">
         <v>134109</v>
       </c>
-      <c r="K17" s="6">
+      <c r="J17" s="6">
         <v>2400</v>
       </c>
-      <c r="L17" s="13">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>1.7777168110096098E-2</v>
       </c>
-      <c r="M17" s="13">
+      <c r="L17" s="13">
         <f t="shared" si="1"/>
         <v>5.5982322932732233E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>50</v>
       </c>
@@ -10212,36 +10597,33 @@
         <v>3000</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="5">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G18" s="5">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H18" s="5">
-        <v>132466.5</v>
+        <v>134864</v>
       </c>
       <c r="I18" s="5">
-        <v>134864</v>
-      </c>
-      <c r="J18" s="5">
         <v>134109</v>
       </c>
-      <c r="K18" s="6">
+      <c r="J18" s="6">
         <v>3000</v>
       </c>
-      <c r="L18" s="13">
+      <c r="K18" s="13">
         <f t="shared" si="0"/>
         <v>1.7777168110096098E-2</v>
       </c>
-      <c r="M18" s="13">
+      <c r="L18" s="13">
         <f t="shared" si="1"/>
         <v>5.5982322932732233E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>50</v>
       </c>
@@ -10255,36 +10637,33 @@
         <v>3600</v>
       </c>
       <c r="E19" s="8">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="8">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="G19" s="8">
-        <v>610</v>
+        <v>132466.5</v>
       </c>
       <c r="H19" s="8">
-        <v>132466.5</v>
+        <v>134749.5</v>
       </c>
       <c r="I19" s="8">
-        <v>134749.5</v>
-      </c>
-      <c r="J19" s="8">
         <v>134273</v>
       </c>
-      <c r="K19" s="9">
+      <c r="J19" s="9">
         <v>3610.81</v>
       </c>
-      <c r="L19" s="13">
+      <c r="K19" s="13">
         <f t="shared" si="0"/>
         <v>1.6942548951944164E-2</v>
       </c>
-      <c r="M19" s="13">
+      <c r="L19" s="13">
         <f t="shared" si="1"/>
         <v>3.5361912289099402E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>52</v>
       </c>
@@ -10298,36 +10677,33 @@
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="F20" s="11">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G20" s="11">
-        <v>316</v>
+        <v>87170.14</v>
       </c>
       <c r="H20" s="11">
-        <v>87170.14</v>
+        <v>87355.1</v>
       </c>
       <c r="I20" s="11">
-        <v>87355.1</v>
-      </c>
-      <c r="J20" s="11">
         <v>87348.88</v>
       </c>
-      <c r="K20" s="12">
+      <c r="J20" s="12">
         <v>0.2893</v>
       </c>
-      <c r="L20" s="13">
+      <c r="K20" s="13">
         <f t="shared" si="0"/>
         <v>2.1173348779865903E-3</v>
       </c>
-      <c r="M20" s="13">
+      <c r="L20" s="13">
         <f t="shared" si="1"/>
         <v>7.1203627492855761E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -10341,36 +10717,33 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F21" s="2">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G21" s="2">
-        <v>1210</v>
+        <v>254945</v>
       </c>
       <c r="H21" s="2">
-        <v>254945</v>
+        <v>255761</v>
       </c>
       <c r="I21" s="2">
-        <v>255761</v>
-      </c>
-      <c r="J21" s="2">
         <v>255735</v>
       </c>
-      <c r="K21" s="3">
+      <c r="J21" s="3">
         <v>35.008000000000003</v>
       </c>
-      <c r="L21" s="13">
+      <c r="K21" s="13">
         <f t="shared" si="0"/>
         <v>3.1904786108906363E-3</v>
       </c>
-      <c r="M21" s="13">
+      <c r="L21" s="13">
         <f t="shared" si="1"/>
         <v>1.0165740671955458E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>100</v>
       </c>
@@ -10384,36 +10757,33 @@
         <v>600</v>
       </c>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="5">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G22" s="5">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H22" s="5">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I22" s="5">
-        <v>287375</v>
-      </c>
-      <c r="J22" s="5">
         <v>286844</v>
       </c>
-      <c r="K22" s="6">
+      <c r="J22" s="6">
         <v>600</v>
       </c>
-      <c r="L22" s="13">
+      <c r="K22" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M22" s="13">
+      <c r="L22" s="13">
         <f t="shared" si="1"/>
         <v>1.8477598956067856E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>100</v>
       </c>
@@ -10427,36 +10797,33 @@
         <v>1200</v>
       </c>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F23" s="5">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G23" s="5">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H23" s="5">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I23" s="5">
-        <v>287375</v>
-      </c>
-      <c r="J23" s="5">
         <v>286844</v>
       </c>
-      <c r="K23" s="6">
+      <c r="J23" s="6">
         <v>1200</v>
       </c>
-      <c r="L23" s="13">
+      <c r="K23" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M23" s="13">
+      <c r="L23" s="13">
         <f t="shared" si="1"/>
         <v>1.8477598956067856E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>100</v>
       </c>
@@ -10470,36 +10837,33 @@
         <v>1800</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="5">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G24" s="5">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H24" s="5">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I24" s="5">
-        <v>287375</v>
-      </c>
-      <c r="J24" s="5">
         <v>286844</v>
       </c>
-      <c r="K24" s="6">
+      <c r="J24" s="6">
         <v>1800</v>
       </c>
-      <c r="L24" s="13">
+      <c r="K24" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M24" s="13">
+      <c r="L24" s="13">
         <f t="shared" si="1"/>
         <v>1.8477598956067856E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>100</v>
       </c>
@@ -10513,36 +10877,33 @@
         <v>2400</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="5">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G25" s="5">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H25" s="5">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I25" s="5">
-        <v>287375</v>
-      </c>
-      <c r="J25" s="5">
         <v>286844</v>
       </c>
-      <c r="K25" s="6">
+      <c r="J25" s="6">
         <v>2400</v>
       </c>
-      <c r="L25" s="13">
+      <c r="K25" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M25" s="13">
+      <c r="L25" s="13">
         <f t="shared" si="1"/>
         <v>1.8477598956067856E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>100</v>
       </c>
@@ -10556,36 +10917,33 @@
         <v>3000</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="5">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G26" s="5">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H26" s="5">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I26" s="5">
-        <v>287375</v>
-      </c>
-      <c r="J26" s="5">
         <v>286844</v>
       </c>
-      <c r="K26" s="6">
+      <c r="J26" s="6">
         <v>3000</v>
       </c>
-      <c r="L26" s="13">
+      <c r="K26" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M26" s="13">
+      <c r="L26" s="13">
         <f t="shared" si="1"/>
         <v>1.8477598956067856E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>100</v>
       </c>
@@ -10599,36 +10957,33 @@
         <v>3600</v>
       </c>
       <c r="E27" s="8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="8">
-        <v>2000</v>
+        <v>1210</v>
       </c>
       <c r="G27" s="8">
-        <v>1210</v>
+        <v>285752</v>
       </c>
       <c r="H27" s="8">
-        <v>285752</v>
+        <v>287375</v>
       </c>
       <c r="I27" s="8">
-        <v>287375</v>
-      </c>
-      <c r="J27" s="8">
         <v>286872</v>
       </c>
-      <c r="K27" s="9">
+      <c r="J27" s="9">
         <v>3612.44</v>
       </c>
-      <c r="L27" s="13">
+      <c r="K27" s="13">
         <f t="shared" si="0"/>
         <v>5.6476729012614182E-3</v>
       </c>
-      <c r="M27" s="13">
+      <c r="L27" s="13">
         <f t="shared" si="1"/>
         <v>1.7503262287951284E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>100</v>
       </c>
@@ -10642,36 +10997,33 @@
         <v>600</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F28" s="2">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G28" s="2">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H28" s="2">
-        <v>220237.6</v>
+        <v>231409.4</v>
       </c>
       <c r="I28" s="2">
-        <v>231409.4</v>
-      </c>
-      <c r="J28" s="2">
         <v>225025.8</v>
       </c>
-      <c r="K28" s="3">
+      <c r="J28" s="3">
         <v>600</v>
       </c>
-      <c r="L28" s="13">
+      <c r="K28" s="13">
         <f t="shared" si="0"/>
         <v>4.8277209136707445E-2</v>
       </c>
-      <c r="M28" s="13">
+      <c r="L28" s="13">
         <f t="shared" si="1"/>
         <v>2.7585741979366463E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>100</v>
       </c>
@@ -10685,36 +11037,33 @@
         <v>1200</v>
       </c>
       <c r="E29" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F29" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G29" s="5">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H29" s="5">
-        <v>220237.6</v>
+        <v>231112.2</v>
       </c>
       <c r="I29" s="5">
-        <v>231112.2</v>
-      </c>
-      <c r="J29" s="5">
         <v>225125.8</v>
       </c>
-      <c r="K29" s="6">
+      <c r="J29" s="6">
         <v>1200</v>
       </c>
-      <c r="L29" s="13">
+      <c r="K29" s="13">
         <f t="shared" si="0"/>
         <v>4.7053335998705412E-2</v>
       </c>
-      <c r="M29" s="13">
+      <c r="L29" s="13">
         <f t="shared" si="1"/>
         <v>2.5902570266736341E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>100</v>
       </c>
@@ -10728,36 +11077,33 @@
         <v>1800</v>
       </c>
       <c r="E30" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F30" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G30" s="5">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H30" s="5">
-        <v>220237.6</v>
+        <v>231108</v>
       </c>
       <c r="I30" s="5">
-        <v>231108</v>
-      </c>
-      <c r="J30" s="5">
         <v>225178.2</v>
       </c>
-      <c r="K30" s="6">
+      <c r="J30" s="6">
         <v>1800</v>
       </c>
-      <c r="L30" s="13">
+      <c r="K30" s="13">
         <f t="shared" si="0"/>
         <v>4.703601779254718E-2</v>
       </c>
-      <c r="M30" s="13">
+      <c r="L30" s="13">
         <f t="shared" si="1"/>
         <v>2.5658133859494212E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>100</v>
       </c>
@@ -10771,36 +11117,33 @@
         <v>2400</v>
       </c>
       <c r="E31" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G31" s="5">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H31" s="5">
-        <v>220237.6</v>
+        <v>231102.6</v>
       </c>
       <c r="I31" s="5">
-        <v>231102.6</v>
-      </c>
-      <c r="J31" s="5">
         <v>225212.2</v>
       </c>
-      <c r="K31" s="6">
+      <c r="J31" s="6">
         <v>2400</v>
       </c>
-      <c r="L31" s="13">
+      <c r="K31" s="13">
         <f t="shared" si="0"/>
         <v>4.7013750602546228E-2</v>
       </c>
-      <c r="M31" s="13">
+      <c r="L31" s="13">
         <f t="shared" si="1"/>
         <v>2.5488246345995218E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>100</v>
       </c>
@@ -10814,36 +11157,33 @@
         <v>3000</v>
       </c>
       <c r="E32" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F32" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G32" s="5">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H32" s="5">
-        <v>220237.6</v>
+        <v>231079.4</v>
       </c>
       <c r="I32" s="5">
-        <v>231079.4</v>
-      </c>
-      <c r="J32" s="5">
         <v>225233</v>
       </c>
-      <c r="K32" s="6">
+      <c r="J32" s="6">
         <v>3000</v>
       </c>
-      <c r="L32" s="13">
+      <c r="K32" s="13">
         <f t="shared" si="0"/>
         <v>4.6918072316268732E-2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="L32" s="13">
         <f t="shared" si="1"/>
         <v>2.5300394582987468E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>100</v>
       </c>
@@ -10857,36 +11197,33 @@
         <v>3600</v>
       </c>
       <c r="E33" s="8">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F33" s="8">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G33" s="8">
-        <v>5250</v>
+        <v>220237.6</v>
       </c>
       <c r="H33" s="8">
-        <v>220237.6</v>
+        <v>230845.6</v>
       </c>
       <c r="I33" s="8">
-        <v>230845.6</v>
-      </c>
-      <c r="J33" s="8">
         <v>225261</v>
       </c>
-      <c r="K33" s="9">
+      <c r="J33" s="9">
         <v>3606.7159999999999</v>
       </c>
-      <c r="L33" s="13">
+      <c r="K33" s="13">
         <f t="shared" si="0"/>
         <v>4.5952792689139405E-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="L33" s="13">
         <f t="shared" si="1"/>
         <v>2.4191927418153111E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>100</v>
       </c>
@@ -10900,36 +11237,33 @@
         <v>600</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F34" s="2">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G34" s="2">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H34" s="2">
-        <v>233564.79999999999</v>
+        <v>244758.39999999999</v>
       </c>
       <c r="I34" s="2">
-        <v>244758.39999999999</v>
-      </c>
-      <c r="J34" s="2">
         <v>238081.8</v>
       </c>
-      <c r="K34" s="3">
+      <c r="J34" s="3">
         <v>600</v>
       </c>
-      <c r="L34" s="13">
+      <c r="K34" s="13">
         <f t="shared" si="0"/>
         <v>4.5733261861492826E-2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="L34" s="13">
         <f t="shared" si="1"/>
         <v>2.7278328343378639E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>100</v>
       </c>
@@ -10943,36 +11277,33 @@
         <v>1200</v>
       </c>
       <c r="E35" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F35" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G35" s="5">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H35" s="5">
-        <v>233564.79999999999</v>
+        <v>244669.6</v>
       </c>
       <c r="I35" s="5">
-        <v>244669.6</v>
-      </c>
-      <c r="J35" s="5">
         <v>238183.6</v>
       </c>
-      <c r="K35" s="6">
+      <c r="J35" s="6">
         <v>1200</v>
       </c>
-      <c r="L35" s="13">
+      <c r="K35" s="13">
         <f t="shared" si="0"/>
         <v>4.5386921791673411E-2</v>
       </c>
-      <c r="M35" s="13">
+      <c r="L35" s="13">
         <f t="shared" si="1"/>
         <v>2.6509218963042404E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>100</v>
       </c>
@@ -10986,36 +11317,33 @@
         <v>1800</v>
       </c>
       <c r="E36" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F36" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G36" s="5">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H36" s="5">
-        <v>233564.79999999999</v>
+        <v>244664.6</v>
       </c>
       <c r="I36" s="5">
-        <v>244664.6</v>
-      </c>
-      <c r="J36" s="5">
         <v>238239.6</v>
       </c>
-      <c r="K36" s="6">
+      <c r="J36" s="6">
         <v>1800</v>
       </c>
-      <c r="L36" s="13">
+      <c r="K36" s="13">
         <f t="shared" si="0"/>
         <v>4.536741318523406E-2</v>
       </c>
-      <c r="M36" s="13">
+      <c r="L36" s="13">
         <f t="shared" si="1"/>
         <v>2.6260439802080073E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>100</v>
       </c>
@@ -11029,36 +11357,33 @@
         <v>2400</v>
       </c>
       <c r="E37" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F37" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G37" s="5">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H37" s="5">
-        <v>233564.79999999999</v>
+        <v>244664.6</v>
       </c>
       <c r="I37" s="5">
-        <v>244664.6</v>
-      </c>
-      <c r="J37" s="5">
         <v>238277.2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="J37" s="6">
         <v>2400</v>
       </c>
-      <c r="L37" s="13">
+      <c r="K37" s="13">
         <f t="shared" si="0"/>
         <v>4.536741318523406E-2</v>
       </c>
-      <c r="M37" s="13">
+      <c r="L37" s="13">
         <f t="shared" si="1"/>
         <v>2.6106760029853088E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>100</v>
       </c>
@@ -11072,36 +11397,33 @@
         <v>3000</v>
       </c>
       <c r="E38" s="5">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F38" s="5">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G38" s="5">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H38" s="5">
-        <v>233564.79999999999</v>
+        <v>244637.6</v>
       </c>
       <c r="I38" s="5">
-        <v>244637.6</v>
-      </c>
-      <c r="J38" s="5">
         <v>238301.6</v>
       </c>
-      <c r="K38" s="6">
+      <c r="J38" s="6">
         <v>3000</v>
       </c>
-      <c r="L38" s="13">
+      <c r="K38" s="13">
         <f t="shared" si="0"/>
         <v>4.5262052930538955E-2</v>
       </c>
-      <c r="M38" s="13">
+      <c r="L38" s="13">
         <f t="shared" si="1"/>
         <v>2.5899534658613395E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>100</v>
       </c>
@@ -11115,36 +11437,33 @@
         <v>3600</v>
       </c>
       <c r="E39" s="8">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F39" s="8">
-        <v>10000</v>
+        <v>5250</v>
       </c>
       <c r="G39" s="8">
-        <v>5250</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H39" s="8">
-        <v>233564.79999999999</v>
+        <v>244369.2</v>
       </c>
       <c r="I39" s="8">
-        <v>244369.2</v>
-      </c>
-      <c r="J39" s="8">
         <v>238322.6</v>
       </c>
-      <c r="K39" s="9">
+      <c r="J39" s="9">
         <v>3607.0219999999999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="K39" s="13">
         <f t="shared" si="0"/>
         <v>4.421342787879988E-2</v>
       </c>
-      <c r="M39" s="13">
+      <c r="L39" s="13">
         <f t="shared" si="1"/>
         <v>2.4743707472136445E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>200</v>
       </c>
@@ -11158,36 +11477,33 @@
         <v>600</v>
       </c>
       <c r="E40" s="2">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F40" s="2">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G40" s="2">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H40" s="2">
-        <v>438446.5</v>
+        <v>446269.83333300002</v>
       </c>
       <c r="I40" s="2">
-        <v>446269.83333300002</v>
-      </c>
-      <c r="J40" s="2">
         <v>440084.83333300002</v>
       </c>
-      <c r="K40" s="3">
+      <c r="J40" s="3">
         <v>600</v>
       </c>
-      <c r="L40" s="13">
+      <c r="K40" s="13">
         <f t="shared" si="0"/>
         <v>1.7530500044268867E-2</v>
       </c>
-      <c r="M40" s="13">
+      <c r="L40" s="13">
         <f t="shared" si="1"/>
         <v>1.3859328007467723E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>200</v>
       </c>
@@ -11201,36 +11517,33 @@
         <v>1200</v>
       </c>
       <c r="E41" s="5">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G41" s="5">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H41" s="5">
-        <v>438446.5</v>
+        <v>446128.66666699998</v>
       </c>
       <c r="I41" s="5">
-        <v>446128.66666699998</v>
-      </c>
-      <c r="J41" s="5">
         <v>440131</v>
       </c>
-      <c r="K41" s="6">
+      <c r="J41" s="6">
         <v>1200</v>
       </c>
-      <c r="L41" s="13">
+      <c r="K41" s="13">
         <f t="shared" si="0"/>
         <v>1.7219621246025236E-2</v>
       </c>
-      <c r="M41" s="13">
+      <c r="L41" s="13">
         <f t="shared" si="1"/>
         <v>1.3443804702818548E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>200</v>
       </c>
@@ -11244,36 +11557,33 @@
         <v>1800</v>
       </c>
       <c r="E42" s="5">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F42" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G42" s="5">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H42" s="5">
-        <v>438446.5</v>
+        <v>445970.83333300002</v>
       </c>
       <c r="I42" s="5">
-        <v>445970.83333300002</v>
-      </c>
-      <c r="J42" s="5">
         <v>440162.66666699998</v>
       </c>
-      <c r="K42" s="6">
+      <c r="J42" s="6">
         <v>1800</v>
       </c>
-      <c r="L42" s="13">
+      <c r="K42" s="13">
         <f t="shared" si="0"/>
         <v>1.6871805890906109E-2</v>
       </c>
-      <c r="M42" s="13">
+      <c r="L42" s="13">
         <f t="shared" si="1"/>
         <v>1.3023646911149364E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>200</v>
       </c>
@@ -11287,36 +11597,33 @@
         <v>2400</v>
       </c>
       <c r="E43" s="5">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F43" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G43" s="5">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H43" s="5">
-        <v>438446.5</v>
+        <v>445875.66666699998</v>
       </c>
       <c r="I43" s="5">
-        <v>445875.66666699998</v>
-      </c>
-      <c r="J43" s="5">
         <v>440182.5</v>
       </c>
-      <c r="K43" s="6">
+      <c r="J43" s="6">
         <v>2400</v>
       </c>
-      <c r="L43" s="13">
+      <c r="K43" s="13">
         <f t="shared" si="0"/>
         <v>1.6661969294118083E-2</v>
       </c>
-      <c r="M43" s="13">
+      <c r="L43" s="13">
         <f t="shared" si="1"/>
         <v>1.2768507215380058E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>200</v>
       </c>
@@ -11330,36 +11637,33 @@
         <v>3000</v>
       </c>
       <c r="E44" s="5">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F44" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G44" s="5">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H44" s="5">
-        <v>438446.5</v>
+        <v>445810.83333300002</v>
       </c>
       <c r="I44" s="5">
-        <v>445810.83333300002</v>
-      </c>
-      <c r="J44" s="5">
         <v>440195.83333300002</v>
       </c>
-      <c r="K44" s="6">
+      <c r="J44" s="6">
         <v>3000</v>
       </c>
-      <c r="L44" s="13">
+      <c r="K44" s="13">
         <f t="shared" si="0"/>
         <v>1.6518964507753902E-2</v>
       </c>
-      <c r="M44" s="13">
+      <c r="L44" s="13">
         <f t="shared" si="1"/>
         <v>1.2595028160309095E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>200</v>
       </c>
@@ -11373,36 +11677,33 @@
         <v>3600</v>
       </c>
       <c r="E45" s="8">
-        <v>1.6666669999999999</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="8">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G45" s="8">
-        <v>10450</v>
+        <v>438446.5</v>
       </c>
       <c r="H45" s="8">
-        <v>438446.5</v>
+        <v>445554.66666699998</v>
       </c>
       <c r="I45" s="8">
-        <v>445554.66666699998</v>
-      </c>
-      <c r="J45" s="8">
         <v>440202</v>
       </c>
-      <c r="K45" s="9">
+      <c r="J45" s="9">
         <v>3604.2266669999999</v>
       </c>
-      <c r="L45" s="13">
+      <c r="K45" s="13">
         <f t="shared" si="0"/>
         <v>1.5953523100034114E-2</v>
       </c>
-      <c r="M45" s="13">
+      <c r="L45" s="13">
         <f t="shared" si="1"/>
         <v>1.2013490301966639E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>200</v>
       </c>
@@ -11416,36 +11717,33 @@
         <v>600</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F46" s="2">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G46" s="2">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H46" s="2">
-        <v>479852</v>
+        <v>488999.33333300002</v>
       </c>
       <c r="I46" s="2">
-        <v>488999.33333300002</v>
-      </c>
-      <c r="J46" s="2">
         <v>481421.33333300002</v>
       </c>
-      <c r="K46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="13">
+      <c r="K46" s="13">
         <f t="shared" si="0"/>
         <v>1.870622863767964E-2</v>
       </c>
-      <c r="M46" s="13">
+      <c r="L46" s="13">
         <f t="shared" si="1"/>
         <v>1.5496953642755816E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>200</v>
       </c>
@@ -11459,36 +11757,33 @@
         <v>1200</v>
       </c>
       <c r="E47" s="5">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F47" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G47" s="5">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H47" s="5">
-        <v>479852</v>
+        <v>488424.33333300002</v>
       </c>
       <c r="I47" s="5">
-        <v>488424.33333300002</v>
-      </c>
-      <c r="J47" s="5">
         <v>481479.66666699998</v>
       </c>
-      <c r="K47" s="6">
+      <c r="J47" s="6">
         <v>1200</v>
       </c>
-      <c r="L47" s="13">
+      <c r="K47" s="13">
         <f t="shared" si="0"/>
         <v>1.7550995615846058E-2</v>
       </c>
-      <c r="M47" s="13">
+      <c r="L47" s="13">
         <f t="shared" si="1"/>
         <v>1.4218510815400489E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>200</v>
       </c>
@@ -11502,36 +11797,33 @@
         <v>1800</v>
       </c>
       <c r="E48" s="5">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F48" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G48" s="5">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H48" s="5">
-        <v>479852</v>
+        <v>488078</v>
       </c>
       <c r="I48" s="5">
-        <v>488078</v>
-      </c>
-      <c r="J48" s="5">
         <v>481506.66666699998</v>
       </c>
-      <c r="K48" s="6">
+      <c r="J48" s="6">
         <v>1800</v>
       </c>
-      <c r="L48" s="13">
+      <c r="K48" s="13">
         <f t="shared" si="0"/>
         <v>1.6853863521814137E-2</v>
       </c>
-      <c r="M48" s="13">
+      <c r="L48" s="13">
         <f t="shared" si="1"/>
         <v>1.346369500981404E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>200</v>
       </c>
@@ -11545,36 +11837,33 @@
         <v>2400</v>
       </c>
       <c r="E49" s="5">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F49" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G49" s="5">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H49" s="5">
-        <v>479852</v>
+        <v>487986.66666699998</v>
       </c>
       <c r="I49" s="5">
-        <v>487986.66666699998</v>
-      </c>
-      <c r="J49" s="5">
         <v>481525</v>
       </c>
-      <c r="K49" s="6">
+      <c r="J49" s="6">
         <v>2400</v>
       </c>
-      <c r="L49" s="13">
+      <c r="K49" s="13">
         <f t="shared" si="0"/>
         <v>1.666985436827733E-2</v>
       </c>
-      <c r="M49" s="13">
+      <c r="L49" s="13">
         <f t="shared" si="1"/>
         <v>1.3241482008379128E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>200</v>
       </c>
@@ -11588,36 +11877,33 @@
         <v>3000</v>
       </c>
       <c r="E50" s="5">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F50" s="5">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G50" s="5">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H50" s="5">
-        <v>479852</v>
+        <v>487880</v>
       </c>
       <c r="I50" s="5">
-        <v>487880</v>
-      </c>
-      <c r="J50" s="5">
         <v>481538.66666699998</v>
       </c>
-      <c r="K50" s="6">
+      <c r="J50" s="6">
         <v>3000</v>
       </c>
-      <c r="L50" s="13">
+      <c r="K50" s="13">
         <f t="shared" si="0"/>
         <v>1.6454865950643601E-2</v>
       </c>
-      <c r="M50" s="13">
+      <c r="L50" s="13">
         <f t="shared" si="1"/>
         <v>1.2997731681971011E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>200</v>
       </c>
@@ -11631,36 +11917,33 @@
         <v>3600</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F51" s="8">
-        <v>20000</v>
+        <v>10450</v>
       </c>
       <c r="G51" s="8">
-        <v>10450</v>
+        <v>479852</v>
       </c>
       <c r="H51" s="8">
-        <v>479852</v>
+        <v>487651.66666699998</v>
       </c>
       <c r="I51" s="8">
-        <v>487651.66666699998</v>
-      </c>
-      <c r="J51" s="8">
         <v>481546.33333300002</v>
       </c>
-      <c r="K51" s="9">
+      <c r="J51" s="9">
         <v>3603.04</v>
       </c>
-      <c r="L51" s="13">
+      <c r="K51" s="13">
         <f t="shared" si="0"/>
         <v>1.5994340223030753E-2</v>
       </c>
-      <c r="M51" s="13">
+      <c r="L51" s="13">
         <f t="shared" si="1"/>
         <v>1.2519865615816876E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>300</v>
       </c>
@@ -11674,36 +11957,33 @@
         <v>600</v>
       </c>
       <c r="E52" s="2">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="2">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G52" s="2">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H52" s="2">
-        <v>680189</v>
+        <v>687166</v>
       </c>
       <c r="I52" s="2">
-        <v>687166</v>
-      </c>
-      <c r="J52" s="2">
         <v>681482.2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="13">
+      <c r="K52" s="13">
         <f t="shared" si="0"/>
         <v>1.0153296292307826E-2</v>
       </c>
-      <c r="M52" s="13">
+      <c r="L52" s="13">
         <f t="shared" si="1"/>
         <v>8.2713638334842628E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>300</v>
       </c>
@@ -11717,36 +11997,33 @@
         <v>1200</v>
       </c>
       <c r="E53" s="5">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F53" s="5">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G53" s="5">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H53" s="5">
-        <v>680189</v>
+        <v>686692.8</v>
       </c>
       <c r="I53" s="5">
-        <v>686692.8</v>
-      </c>
-      <c r="J53" s="5">
         <v>681547.4</v>
       </c>
-      <c r="K53" s="6">
+      <c r="J53" s="6">
         <v>1200</v>
       </c>
-      <c r="L53" s="13">
+      <c r="K53" s="13">
         <f t="shared" si="0"/>
         <v>9.471192941006585E-3</v>
       </c>
-      <c r="M53" s="13">
+      <c r="L53" s="13">
         <f t="shared" si="1"/>
         <v>7.4930157997870703E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>300</v>
       </c>
@@ -11760,36 +12037,33 @@
         <v>1800</v>
       </c>
       <c r="E54" s="5">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F54" s="5">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G54" s="5">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H54" s="5">
-        <v>680189</v>
+        <v>686626.2</v>
       </c>
       <c r="I54" s="5">
-        <v>686626.2</v>
-      </c>
-      <c r="J54" s="5">
         <v>681580.4</v>
       </c>
-      <c r="K54" s="6">
+      <c r="J54" s="6">
         <v>1800</v>
       </c>
-      <c r="L54" s="13">
+      <c r="K54" s="13">
         <f t="shared" si="0"/>
         <v>9.3751156014727569E-3</v>
       </c>
-      <c r="M54" s="13">
+      <c r="L54" s="13">
         <f t="shared" si="1"/>
         <v>7.3486855002036482E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>300</v>
       </c>
@@ -11803,36 +12077,33 @@
         <v>2400</v>
       </c>
       <c r="E55" s="5">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F55" s="5">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G55" s="5">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H55" s="5">
-        <v>680189</v>
+        <v>686525.4</v>
       </c>
       <c r="I55" s="5">
-        <v>686525.4</v>
-      </c>
-      <c r="J55" s="5">
         <v>681599.8</v>
       </c>
-      <c r="K55" s="6">
+      <c r="J55" s="6">
         <v>2400</v>
       </c>
-      <c r="L55" s="13">
+      <c r="K55" s="13">
         <f t="shared" si="0"/>
         <v>9.229665792409171E-3</v>
       </c>
-      <c r="M55" s="13">
+      <c r="L55" s="13">
         <f t="shared" si="1"/>
         <v>7.1746799171596223E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>300</v>
       </c>
@@ -11846,36 +12117,33 @@
         <v>3000</v>
       </c>
       <c r="E56" s="5">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F56" s="5">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G56" s="5">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H56" s="5">
-        <v>680189</v>
+        <v>686495.2</v>
       </c>
       <c r="I56" s="5">
-        <v>686495.2</v>
-      </c>
-      <c r="J56" s="5">
         <v>681612.80000000005</v>
       </c>
-      <c r="K56" s="6">
+      <c r="J56" s="6">
         <v>3000</v>
       </c>
-      <c r="L56" s="13">
+      <c r="K56" s="13">
         <f t="shared" si="0"/>
         <v>9.1860802522726361E-3</v>
       </c>
-      <c r="M56" s="13">
+      <c r="L56" s="13">
         <f t="shared" si="1"/>
         <v>7.1120672074617671E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>300</v>
       </c>
@@ -11889,31 +12157,28 @@
         <v>3600</v>
       </c>
       <c r="E57" s="8">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="F57" s="8">
-        <v>30000</v>
+        <v>15650</v>
       </c>
       <c r="G57" s="8">
-        <v>15650</v>
+        <v>680189</v>
       </c>
       <c r="H57" s="8">
-        <v>680189</v>
+        <v>686009.8</v>
       </c>
       <c r="I57" s="8">
-        <v>686009.8</v>
-      </c>
-      <c r="J57" s="8">
         <v>681618.6</v>
       </c>
-      <c r="K57" s="9">
+      <c r="J57" s="9">
         <v>3603.3440000000001</v>
       </c>
-      <c r="L57" s="13">
+      <c r="K57" s="13">
         <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="M57" s="13">
+      <c r="L57" s="13">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EDC0A1-FE4A-44E8-897B-3F167EAFCB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB48A16-3AA1-4CCB-9BAC-92640989D089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="975" windowWidth="20805" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="975" windowWidth="20805" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_det" sheetId="1" r:id="rId1"/>
@@ -1048,12 +1048,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K240"/>
+  <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126:XFD126"/>
+      <selection pane="bottomLeft" activeCell="Q251" sqref="Q251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9455,6 +9455,1056 @@
         <v>3603.72</v>
       </c>
       <c r="K240">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>300</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>25</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>30000</v>
+      </c>
+      <c r="F241">
+        <v>15650</v>
+      </c>
+      <c r="G241">
+        <v>712918</v>
+      </c>
+      <c r="H241">
+        <v>727776</v>
+      </c>
+      <c r="I241">
+        <v>715222</v>
+      </c>
+      <c r="J241">
+        <v>600</v>
+      </c>
+      <c r="K241">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>300</v>
+      </c>
+      <c r="B242">
+        <v>50</v>
+      </c>
+      <c r="C242">
+        <v>25</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>30000</v>
+      </c>
+      <c r="F242">
+        <v>15650</v>
+      </c>
+      <c r="G242">
+        <v>712918</v>
+      </c>
+      <c r="H242">
+        <v>726605</v>
+      </c>
+      <c r="I242">
+        <v>715354</v>
+      </c>
+      <c r="J242">
+        <v>1200</v>
+      </c>
+      <c r="K242">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>300</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+      <c r="C243">
+        <v>25</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>30000</v>
+      </c>
+      <c r="F243">
+        <v>15650</v>
+      </c>
+      <c r="G243">
+        <v>712918</v>
+      </c>
+      <c r="H243">
+        <v>726256</v>
+      </c>
+      <c r="I243">
+        <v>715471</v>
+      </c>
+      <c r="J243">
+        <v>1800</v>
+      </c>
+      <c r="K243">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>300</v>
+      </c>
+      <c r="B244">
+        <v>50</v>
+      </c>
+      <c r="C244">
+        <v>25</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>30000</v>
+      </c>
+      <c r="F244">
+        <v>15650</v>
+      </c>
+      <c r="G244">
+        <v>712918</v>
+      </c>
+      <c r="H244">
+        <v>726255</v>
+      </c>
+      <c r="I244">
+        <v>715577</v>
+      </c>
+      <c r="J244">
+        <v>2400</v>
+      </c>
+      <c r="K244">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>300</v>
+      </c>
+      <c r="B245">
+        <v>50</v>
+      </c>
+      <c r="C245">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>30000</v>
+      </c>
+      <c r="F245">
+        <v>15650</v>
+      </c>
+      <c r="G245">
+        <v>712918</v>
+      </c>
+      <c r="H245">
+        <v>725844</v>
+      </c>
+      <c r="I245">
+        <v>715652</v>
+      </c>
+      <c r="J245">
+        <v>3000</v>
+      </c>
+      <c r="K245">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>300</v>
+      </c>
+      <c r="B246">
+        <v>50</v>
+      </c>
+      <c r="C246">
+        <v>25</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>30000</v>
+      </c>
+      <c r="F246">
+        <v>15650</v>
+      </c>
+      <c r="G246">
+        <v>712918</v>
+      </c>
+      <c r="H246">
+        <v>725626</v>
+      </c>
+      <c r="I246">
+        <v>715693</v>
+      </c>
+      <c r="J246">
+        <v>3602.33</v>
+      </c>
+      <c r="K246">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>300</v>
+      </c>
+      <c r="B247">
+        <v>50</v>
+      </c>
+      <c r="C247">
+        <v>25</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>30000</v>
+      </c>
+      <c r="F247">
+        <v>15650</v>
+      </c>
+      <c r="G247">
+        <v>693825</v>
+      </c>
+      <c r="H247">
+        <v>704303</v>
+      </c>
+      <c r="I247">
+        <v>694939</v>
+      </c>
+      <c r="J247">
+        <v>600</v>
+      </c>
+      <c r="K247">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>300</v>
+      </c>
+      <c r="B248">
+        <v>50</v>
+      </c>
+      <c r="C248">
+        <v>25</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>30000</v>
+      </c>
+      <c r="F248">
+        <v>15650</v>
+      </c>
+      <c r="G248">
+        <v>693825</v>
+      </c>
+      <c r="H248">
+        <v>703797</v>
+      </c>
+      <c r="I248">
+        <v>694978</v>
+      </c>
+      <c r="J248">
+        <v>1200</v>
+      </c>
+      <c r="K248">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>300</v>
+      </c>
+      <c r="B249">
+        <v>50</v>
+      </c>
+      <c r="C249">
+        <v>25</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>30000</v>
+      </c>
+      <c r="F249">
+        <v>15650</v>
+      </c>
+      <c r="G249">
+        <v>693825</v>
+      </c>
+      <c r="H249">
+        <v>702537</v>
+      </c>
+      <c r="I249">
+        <v>695003</v>
+      </c>
+      <c r="J249">
+        <v>1800</v>
+      </c>
+      <c r="K249">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>300</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+      <c r="C250">
+        <v>25</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>30000</v>
+      </c>
+      <c r="F250">
+        <v>15650</v>
+      </c>
+      <c r="G250">
+        <v>693825</v>
+      </c>
+      <c r="H250">
+        <v>702444</v>
+      </c>
+      <c r="I250">
+        <v>695018</v>
+      </c>
+      <c r="J250">
+        <v>2400</v>
+      </c>
+      <c r="K250">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>300</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+      <c r="C251">
+        <v>25</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>30000</v>
+      </c>
+      <c r="F251">
+        <v>15650</v>
+      </c>
+      <c r="G251">
+        <v>693825</v>
+      </c>
+      <c r="H251">
+        <v>702412</v>
+      </c>
+      <c r="I251">
+        <v>695029</v>
+      </c>
+      <c r="J251">
+        <v>3000</v>
+      </c>
+      <c r="K251">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>300</v>
+      </c>
+      <c r="B252">
+        <v>50</v>
+      </c>
+      <c r="C252">
+        <v>25</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>30000</v>
+      </c>
+      <c r="F252">
+        <v>15650</v>
+      </c>
+      <c r="G252">
+        <v>693825</v>
+      </c>
+      <c r="H252">
+        <v>701504</v>
+      </c>
+      <c r="I252">
+        <v>695035</v>
+      </c>
+      <c r="J252">
+        <v>3602.68</v>
+      </c>
+      <c r="K252">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>300</v>
+      </c>
+      <c r="B253">
+        <v>50</v>
+      </c>
+      <c r="C253">
+        <v>25</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>30000</v>
+      </c>
+      <c r="F253">
+        <v>15650</v>
+      </c>
+      <c r="G253">
+        <v>652111</v>
+      </c>
+      <c r="H253">
+        <v>658915</v>
+      </c>
+      <c r="I253">
+        <v>652970</v>
+      </c>
+      <c r="J253">
+        <v>600</v>
+      </c>
+      <c r="K253">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>300</v>
+      </c>
+      <c r="B254">
+        <v>50</v>
+      </c>
+      <c r="C254">
+        <v>25</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>30000</v>
+      </c>
+      <c r="F254">
+        <v>15650</v>
+      </c>
+      <c r="G254">
+        <v>652111</v>
+      </c>
+      <c r="H254">
+        <v>658280</v>
+      </c>
+      <c r="I254">
+        <v>653018</v>
+      </c>
+      <c r="J254">
+        <v>1200</v>
+      </c>
+      <c r="K254">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>300</v>
+      </c>
+      <c r="B255">
+        <v>50</v>
+      </c>
+      <c r="C255">
+        <v>25</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>30000</v>
+      </c>
+      <c r="F255">
+        <v>15650</v>
+      </c>
+      <c r="G255">
+        <v>652111</v>
+      </c>
+      <c r="H255">
+        <v>658146</v>
+      </c>
+      <c r="I255">
+        <v>653050</v>
+      </c>
+      <c r="J255">
+        <v>1800</v>
+      </c>
+      <c r="K255">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>300</v>
+      </c>
+      <c r="B256">
+        <v>50</v>
+      </c>
+      <c r="C256">
+        <v>25</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>30000</v>
+      </c>
+      <c r="F256">
+        <v>15650</v>
+      </c>
+      <c r="G256">
+        <v>652111</v>
+      </c>
+      <c r="H256">
+        <v>658146</v>
+      </c>
+      <c r="I256">
+        <v>653074</v>
+      </c>
+      <c r="J256">
+        <v>2400</v>
+      </c>
+      <c r="K256">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>300</v>
+      </c>
+      <c r="B257">
+        <v>50</v>
+      </c>
+      <c r="C257">
+        <v>25</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>30000</v>
+      </c>
+      <c r="F257">
+        <v>15650</v>
+      </c>
+      <c r="G257">
+        <v>652111</v>
+      </c>
+      <c r="H257">
+        <v>658141</v>
+      </c>
+      <c r="I257">
+        <v>653090</v>
+      </c>
+      <c r="J257">
+        <v>3000</v>
+      </c>
+      <c r="K257">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>300</v>
+      </c>
+      <c r="B258">
+        <v>50</v>
+      </c>
+      <c r="C258">
+        <v>25</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>30000</v>
+      </c>
+      <c r="F258">
+        <v>15650</v>
+      </c>
+      <c r="G258">
+        <v>652111</v>
+      </c>
+      <c r="H258">
+        <v>657693</v>
+      </c>
+      <c r="I258">
+        <v>653096</v>
+      </c>
+      <c r="J258">
+        <v>3603.18</v>
+      </c>
+      <c r="K258">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>300</v>
+      </c>
+      <c r="B259">
+        <v>50</v>
+      </c>
+      <c r="C259">
+        <v>25</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <v>30000</v>
+      </c>
+      <c r="F259">
+        <v>15650</v>
+      </c>
+      <c r="G259">
+        <v>675598</v>
+      </c>
+      <c r="H259">
+        <v>682381</v>
+      </c>
+      <c r="I259">
+        <v>676423</v>
+      </c>
+      <c r="J259">
+        <v>600</v>
+      </c>
+      <c r="K259">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>300</v>
+      </c>
+      <c r="B260">
+        <v>50</v>
+      </c>
+      <c r="C260">
+        <v>25</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260">
+        <v>30000</v>
+      </c>
+      <c r="F260">
+        <v>15650</v>
+      </c>
+      <c r="G260">
+        <v>675598</v>
+      </c>
+      <c r="H260">
+        <v>681926</v>
+      </c>
+      <c r="I260">
+        <v>676465</v>
+      </c>
+      <c r="J260">
+        <v>1200</v>
+      </c>
+      <c r="K260">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>300</v>
+      </c>
+      <c r="B261">
+        <v>50</v>
+      </c>
+      <c r="C261">
+        <v>25</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261">
+        <v>30000</v>
+      </c>
+      <c r="F261">
+        <v>15650</v>
+      </c>
+      <c r="G261">
+        <v>675598</v>
+      </c>
+      <c r="H261">
+        <v>681926</v>
+      </c>
+      <c r="I261">
+        <v>676490</v>
+      </c>
+      <c r="J261">
+        <v>1800</v>
+      </c>
+      <c r="K261">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>300</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+      <c r="C262">
+        <v>25</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="E262">
+        <v>30000</v>
+      </c>
+      <c r="F262">
+        <v>15650</v>
+      </c>
+      <c r="G262">
+        <v>675598</v>
+      </c>
+      <c r="H262">
+        <v>681825</v>
+      </c>
+      <c r="I262">
+        <v>676509</v>
+      </c>
+      <c r="J262">
+        <v>2400</v>
+      </c>
+      <c r="K262">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>300</v>
+      </c>
+      <c r="B263">
+        <v>50</v>
+      </c>
+      <c r="C263">
+        <v>25</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263">
+        <v>30000</v>
+      </c>
+      <c r="F263">
+        <v>15650</v>
+      </c>
+      <c r="G263">
+        <v>675598</v>
+      </c>
+      <c r="H263">
+        <v>681763</v>
+      </c>
+      <c r="I263">
+        <v>676523</v>
+      </c>
+      <c r="J263">
+        <v>3000</v>
+      </c>
+      <c r="K263">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>300</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+      <c r="C264">
+        <v>25</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+      <c r="E264">
+        <v>30000</v>
+      </c>
+      <c r="F264">
+        <v>15650</v>
+      </c>
+      <c r="G264">
+        <v>675598</v>
+      </c>
+      <c r="H264">
+        <v>681435</v>
+      </c>
+      <c r="I264">
+        <v>676530</v>
+      </c>
+      <c r="J264">
+        <v>3602.92</v>
+      </c>
+      <c r="K264">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>300</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+      <c r="C265">
+        <v>25</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <v>30000</v>
+      </c>
+      <c r="F265">
+        <v>15650</v>
+      </c>
+      <c r="G265">
+        <v>676071</v>
+      </c>
+      <c r="H265">
+        <v>683546</v>
+      </c>
+      <c r="I265">
+        <v>677339</v>
+      </c>
+      <c r="J265">
+        <v>600</v>
+      </c>
+      <c r="K265">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>300</v>
+      </c>
+      <c r="B266">
+        <v>50</v>
+      </c>
+      <c r="C266">
+        <v>25</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266">
+        <v>30000</v>
+      </c>
+      <c r="F266">
+        <v>15650</v>
+      </c>
+      <c r="G266">
+        <v>676071</v>
+      </c>
+      <c r="H266">
+        <v>682984</v>
+      </c>
+      <c r="I266">
+        <v>677398</v>
+      </c>
+      <c r="J266">
+        <v>1200</v>
+      </c>
+      <c r="K266">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>300</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+      <c r="C267">
+        <v>25</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267">
+        <v>30000</v>
+      </c>
+      <c r="F267">
+        <v>15650</v>
+      </c>
+      <c r="G267">
+        <v>676071</v>
+      </c>
+      <c r="H267">
+        <v>682325</v>
+      </c>
+      <c r="I267">
+        <v>677424</v>
+      </c>
+      <c r="J267">
+        <v>1800</v>
+      </c>
+      <c r="K267">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>300</v>
+      </c>
+      <c r="B268">
+        <v>50</v>
+      </c>
+      <c r="C268">
+        <v>25</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+      <c r="E268">
+        <v>30000</v>
+      </c>
+      <c r="F268">
+        <v>15650</v>
+      </c>
+      <c r="G268">
+        <v>676071</v>
+      </c>
+      <c r="H268">
+        <v>682151</v>
+      </c>
+      <c r="I268">
+        <v>677436</v>
+      </c>
+      <c r="J268">
+        <v>2400</v>
+      </c>
+      <c r="K268">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>300</v>
+      </c>
+      <c r="B269">
+        <v>50</v>
+      </c>
+      <c r="C269">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269">
+        <v>30000</v>
+      </c>
+      <c r="F269">
+        <v>15650</v>
+      </c>
+      <c r="G269">
+        <v>676071</v>
+      </c>
+      <c r="H269">
+        <v>682131</v>
+      </c>
+      <c r="I269">
+        <v>677443</v>
+      </c>
+      <c r="J269">
+        <v>3000</v>
+      </c>
+      <c r="K269">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>300</v>
+      </c>
+      <c r="B270">
+        <v>50</v>
+      </c>
+      <c r="C270">
+        <v>25</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>30000</v>
+      </c>
+      <c r="F270">
+        <v>15650</v>
+      </c>
+      <c r="G270">
+        <v>676071</v>
+      </c>
+      <c r="H270">
+        <v>681632</v>
+      </c>
+      <c r="I270">
+        <v>677445</v>
+      </c>
+      <c r="J270">
+        <v>3603.33</v>
+      </c>
+      <c r="K270">
         <v>3600</v>
       </c>
     </row>
@@ -9467,7 +10517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB48A16-3AA1-4CCB-9BAC-92640989D089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB647B-F52D-4578-9F4A-5CC3D80C6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="975" windowWidth="20805" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="975" windowWidth="25005" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_det" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>numcols</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>n.infeas</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>inst_50_10_0_0</t>
+  </si>
+  <si>
+    <t>inst_50_10_0_1</t>
+  </si>
+  <si>
+    <t>inst_50_10_0_2</t>
+  </si>
+  <si>
+    <t>inst_50_10_0_3</t>
   </si>
 </sst>
 </file>
@@ -1048,12 +1063,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K270"/>
+  <dimension ref="A1:V269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q251" sqref="Q251"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1644,16 +1659,43 @@
         <v>120485</v>
       </c>
       <c r="I17">
-        <v>120063</v>
+        <v>120045</v>
       </c>
       <c r="J17">
-        <v>613.03499999999997</v>
+        <v>1234.0899999999999</v>
       </c>
       <c r="K17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>118948</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>120485</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>120045</v>
+      </c>
+      <c r="U17" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>1234.0899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1679,16 +1721,43 @@
         <v>123821</v>
       </c>
       <c r="I18">
-        <v>123458</v>
+        <v>123326</v>
       </c>
       <c r="J18">
-        <v>616.79499999999996</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="K18">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>121765</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>123821</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>123326</v>
+      </c>
+      <c r="U18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>1216.4000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1717,13 +1786,40 @@
         <v>151517</v>
       </c>
       <c r="J19">
-        <v>322.50700000000001</v>
+        <v>162.11600000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>149599</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>151532</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>151517</v>
+      </c>
+      <c r="U19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>162.11600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1746,19 +1842,46 @@
         <v>139311</v>
       </c>
       <c r="H20">
-        <v>140889</v>
+        <v>140881</v>
       </c>
       <c r="I20">
-        <v>140875</v>
+        <v>140867</v>
       </c>
       <c r="J20">
-        <v>97.981999999999999</v>
+        <v>57.445999999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>139311</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>140881</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>140867</v>
+      </c>
+      <c r="U20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20">
+        <v>57.445999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1778,22 +1901,49 @@
         <v>610</v>
       </c>
       <c r="G21">
-        <v>124384</v>
+        <v>118948</v>
       </c>
       <c r="H21">
-        <v>125604</v>
+        <v>120485</v>
       </c>
       <c r="I21">
-        <v>125591</v>
+        <v>120044</v>
       </c>
       <c r="J21">
-        <v>19.706</v>
+        <v>1220.55</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>118948</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>120485</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>120044</v>
+      </c>
+      <c r="U21" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21">
+        <v>1220.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1828,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50</v>
       </c>
@@ -1860,10 +2010,10 @@
         <v>600.04600000000005</v>
       </c>
       <c r="K23">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1898,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1933,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1968,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2003,7 +2153,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
@@ -2038,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -2073,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50</v>
       </c>
@@ -2108,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
@@ -2143,7 +2293,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>52</v>
       </c>
@@ -3467,7 +3617,7 @@
         <v>135193</v>
       </c>
       <c r="J69">
-        <v>28.870999999999999</v>
+        <v>70.381</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3493,16 +3643,16 @@
         <v>610</v>
       </c>
       <c r="G70">
-        <v>126432</v>
+        <v>134062</v>
       </c>
       <c r="H70">
-        <v>128147</v>
+        <v>135207</v>
       </c>
       <c r="I70">
-        <v>127840</v>
+        <v>135193</v>
       </c>
       <c r="J70">
-        <v>600</v>
+        <v>79.346000000000004</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3519,7 +3669,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1000</v>
@@ -3537,7 +3687,7 @@
         <v>128134</v>
       </c>
       <c r="J71">
-        <v>1159.96</v>
+        <v>566.29499999999996</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3554,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>1000</v>
@@ -3572,7 +3722,7 @@
         <v>120160</v>
       </c>
       <c r="J72">
-        <v>112.253</v>
+        <v>96.941999999999993</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3589,7 +3739,7 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>1000</v>
@@ -3607,7 +3757,7 @@
         <v>148472</v>
       </c>
       <c r="J73">
-        <v>106.05</v>
+        <v>119.541</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3621,10 +3771,10 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1000</v>
@@ -3633,19 +3783,19 @@
         <v>610</v>
       </c>
       <c r="G74">
-        <v>136266</v>
+        <v>144518</v>
       </c>
       <c r="H74">
-        <v>138274</v>
+        <v>147161</v>
       </c>
       <c r="I74">
-        <v>138260</v>
+        <v>146075</v>
       </c>
       <c r="J74">
-        <v>140.815</v>
+        <v>600</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3677,10 +3827,10 @@
         <v>146075</v>
       </c>
       <c r="J75">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K75">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3712,10 +3862,10 @@
         <v>146075</v>
       </c>
       <c r="J76">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K76">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3747,10 +3897,10 @@
         <v>146075</v>
       </c>
       <c r="J77">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K77">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3782,10 +3932,10 @@
         <v>146075</v>
       </c>
       <c r="J78">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K78">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3811,16 +3961,16 @@
         <v>144518</v>
       </c>
       <c r="H79">
-        <v>147161</v>
+        <v>146982</v>
       </c>
       <c r="I79">
-        <v>146075</v>
+        <v>146302</v>
       </c>
       <c r="J79">
-        <v>3000</v>
+        <v>3608.97</v>
       </c>
       <c r="K79">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -3843,19 +3993,19 @@
         <v>610</v>
       </c>
       <c r="G80">
-        <v>144518</v>
+        <v>98195.6</v>
       </c>
       <c r="H80">
-        <v>146982</v>
+        <v>99220</v>
       </c>
       <c r="I80">
-        <v>146302</v>
+        <v>99210.1</v>
       </c>
       <c r="J80">
-        <v>3608.97</v>
+        <v>218.62799999999999</v>
       </c>
       <c r="K80">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3869,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -3878,16 +4028,16 @@
         <v>610</v>
       </c>
       <c r="G81">
-        <v>98195.6</v>
+        <v>121248</v>
       </c>
       <c r="H81">
-        <v>99220</v>
+        <v>122304</v>
       </c>
       <c r="I81">
-        <v>99210.1</v>
+        <v>122292</v>
       </c>
       <c r="J81">
-        <v>218.62799999999999</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3904,7 +4054,7 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -3913,16 +4063,16 @@
         <v>610</v>
       </c>
       <c r="G82">
-        <v>121248</v>
+        <v>113054</v>
       </c>
       <c r="H82">
-        <v>122304</v>
+        <v>114731</v>
       </c>
       <c r="I82">
-        <v>122292</v>
+        <v>114728</v>
       </c>
       <c r="J82">
-        <v>4.5640000000000001</v>
+        <v>30.13</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3939,7 +4089,7 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -3948,19 +4098,19 @@
         <v>610</v>
       </c>
       <c r="G83">
-        <v>113054</v>
+        <v>120415</v>
       </c>
       <c r="H83">
-        <v>114731</v>
+        <v>122567</v>
       </c>
       <c r="I83">
-        <v>114728</v>
+        <v>122132</v>
       </c>
       <c r="J83">
-        <v>30.13</v>
+        <v>600</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3992,10 +4142,10 @@
         <v>122132</v>
       </c>
       <c r="J84">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K84">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,10 +4177,10 @@
         <v>122132</v>
       </c>
       <c r="J85">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K85">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4059,13 +4209,13 @@
         <v>122567</v>
       </c>
       <c r="I86">
-        <v>122132</v>
+        <v>122143</v>
       </c>
       <c r="J86">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K86">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,10 +4247,10 @@
         <v>122143</v>
       </c>
       <c r="J87">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K87">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4126,21 +4276,21 @@
         <v>120415</v>
       </c>
       <c r="H88">
-        <v>122567</v>
+        <v>122517</v>
       </c>
       <c r="I88">
-        <v>122143</v>
+        <v>122244</v>
       </c>
       <c r="J88">
-        <v>3000</v>
+        <v>3612.65</v>
       </c>
       <c r="K88">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B89">
         <v>10</v>
@@ -4149,28 +4299,28 @@
         <v>10</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F89">
-        <v>610</v>
+        <v>1210</v>
       </c>
       <c r="G89">
-        <v>120415</v>
+        <v>285752</v>
       </c>
       <c r="H89">
-        <v>122517</v>
+        <v>287375</v>
       </c>
       <c r="I89">
-        <v>122244</v>
+        <v>286844</v>
       </c>
       <c r="J89">
-        <v>3612.65</v>
+        <v>600</v>
       </c>
       <c r="K89">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,10 +4352,10 @@
         <v>286844</v>
       </c>
       <c r="J90">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K90">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,10 +4387,10 @@
         <v>286844</v>
       </c>
       <c r="J91">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K91">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4272,10 +4422,10 @@
         <v>286844</v>
       </c>
       <c r="J92">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K92">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4307,10 +4457,10 @@
         <v>286844</v>
       </c>
       <c r="J93">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K93">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4339,13 +4489,13 @@
         <v>287375</v>
       </c>
       <c r="I94">
-        <v>286844</v>
+        <v>286872</v>
       </c>
       <c r="J94">
-        <v>3000</v>
+        <v>3612.44</v>
       </c>
       <c r="K94">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4359,7 +4509,7 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>2000</v>
@@ -4368,19 +4518,19 @@
         <v>1210</v>
       </c>
       <c r="G95">
-        <v>285752</v>
+        <v>254945</v>
       </c>
       <c r="H95">
-        <v>287375</v>
+        <v>255761</v>
       </c>
       <c r="I95">
-        <v>286872</v>
+        <v>255735</v>
       </c>
       <c r="J95">
-        <v>3612.44</v>
+        <v>35.008000000000003</v>
       </c>
       <c r="K95">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4388,34 +4538,34 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="F96">
-        <v>1210</v>
+        <v>5250</v>
       </c>
       <c r="G96">
-        <v>254945</v>
+        <v>219122</v>
       </c>
       <c r="H96">
-        <v>255761</v>
+        <v>230115</v>
       </c>
       <c r="I96">
-        <v>255735</v>
+        <v>224153</v>
       </c>
       <c r="J96">
-        <v>35.008000000000003</v>
+        <v>600</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,13 +4594,13 @@
         <v>230115</v>
       </c>
       <c r="I97">
-        <v>224153</v>
+        <v>224264</v>
       </c>
       <c r="J97">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K97">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4479,13 +4629,13 @@
         <v>230115</v>
       </c>
       <c r="I98">
-        <v>224264</v>
+        <v>224331</v>
       </c>
       <c r="J98">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K98">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4514,13 +4664,13 @@
         <v>230115</v>
       </c>
       <c r="I99">
-        <v>224331</v>
+        <v>224377</v>
       </c>
       <c r="J99">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K99">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4549,13 +4699,13 @@
         <v>230115</v>
       </c>
       <c r="I100">
-        <v>224377</v>
+        <v>224387</v>
       </c>
       <c r="J100">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K100">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4581,16 +4731,16 @@
         <v>219122</v>
       </c>
       <c r="H101">
-        <v>230115</v>
+        <v>229366</v>
       </c>
       <c r="I101">
-        <v>224387</v>
+        <v>224437</v>
       </c>
       <c r="J101">
-        <v>3000</v>
+        <v>3606.87</v>
       </c>
       <c r="K101">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4604,7 +4754,7 @@
         <v>10</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>10000</v>
@@ -4613,19 +4763,19 @@
         <v>5250</v>
       </c>
       <c r="G102">
-        <v>219122</v>
+        <v>222991</v>
       </c>
       <c r="H102">
-        <v>229366</v>
+        <v>234958</v>
       </c>
       <c r="I102">
-        <v>224437</v>
+        <v>228447</v>
       </c>
       <c r="J102">
-        <v>3606.87</v>
+        <v>600</v>
       </c>
       <c r="K102">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4651,16 +4801,16 @@
         <v>222991</v>
       </c>
       <c r="H103">
-        <v>234958</v>
+        <v>234708</v>
       </c>
       <c r="I103">
-        <v>228447</v>
+        <v>228536</v>
       </c>
       <c r="J103">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K103">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4689,13 +4839,13 @@
         <v>234708</v>
       </c>
       <c r="I104">
-        <v>228536</v>
+        <v>228571</v>
       </c>
       <c r="J104">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K104">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4724,13 +4874,13 @@
         <v>234708</v>
       </c>
       <c r="I105">
-        <v>228571</v>
+        <v>228581</v>
       </c>
       <c r="J105">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K105">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4762,10 +4912,10 @@
         <v>228581</v>
       </c>
       <c r="J106">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K106">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4791,16 +4941,16 @@
         <v>222991</v>
       </c>
       <c r="H107">
-        <v>234708</v>
+        <v>234322</v>
       </c>
       <c r="I107">
-        <v>228581</v>
+        <v>228618</v>
       </c>
       <c r="J107">
-        <v>3000</v>
+        <v>3605.7</v>
       </c>
       <c r="K107">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4814,7 +4964,7 @@
         <v>10</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>10000</v>
@@ -4823,19 +4973,19 @@
         <v>5250</v>
       </c>
       <c r="G108">
-        <v>222991</v>
+        <v>214388</v>
       </c>
       <c r="H108">
-        <v>234322</v>
+        <v>224141</v>
       </c>
       <c r="I108">
-        <v>228618</v>
+        <v>218789</v>
       </c>
       <c r="J108">
-        <v>3605.7</v>
+        <v>600</v>
       </c>
       <c r="K108">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4861,16 +5011,16 @@
         <v>214388</v>
       </c>
       <c r="H109">
-        <v>224141</v>
+        <v>224060</v>
       </c>
       <c r="I109">
-        <v>218789</v>
+        <v>218889</v>
       </c>
       <c r="J109">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K109">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4896,16 +5046,16 @@
         <v>214388</v>
       </c>
       <c r="H110">
-        <v>224060</v>
+        <v>224039</v>
       </c>
       <c r="I110">
-        <v>218889</v>
+        <v>218946</v>
       </c>
       <c r="J110">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K110">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4934,13 +5084,13 @@
         <v>224039</v>
       </c>
       <c r="I111">
-        <v>218946</v>
+        <v>218984</v>
       </c>
       <c r="J111">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K111">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4966,16 +5116,16 @@
         <v>214388</v>
       </c>
       <c r="H112">
-        <v>224039</v>
+        <v>223931</v>
       </c>
       <c r="I112">
-        <v>218984</v>
+        <v>219012</v>
       </c>
       <c r="J112">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K112">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5004,13 +5154,13 @@
         <v>223931</v>
       </c>
       <c r="I113">
-        <v>219012</v>
+        <v>219028</v>
       </c>
       <c r="J113">
-        <v>3000</v>
+        <v>3608.47</v>
       </c>
       <c r="K113">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5024,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>10000</v>
@@ -5033,19 +5183,19 @@
         <v>5250</v>
       </c>
       <c r="G114">
-        <v>214388</v>
+        <v>229638</v>
       </c>
       <c r="H114">
-        <v>223931</v>
+        <v>244069</v>
       </c>
       <c r="I114">
-        <v>219028</v>
+        <v>233640</v>
       </c>
       <c r="J114">
-        <v>3608.47</v>
+        <v>600</v>
       </c>
       <c r="K114">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5071,16 +5221,16 @@
         <v>229638</v>
       </c>
       <c r="H115">
-        <v>244069</v>
+        <v>242914</v>
       </c>
       <c r="I115">
-        <v>233640</v>
+        <v>233782</v>
       </c>
       <c r="J115">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K115">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5109,13 +5259,13 @@
         <v>242914</v>
       </c>
       <c r="I116">
-        <v>233782</v>
+        <v>233853</v>
       </c>
       <c r="J116">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K116">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5141,16 +5291,16 @@
         <v>229638</v>
       </c>
       <c r="H117">
-        <v>242914</v>
+        <v>242887</v>
       </c>
       <c r="I117">
-        <v>233853</v>
+        <v>233908</v>
       </c>
       <c r="J117">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K117">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5179,13 +5329,13 @@
         <v>242887</v>
       </c>
       <c r="I118">
-        <v>233908</v>
+        <v>233955</v>
       </c>
       <c r="J118">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K118">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5211,16 +5361,16 @@
         <v>229638</v>
       </c>
       <c r="H119">
-        <v>242887</v>
+        <v>242853</v>
       </c>
       <c r="I119">
-        <v>233955</v>
+        <v>233979</v>
       </c>
       <c r="J119">
-        <v>3000</v>
+        <v>3606.91</v>
       </c>
       <c r="K119">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>10000</v>
@@ -5243,19 +5393,19 @@
         <v>5250</v>
       </c>
       <c r="G120">
-        <v>229638</v>
+        <v>215049</v>
       </c>
       <c r="H120">
-        <v>242853</v>
+        <v>223764</v>
       </c>
       <c r="I120">
-        <v>233979</v>
+        <v>220100</v>
       </c>
       <c r="J120">
-        <v>3606.91</v>
+        <v>600</v>
       </c>
       <c r="K120">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5284,13 +5434,13 @@
         <v>223764</v>
       </c>
       <c r="I121">
-        <v>220100</v>
+        <v>220158</v>
       </c>
       <c r="J121">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K121">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5319,13 +5469,13 @@
         <v>223764</v>
       </c>
       <c r="I122">
-        <v>220158</v>
+        <v>220190</v>
       </c>
       <c r="J122">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K122">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5354,13 +5504,13 @@
         <v>223764</v>
       </c>
       <c r="I123">
-        <v>220190</v>
+        <v>220211</v>
       </c>
       <c r="J123">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K123">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5386,16 +5536,16 @@
         <v>215049</v>
       </c>
       <c r="H124">
-        <v>223764</v>
+        <v>223756</v>
       </c>
       <c r="I124">
-        <v>220211</v>
+        <v>220230</v>
       </c>
       <c r="J124">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K124">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5424,13 +5574,13 @@
         <v>223756</v>
       </c>
       <c r="I125">
-        <v>220230</v>
+        <v>220243</v>
       </c>
       <c r="J125">
-        <v>3000</v>
+        <v>3605.63</v>
       </c>
       <c r="K125">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,10 +5591,10 @@
         <v>50</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>10000</v>
@@ -5453,19 +5603,19 @@
         <v>5250</v>
       </c>
       <c r="G126">
-        <v>215049</v>
+        <v>237887</v>
       </c>
       <c r="H126">
-        <v>223756</v>
+        <v>250483</v>
       </c>
       <c r="I126">
-        <v>220243</v>
+        <v>245197</v>
       </c>
       <c r="J126">
-        <v>3605.63</v>
+        <v>600</v>
       </c>
       <c r="K126">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5491,16 +5641,16 @@
         <v>237887</v>
       </c>
       <c r="H127">
-        <v>250483</v>
+        <v>250364</v>
       </c>
       <c r="I127">
-        <v>245197</v>
+        <v>245373</v>
       </c>
       <c r="J127">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K127">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5529,13 +5679,13 @@
         <v>250364</v>
       </c>
       <c r="I128">
-        <v>245373</v>
+        <v>245460</v>
       </c>
       <c r="J128">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K128">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5564,13 +5714,13 @@
         <v>250364</v>
       </c>
       <c r="I129">
-        <v>245460</v>
+        <v>245515</v>
       </c>
       <c r="J129">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K129">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,13 +5749,13 @@
         <v>250364</v>
       </c>
       <c r="I130">
-        <v>245515</v>
+        <v>245552</v>
       </c>
       <c r="J130">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K130">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5631,16 +5781,16 @@
         <v>237887</v>
       </c>
       <c r="H131">
-        <v>250364</v>
+        <v>250237</v>
       </c>
       <c r="I131">
-        <v>245552</v>
+        <v>245571</v>
       </c>
       <c r="J131">
-        <v>3000</v>
+        <v>3606.65</v>
       </c>
       <c r="K131">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5654,7 +5804,7 @@
         <v>25</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>10000</v>
@@ -5663,19 +5813,19 @@
         <v>5250</v>
       </c>
       <c r="G132">
-        <v>237887</v>
+        <v>245129</v>
       </c>
       <c r="H132">
-        <v>250237</v>
+        <v>261664</v>
       </c>
       <c r="I132">
-        <v>245571</v>
+        <v>250172</v>
       </c>
       <c r="J132">
-        <v>3606.65</v>
+        <v>600</v>
       </c>
       <c r="K132">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5701,16 +5851,16 @@
         <v>245129</v>
       </c>
       <c r="H133">
-        <v>261664</v>
+        <v>261647</v>
       </c>
       <c r="I133">
-        <v>250172</v>
+        <v>250308</v>
       </c>
       <c r="J133">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K133">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5736,16 +5886,16 @@
         <v>245129</v>
       </c>
       <c r="H134">
-        <v>261647</v>
+        <v>261622</v>
       </c>
       <c r="I134">
-        <v>250308</v>
+        <v>250385</v>
       </c>
       <c r="J134">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K134">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5774,13 +5924,13 @@
         <v>261622</v>
       </c>
       <c r="I135">
-        <v>250385</v>
+        <v>250434</v>
       </c>
       <c r="J135">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K135">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5809,13 +5959,13 @@
         <v>261622</v>
       </c>
       <c r="I136">
-        <v>250434</v>
+        <v>250453</v>
       </c>
       <c r="J136">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K136">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5841,16 +5991,16 @@
         <v>245129</v>
       </c>
       <c r="H137">
-        <v>261622</v>
+        <v>260814</v>
       </c>
       <c r="I137">
-        <v>250453</v>
+        <v>250503</v>
       </c>
       <c r="J137">
-        <v>3000</v>
+        <v>3607.24</v>
       </c>
       <c r="K137">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5864,7 +6014,7 @@
         <v>25</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>10000</v>
@@ -5873,19 +6023,19 @@
         <v>5250</v>
       </c>
       <c r="G138">
-        <v>245129</v>
+        <v>218889</v>
       </c>
       <c r="H138">
-        <v>260814</v>
+        <v>227117</v>
       </c>
       <c r="I138">
-        <v>250503</v>
+        <v>221816</v>
       </c>
       <c r="J138">
-        <v>3607.24</v>
+        <v>600</v>
       </c>
       <c r="K138">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5914,13 +6064,13 @@
         <v>227117</v>
       </c>
       <c r="I139">
-        <v>221816</v>
+        <v>221912</v>
       </c>
       <c r="J139">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K139">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5949,13 +6099,13 @@
         <v>227117</v>
       </c>
       <c r="I140">
-        <v>221912</v>
+        <v>221971</v>
       </c>
       <c r="J140">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K140">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5984,13 +6134,13 @@
         <v>227117</v>
       </c>
       <c r="I141">
-        <v>221971</v>
+        <v>222015</v>
       </c>
       <c r="J141">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K141">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6016,16 +6166,16 @@
         <v>218889</v>
       </c>
       <c r="H142">
-        <v>227117</v>
+        <v>227056</v>
       </c>
       <c r="I142">
-        <v>222015</v>
+        <v>222049</v>
       </c>
       <c r="J142">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K142">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6051,16 +6201,16 @@
         <v>218889</v>
       </c>
       <c r="H143">
-        <v>227056</v>
+        <v>226793</v>
       </c>
       <c r="I143">
-        <v>222049</v>
+        <v>222070</v>
       </c>
       <c r="J143">
-        <v>3000</v>
+        <v>3604.38</v>
       </c>
       <c r="K143">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6074,7 +6224,7 @@
         <v>25</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>10000</v>
@@ -6083,19 +6233,19 @@
         <v>5250</v>
       </c>
       <c r="G144">
-        <v>218889</v>
+        <v>228058</v>
       </c>
       <c r="H144">
-        <v>226793</v>
+        <v>236133</v>
       </c>
       <c r="I144">
-        <v>222070</v>
+        <v>231502</v>
       </c>
       <c r="J144">
-        <v>3604.38</v>
+        <v>600</v>
       </c>
       <c r="K144">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6121,16 +6271,16 @@
         <v>228058</v>
       </c>
       <c r="H145">
-        <v>236133</v>
+        <v>236081</v>
       </c>
       <c r="I145">
-        <v>231502</v>
+        <v>231529</v>
       </c>
       <c r="J145">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K145">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6159,13 +6309,13 @@
         <v>236081</v>
       </c>
       <c r="I146">
-        <v>231529</v>
+        <v>231543</v>
       </c>
       <c r="J146">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K146">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6194,13 +6344,13 @@
         <v>236081</v>
       </c>
       <c r="I147">
-        <v>231543</v>
+        <v>231553</v>
       </c>
       <c r="J147">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K147">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6229,13 +6379,13 @@
         <v>236081</v>
       </c>
       <c r="I148">
-        <v>231553</v>
+        <v>231561</v>
       </c>
       <c r="J148">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K148">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6264,13 +6414,13 @@
         <v>236081</v>
       </c>
       <c r="I149">
-        <v>231561</v>
+        <v>231565</v>
       </c>
       <c r="J149">
-        <v>3000</v>
+        <v>3608.95</v>
       </c>
       <c r="K149">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6284,7 +6434,7 @@
         <v>25</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E150">
         <v>10000</v>
@@ -6293,19 +6443,19 @@
         <v>5250</v>
       </c>
       <c r="G150">
-        <v>228058</v>
+        <v>237861</v>
       </c>
       <c r="H150">
-        <v>236081</v>
+        <v>248395</v>
       </c>
       <c r="I150">
-        <v>231565</v>
+        <v>241722</v>
       </c>
       <c r="J150">
-        <v>3608.95</v>
+        <v>600</v>
       </c>
       <c r="K150">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6331,16 +6481,16 @@
         <v>237861</v>
       </c>
       <c r="H151">
-        <v>248395</v>
+        <v>248139</v>
       </c>
       <c r="I151">
-        <v>241722</v>
+        <v>241796</v>
       </c>
       <c r="J151">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K151">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6369,13 +6519,13 @@
         <v>248139</v>
       </c>
       <c r="I152">
-        <v>241796</v>
+        <v>241839</v>
       </c>
       <c r="J152">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K152">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6404,13 +6554,13 @@
         <v>248139</v>
       </c>
       <c r="I153">
-        <v>241839</v>
+        <v>241869</v>
       </c>
       <c r="J153">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K153">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6436,16 +6586,16 @@
         <v>237861</v>
       </c>
       <c r="H154">
-        <v>248139</v>
+        <v>248065</v>
       </c>
       <c r="I154">
-        <v>241869</v>
+        <v>241893</v>
       </c>
       <c r="J154">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K154">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,51 +6621,51 @@
         <v>237861</v>
       </c>
       <c r="H155">
-        <v>248065</v>
+        <v>247921</v>
       </c>
       <c r="I155">
-        <v>241893</v>
+        <v>241904</v>
       </c>
       <c r="J155">
-        <v>3000</v>
+        <v>3607.89</v>
       </c>
       <c r="K155">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B156">
         <v>50</v>
       </c>
       <c r="C156">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F156">
-        <v>5250</v>
+        <v>10450</v>
       </c>
       <c r="G156">
-        <v>237861</v>
+        <v>429875</v>
       </c>
       <c r="H156">
-        <v>247921</v>
+        <v>437128</v>
       </c>
       <c r="I156">
-        <v>241904</v>
+        <v>431240</v>
       </c>
       <c r="J156">
-        <v>3607.89</v>
+        <v>600</v>
       </c>
       <c r="K156">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6541,16 +6691,16 @@
         <v>429875</v>
       </c>
       <c r="H157">
-        <v>437128</v>
+        <v>436851</v>
       </c>
       <c r="I157">
-        <v>431240</v>
+        <v>431288</v>
       </c>
       <c r="J157">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K157">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6576,16 +6726,16 @@
         <v>429875</v>
       </c>
       <c r="H158">
-        <v>436851</v>
+        <v>436780</v>
       </c>
       <c r="I158">
-        <v>431288</v>
+        <v>431314</v>
       </c>
       <c r="J158">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K158">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -6611,16 +6761,16 @@
         <v>429875</v>
       </c>
       <c r="H159">
-        <v>436780</v>
+        <v>436763</v>
       </c>
       <c r="I159">
-        <v>431314</v>
+        <v>431329</v>
       </c>
       <c r="J159">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K159">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6649,13 +6799,13 @@
         <v>436763</v>
       </c>
       <c r="I160">
-        <v>431329</v>
+        <v>431339</v>
       </c>
       <c r="J160">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K160">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -6681,16 +6831,16 @@
         <v>429875</v>
       </c>
       <c r="H161">
-        <v>436763</v>
+        <v>436681</v>
       </c>
       <c r="I161">
-        <v>431339</v>
+        <v>431342</v>
       </c>
       <c r="J161">
-        <v>3000</v>
+        <v>3603.03</v>
       </c>
       <c r="K161">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -6716,16 +6866,16 @@
         <v>429875</v>
       </c>
       <c r="H162">
-        <v>436681</v>
+        <v>436805</v>
       </c>
       <c r="I162">
-        <v>431342</v>
+        <v>431238</v>
       </c>
       <c r="J162">
-        <v>3603.03</v>
+        <v>600</v>
       </c>
       <c r="K162">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -6751,16 +6901,16 @@
         <v>429875</v>
       </c>
       <c r="H163">
-        <v>436805</v>
+        <v>436785</v>
       </c>
       <c r="I163">
-        <v>431238</v>
+        <v>431268</v>
       </c>
       <c r="J163">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K163">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -6786,16 +6936,16 @@
         <v>429875</v>
       </c>
       <c r="H164">
-        <v>436785</v>
+        <v>436716</v>
       </c>
       <c r="I164">
-        <v>431268</v>
+        <v>431281</v>
       </c>
       <c r="J164">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K164">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -6821,16 +6971,16 @@
         <v>429875</v>
       </c>
       <c r="H165">
-        <v>436716</v>
+        <v>436576</v>
       </c>
       <c r="I165">
-        <v>431281</v>
+        <v>431288</v>
       </c>
       <c r="J165">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K165">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -6859,13 +7009,13 @@
         <v>436576</v>
       </c>
       <c r="I166">
-        <v>431288</v>
+        <v>431293</v>
       </c>
       <c r="J166">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K166">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -6891,16 +7041,16 @@
         <v>429875</v>
       </c>
       <c r="H167">
-        <v>436576</v>
+        <v>436240</v>
       </c>
       <c r="I167">
-        <v>431293</v>
+        <v>431295</v>
       </c>
       <c r="J167">
-        <v>3000</v>
+        <v>3604.99</v>
       </c>
       <c r="K167">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -6914,7 +7064,7 @@
         <v>10</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>20000</v>
@@ -6923,19 +7073,19 @@
         <v>10450</v>
       </c>
       <c r="G168">
-        <v>429875</v>
+        <v>445908</v>
       </c>
       <c r="H168">
-        <v>436240</v>
+        <v>450789</v>
       </c>
       <c r="I168">
-        <v>431295</v>
+        <v>447391</v>
       </c>
       <c r="J168">
-        <v>3604.99</v>
+        <v>600</v>
       </c>
       <c r="K168">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,16 +7111,16 @@
         <v>445908</v>
       </c>
       <c r="H169">
-        <v>450789</v>
+        <v>450778</v>
       </c>
       <c r="I169">
-        <v>447391</v>
+        <v>447396</v>
       </c>
       <c r="J169">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K169">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -6999,13 +7149,13 @@
         <v>450778</v>
       </c>
       <c r="I170">
-        <v>447396</v>
+        <v>447400</v>
       </c>
       <c r="J170">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K170">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7034,13 +7184,13 @@
         <v>450778</v>
       </c>
       <c r="I171">
-        <v>447400</v>
+        <v>447402</v>
       </c>
       <c r="J171">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K171">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7069,13 +7219,13 @@
         <v>450778</v>
       </c>
       <c r="I172">
-        <v>447402</v>
+        <v>447404</v>
       </c>
       <c r="J172">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K172">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7101,16 +7251,16 @@
         <v>445908</v>
       </c>
       <c r="H173">
-        <v>450778</v>
+        <v>450588</v>
       </c>
       <c r="I173">
-        <v>447404</v>
+        <v>447405</v>
       </c>
       <c r="J173">
-        <v>3000</v>
+        <v>3603.84</v>
       </c>
       <c r="K173">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7124,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174">
         <v>20000</v>
@@ -7133,19 +7283,19 @@
         <v>10450</v>
       </c>
       <c r="G174">
-        <v>445908</v>
+        <v>434891</v>
       </c>
       <c r="H174">
-        <v>450588</v>
+        <v>447431</v>
       </c>
       <c r="I174">
-        <v>447405</v>
+        <v>436070</v>
       </c>
       <c r="J174">
-        <v>3603.84</v>
+        <v>600</v>
       </c>
       <c r="K174">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7171,16 +7321,16 @@
         <v>434891</v>
       </c>
       <c r="H175">
-        <v>447431</v>
+        <v>447119</v>
       </c>
       <c r="I175">
-        <v>436070</v>
+        <v>436147</v>
       </c>
       <c r="J175">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K175">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7206,16 +7356,16 @@
         <v>434891</v>
       </c>
       <c r="H176">
-        <v>447119</v>
+        <v>446681</v>
       </c>
       <c r="I176">
-        <v>436147</v>
+        <v>436202</v>
       </c>
       <c r="J176">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K176">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7241,16 +7391,16 @@
         <v>434891</v>
       </c>
       <c r="H177">
-        <v>446681</v>
+        <v>446591</v>
       </c>
       <c r="I177">
-        <v>436202</v>
+        <v>436241</v>
       </c>
       <c r="J177">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K177">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7276,16 +7426,16 @@
         <v>434891</v>
       </c>
       <c r="H178">
-        <v>446591</v>
+        <v>446316</v>
       </c>
       <c r="I178">
-        <v>436241</v>
+        <v>436269</v>
       </c>
       <c r="J178">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K178">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -7311,16 +7461,16 @@
         <v>434891</v>
       </c>
       <c r="H179">
-        <v>446316</v>
+        <v>445576</v>
       </c>
       <c r="I179">
-        <v>436269</v>
+        <v>436284</v>
       </c>
       <c r="J179">
-        <v>3000</v>
+        <v>3604.58</v>
       </c>
       <c r="K179">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7334,7 +7484,7 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180">
         <v>20000</v>
@@ -7343,19 +7493,19 @@
         <v>10450</v>
       </c>
       <c r="G180">
-        <v>434891</v>
+        <v>451348</v>
       </c>
       <c r="H180">
-        <v>445576</v>
+        <v>458125</v>
       </c>
       <c r="I180">
-        <v>436284</v>
+        <v>453507</v>
       </c>
       <c r="J180">
-        <v>3604.58</v>
+        <v>600</v>
       </c>
       <c r="K180">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7384,13 +7534,13 @@
         <v>458125</v>
       </c>
       <c r="I181">
-        <v>453507</v>
+        <v>453526</v>
       </c>
       <c r="J181">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K181">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7416,16 +7566,16 @@
         <v>451348</v>
       </c>
       <c r="H182">
-        <v>458125</v>
+        <v>458051</v>
       </c>
       <c r="I182">
-        <v>453526</v>
+        <v>453534</v>
       </c>
       <c r="J182">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K182">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7451,16 +7601,16 @@
         <v>451348</v>
       </c>
       <c r="H183">
-        <v>458051</v>
+        <v>457857</v>
       </c>
       <c r="I183">
-        <v>453534</v>
+        <v>453540</v>
       </c>
       <c r="J183">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K183">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7489,13 +7639,13 @@
         <v>457857</v>
       </c>
       <c r="I184">
-        <v>453540</v>
+        <v>453544</v>
       </c>
       <c r="J184">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K184">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7524,13 +7674,13 @@
         <v>457857</v>
       </c>
       <c r="I185">
-        <v>453544</v>
+        <v>453546</v>
       </c>
       <c r="J185">
-        <v>3000</v>
+        <v>3603.77</v>
       </c>
       <c r="K185">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -7544,7 +7694,7 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186">
         <v>20000</v>
@@ -7553,19 +7703,19 @@
         <v>10450</v>
       </c>
       <c r="G186">
-        <v>451348</v>
+        <v>438782</v>
       </c>
       <c r="H186">
-        <v>457857</v>
+        <v>447341</v>
       </c>
       <c r="I186">
-        <v>453546</v>
+        <v>441063</v>
       </c>
       <c r="J186">
-        <v>3603.77</v>
+        <v>600</v>
       </c>
       <c r="K186">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -7591,16 +7741,16 @@
         <v>438782</v>
       </c>
       <c r="H187">
-        <v>447341</v>
+        <v>447114</v>
       </c>
       <c r="I187">
-        <v>441063</v>
+        <v>441161</v>
       </c>
       <c r="J187">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K187">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -7626,16 +7776,16 @@
         <v>438782</v>
       </c>
       <c r="H188">
-        <v>447114</v>
+        <v>446819</v>
       </c>
       <c r="I188">
-        <v>441161</v>
+        <v>441245</v>
       </c>
       <c r="J188">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K188">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -7661,16 +7811,16 @@
         <v>438782</v>
       </c>
       <c r="H189">
-        <v>446819</v>
+        <v>446689</v>
       </c>
       <c r="I189">
-        <v>441245</v>
+        <v>441295</v>
       </c>
       <c r="J189">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K189">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -7696,16 +7846,16 @@
         <v>438782</v>
       </c>
       <c r="H190">
-        <v>446689</v>
+        <v>446575</v>
       </c>
       <c r="I190">
-        <v>441295</v>
+        <v>441326</v>
       </c>
       <c r="J190">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K190">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7731,16 +7881,16 @@
         <v>438782</v>
       </c>
       <c r="H191">
-        <v>446575</v>
+        <v>446386</v>
       </c>
       <c r="I191">
-        <v>441326</v>
+        <v>441340</v>
       </c>
       <c r="J191">
-        <v>3000</v>
+        <v>3605.15</v>
       </c>
       <c r="K191">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7751,10 +7901,10 @@
         <v>50</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>20000</v>
@@ -7763,19 +7913,19 @@
         <v>10450</v>
       </c>
       <c r="G192">
-        <v>438782</v>
+        <v>486112</v>
       </c>
       <c r="H192">
-        <v>446386</v>
+        <v>496536</v>
       </c>
       <c r="I192">
-        <v>441340</v>
+        <v>487857</v>
       </c>
       <c r="J192">
-        <v>3605.15</v>
+        <v>600</v>
       </c>
       <c r="K192">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7801,16 +7951,16 @@
         <v>486112</v>
       </c>
       <c r="H193">
-        <v>496536</v>
+        <v>496090</v>
       </c>
       <c r="I193">
-        <v>487857</v>
+        <v>487928</v>
       </c>
       <c r="J193">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K193">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -7836,16 +7986,16 @@
         <v>486112</v>
       </c>
       <c r="H194">
-        <v>496090</v>
+        <v>495324</v>
       </c>
       <c r="I194">
-        <v>487928</v>
+        <v>487974</v>
       </c>
       <c r="J194">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K194">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7871,16 +8021,16 @@
         <v>486112</v>
       </c>
       <c r="H195">
-        <v>495324</v>
+        <v>495223</v>
       </c>
       <c r="I195">
-        <v>487974</v>
+        <v>488008</v>
       </c>
       <c r="J195">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K195">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -7906,16 +8056,16 @@
         <v>486112</v>
       </c>
       <c r="H196">
-        <v>495223</v>
+        <v>494927</v>
       </c>
       <c r="I196">
-        <v>488008</v>
+        <v>488035</v>
       </c>
       <c r="J196">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K196">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -7941,16 +8091,16 @@
         <v>486112</v>
       </c>
       <c r="H197">
-        <v>494927</v>
+        <v>494712</v>
       </c>
       <c r="I197">
-        <v>488035</v>
+        <v>488051</v>
       </c>
       <c r="J197">
-        <v>3000</v>
+        <v>3603.56</v>
       </c>
       <c r="K197">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -7964,7 +8114,7 @@
         <v>25</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>20000</v>
@@ -7973,19 +8123,19 @@
         <v>10450</v>
       </c>
       <c r="G198">
-        <v>486112</v>
+        <v>486713</v>
       </c>
       <c r="H198">
-        <v>494712</v>
+        <v>496245</v>
       </c>
       <c r="I198">
-        <v>488051</v>
+        <v>488423</v>
       </c>
       <c r="J198">
-        <v>3603.56</v>
+        <v>600</v>
       </c>
       <c r="K198">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8011,16 +8161,16 @@
         <v>486713</v>
       </c>
       <c r="H199">
-        <v>496245</v>
+        <v>496057</v>
       </c>
       <c r="I199">
-        <v>488423</v>
+        <v>488502</v>
       </c>
       <c r="J199">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K199">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,16 +8196,16 @@
         <v>486713</v>
       </c>
       <c r="H200">
-        <v>496057</v>
+        <v>495966</v>
       </c>
       <c r="I200">
-        <v>488502</v>
+        <v>488526</v>
       </c>
       <c r="J200">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K200">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -8081,16 +8231,16 @@
         <v>486713</v>
       </c>
       <c r="H201">
-        <v>495966</v>
+        <v>495793</v>
       </c>
       <c r="I201">
-        <v>488526</v>
+        <v>488542</v>
       </c>
       <c r="J201">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K201">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,16 +8266,16 @@
         <v>486713</v>
       </c>
       <c r="H202">
-        <v>495793</v>
+        <v>495769</v>
       </c>
       <c r="I202">
-        <v>488542</v>
+        <v>488552</v>
       </c>
       <c r="J202">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K202">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8151,16 +8301,16 @@
         <v>486713</v>
       </c>
       <c r="H203">
-        <v>495769</v>
+        <v>495504</v>
       </c>
       <c r="I203">
-        <v>488552</v>
+        <v>488558</v>
       </c>
       <c r="J203">
-        <v>3000</v>
+        <v>3603.03</v>
       </c>
       <c r="K203">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8174,7 +8324,7 @@
         <v>25</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204">
         <v>20000</v>
@@ -8183,19 +8333,19 @@
         <v>10450</v>
       </c>
       <c r="G204">
-        <v>486713</v>
+        <v>466731</v>
       </c>
       <c r="H204">
-        <v>495504</v>
+        <v>474217</v>
       </c>
       <c r="I204">
-        <v>488558</v>
+        <v>467984</v>
       </c>
       <c r="J204">
-        <v>3603.03</v>
+        <v>600</v>
       </c>
       <c r="K204">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8221,16 +8371,16 @@
         <v>466731</v>
       </c>
       <c r="H205">
-        <v>474217</v>
+        <v>473126</v>
       </c>
       <c r="I205">
-        <v>467984</v>
+        <v>468009</v>
       </c>
       <c r="J205">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K205">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8256,16 +8406,16 @@
         <v>466731</v>
       </c>
       <c r="H206">
-        <v>473126</v>
+        <v>472944</v>
       </c>
       <c r="I206">
-        <v>468009</v>
+        <v>468020</v>
       </c>
       <c r="J206">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K206">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8294,13 +8444,13 @@
         <v>472944</v>
       </c>
       <c r="I207">
-        <v>468020</v>
+        <v>468025</v>
       </c>
       <c r="J207">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K207">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8329,13 +8479,13 @@
         <v>472944</v>
       </c>
       <c r="I208">
-        <v>468025</v>
+        <v>468029</v>
       </c>
       <c r="J208">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K208">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -8361,51 +8511,51 @@
         <v>466731</v>
       </c>
       <c r="H209">
-        <v>472944</v>
+        <v>472739</v>
       </c>
       <c r="I209">
-        <v>468029</v>
+        <v>468030</v>
       </c>
       <c r="J209">
-        <v>3000</v>
+        <v>3602.53</v>
       </c>
       <c r="K209">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B210">
         <v>50</v>
       </c>
       <c r="C210">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E210">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F210">
-        <v>10450</v>
+        <v>15650</v>
       </c>
       <c r="G210">
-        <v>466731</v>
+        <v>697143</v>
       </c>
       <c r="H210">
-        <v>472739</v>
+        <v>702404</v>
       </c>
       <c r="I210">
-        <v>468030</v>
+        <v>698074</v>
       </c>
       <c r="J210">
-        <v>3602.53</v>
+        <v>600</v>
       </c>
       <c r="K210">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8431,16 +8581,16 @@
         <v>697143</v>
       </c>
       <c r="H211">
-        <v>702404</v>
+        <v>701404</v>
       </c>
       <c r="I211">
-        <v>698074</v>
+        <v>698119</v>
       </c>
       <c r="J211">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K211">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8469,13 +8619,13 @@
         <v>701404</v>
       </c>
       <c r="I212">
-        <v>698119</v>
+        <v>698146</v>
       </c>
       <c r="J212">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K212">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8501,16 +8651,16 @@
         <v>697143</v>
       </c>
       <c r="H213">
-        <v>701404</v>
+        <v>701379</v>
       </c>
       <c r="I213">
-        <v>698146</v>
+        <v>698158</v>
       </c>
       <c r="J213">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K213">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8536,16 +8686,16 @@
         <v>697143</v>
       </c>
       <c r="H214">
-        <v>701379</v>
+        <v>701357</v>
       </c>
       <c r="I214">
-        <v>698158</v>
+        <v>698162</v>
       </c>
       <c r="J214">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K214">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -8571,16 +8721,16 @@
         <v>697143</v>
       </c>
       <c r="H215">
-        <v>701357</v>
+        <v>701337</v>
       </c>
       <c r="I215">
-        <v>698162</v>
+        <v>698164</v>
       </c>
       <c r="J215">
-        <v>3000</v>
+        <v>3602.96</v>
       </c>
       <c r="K215">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8594,7 +8744,7 @@
         <v>10</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216">
         <v>30000</v>
@@ -8603,19 +8753,19 @@
         <v>15650</v>
       </c>
       <c r="G216">
-        <v>697143</v>
+        <v>653162</v>
       </c>
       <c r="H216">
-        <v>701337</v>
+        <v>658082</v>
       </c>
       <c r="I216">
-        <v>698164</v>
+        <v>654117</v>
       </c>
       <c r="J216">
-        <v>3602.96</v>
+        <v>600</v>
       </c>
       <c r="K216">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,13 +8794,13 @@
         <v>658082</v>
       </c>
       <c r="I217">
-        <v>654117</v>
+        <v>654167</v>
       </c>
       <c r="J217">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K217">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8676,16 +8826,16 @@
         <v>653162</v>
       </c>
       <c r="H218">
-        <v>658082</v>
+        <v>658059</v>
       </c>
       <c r="I218">
-        <v>654167</v>
+        <v>654194</v>
       </c>
       <c r="J218">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K218">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8714,13 +8864,13 @@
         <v>658059</v>
       </c>
       <c r="I219">
-        <v>654194</v>
+        <v>654211</v>
       </c>
       <c r="J219">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K219">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8749,13 +8899,13 @@
         <v>658059</v>
       </c>
       <c r="I220">
-        <v>654211</v>
+        <v>654223</v>
       </c>
       <c r="J220">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K220">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8781,16 +8931,16 @@
         <v>653162</v>
       </c>
       <c r="H221">
-        <v>658059</v>
+        <v>657967</v>
       </c>
       <c r="I221">
-        <v>654223</v>
+        <v>654228</v>
       </c>
       <c r="J221">
-        <v>3000</v>
+        <v>3603.32</v>
       </c>
       <c r="K221">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8804,7 +8954,7 @@
         <v>10</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>30000</v>
@@ -8813,19 +8963,19 @@
         <v>15650</v>
       </c>
       <c r="G222">
-        <v>653162</v>
+        <v>706716</v>
       </c>
       <c r="H222">
-        <v>657967</v>
+        <v>717889</v>
       </c>
       <c r="I222">
-        <v>654228</v>
+        <v>708859</v>
       </c>
       <c r="J222">
-        <v>3603.32</v>
+        <v>600</v>
       </c>
       <c r="K222">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8851,16 +9001,16 @@
         <v>706716</v>
       </c>
       <c r="H223">
-        <v>717889</v>
+        <v>717003</v>
       </c>
       <c r="I223">
-        <v>708859</v>
+        <v>709013</v>
       </c>
       <c r="J223">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K223">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8886,16 +9036,16 @@
         <v>706716</v>
       </c>
       <c r="H224">
-        <v>717003</v>
+        <v>716782</v>
       </c>
       <c r="I224">
-        <v>709013</v>
+        <v>709082</v>
       </c>
       <c r="J224">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K224">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,16 +9071,16 @@
         <v>706716</v>
       </c>
       <c r="H225">
-        <v>716782</v>
+        <v>716661</v>
       </c>
       <c r="I225">
-        <v>709082</v>
+        <v>709119</v>
       </c>
       <c r="J225">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K225">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -8956,16 +9106,16 @@
         <v>706716</v>
       </c>
       <c r="H226">
-        <v>716661</v>
+        <v>716657</v>
       </c>
       <c r="I226">
-        <v>709119</v>
+        <v>709139</v>
       </c>
       <c r="J226">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K226">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -8991,16 +9141,16 @@
         <v>706716</v>
       </c>
       <c r="H227">
-        <v>716657</v>
+        <v>715687</v>
       </c>
       <c r="I227">
-        <v>709139</v>
+        <v>709148</v>
       </c>
       <c r="J227">
-        <v>3000</v>
+        <v>3603.11</v>
       </c>
       <c r="K227">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -9014,7 +9164,7 @@
         <v>10</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E228">
         <v>30000</v>
@@ -9023,19 +9173,19 @@
         <v>15650</v>
       </c>
       <c r="G228">
-        <v>706716</v>
+        <v>665016</v>
       </c>
       <c r="H228">
-        <v>715687</v>
+        <v>671174</v>
       </c>
       <c r="I228">
-        <v>709148</v>
+        <v>666066</v>
       </c>
       <c r="J228">
-        <v>3603.11</v>
+        <v>600</v>
       </c>
       <c r="K228">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9061,16 +9211,16 @@
         <v>665016</v>
       </c>
       <c r="H229">
-        <v>671174</v>
+        <v>670899</v>
       </c>
       <c r="I229">
-        <v>666066</v>
+        <v>666105</v>
       </c>
       <c r="J229">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K229">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9096,16 +9246,16 @@
         <v>665016</v>
       </c>
       <c r="H230">
-        <v>670899</v>
+        <v>670867</v>
       </c>
       <c r="I230">
-        <v>666105</v>
+        <v>666124</v>
       </c>
       <c r="J230">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K230">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9131,16 +9281,16 @@
         <v>665016</v>
       </c>
       <c r="H231">
-        <v>670867</v>
+        <v>670548</v>
       </c>
       <c r="I231">
-        <v>666124</v>
+        <v>666139</v>
       </c>
       <c r="J231">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K231">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9166,16 +9316,16 @@
         <v>665016</v>
       </c>
       <c r="H232">
-        <v>670548</v>
+        <v>670496</v>
       </c>
       <c r="I232">
-        <v>666139</v>
+        <v>666153</v>
       </c>
       <c r="J232">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K232">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9201,16 +9351,16 @@
         <v>665016</v>
       </c>
       <c r="H233">
-        <v>670496</v>
+        <v>669742</v>
       </c>
       <c r="I233">
-        <v>666153</v>
+        <v>666159</v>
       </c>
       <c r="J233">
-        <v>3000</v>
+        <v>3603.61</v>
       </c>
       <c r="K233">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9224,7 +9374,7 @@
         <v>10</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234">
         <v>30000</v>
@@ -9233,19 +9383,19 @@
         <v>15650</v>
       </c>
       <c r="G234">
-        <v>665016</v>
+        <v>678908</v>
       </c>
       <c r="H234">
-        <v>669742</v>
+        <v>686281</v>
       </c>
       <c r="I234">
-        <v>666159</v>
+        <v>680295</v>
       </c>
       <c r="J234">
-        <v>3603.61</v>
+        <v>600</v>
       </c>
       <c r="K234">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -9271,16 +9421,16 @@
         <v>678908</v>
       </c>
       <c r="H235">
-        <v>686281</v>
+        <v>686076</v>
       </c>
       <c r="I235">
-        <v>680295</v>
+        <v>680333</v>
       </c>
       <c r="J235">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K235">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -9306,16 +9456,16 @@
         <v>678908</v>
       </c>
       <c r="H236">
-        <v>686076</v>
+        <v>686019</v>
       </c>
       <c r="I236">
-        <v>680333</v>
+        <v>680356</v>
       </c>
       <c r="J236">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K236">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -9341,16 +9491,16 @@
         <v>678908</v>
       </c>
       <c r="H237">
-        <v>686019</v>
+        <v>685980</v>
       </c>
       <c r="I237">
-        <v>680356</v>
+        <v>680372</v>
       </c>
       <c r="J237">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K237">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -9376,16 +9526,16 @@
         <v>678908</v>
       </c>
       <c r="H238">
-        <v>685980</v>
+        <v>685907</v>
       </c>
       <c r="I238">
-        <v>680372</v>
+        <v>680387</v>
       </c>
       <c r="J238">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K238">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9411,16 +9561,16 @@
         <v>678908</v>
       </c>
       <c r="H239">
-        <v>685907</v>
+        <v>685316</v>
       </c>
       <c r="I239">
-        <v>680387</v>
+        <v>680394</v>
       </c>
       <c r="J239">
-        <v>3000</v>
+        <v>3603.72</v>
       </c>
       <c r="K239">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -9431,10 +9581,10 @@
         <v>50</v>
       </c>
       <c r="C240">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>30000</v>
@@ -9443,19 +9593,19 @@
         <v>15650</v>
       </c>
       <c r="G240">
-        <v>678908</v>
+        <v>712918</v>
       </c>
       <c r="H240">
-        <v>685316</v>
+        <v>727776</v>
       </c>
       <c r="I240">
-        <v>680394</v>
+        <v>715222</v>
       </c>
       <c r="J240">
-        <v>3603.72</v>
+        <v>600</v>
       </c>
       <c r="K240">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -9481,16 +9631,16 @@
         <v>712918</v>
       </c>
       <c r="H241">
-        <v>727776</v>
+        <v>726605</v>
       </c>
       <c r="I241">
-        <v>715222</v>
+        <v>715354</v>
       </c>
       <c r="J241">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K241">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -9516,16 +9666,16 @@
         <v>712918</v>
       </c>
       <c r="H242">
-        <v>726605</v>
+        <v>726256</v>
       </c>
       <c r="I242">
-        <v>715354</v>
+        <v>715471</v>
       </c>
       <c r="J242">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K242">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -9551,16 +9701,16 @@
         <v>712918</v>
       </c>
       <c r="H243">
-        <v>726256</v>
+        <v>726255</v>
       </c>
       <c r="I243">
-        <v>715471</v>
+        <v>715577</v>
       </c>
       <c r="J243">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K243">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,16 +9736,16 @@
         <v>712918</v>
       </c>
       <c r="H244">
-        <v>726255</v>
+        <v>725844</v>
       </c>
       <c r="I244">
-        <v>715577</v>
+        <v>715652</v>
       </c>
       <c r="J244">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K244">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -9621,16 +9771,16 @@
         <v>712918</v>
       </c>
       <c r="H245">
-        <v>725844</v>
+        <v>725626</v>
       </c>
       <c r="I245">
-        <v>715652</v>
+        <v>715693</v>
       </c>
       <c r="J245">
-        <v>3000</v>
+        <v>3602.33</v>
       </c>
       <c r="K245">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9644,7 +9794,7 @@
         <v>25</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246">
         <v>30000</v>
@@ -9653,19 +9803,19 @@
         <v>15650</v>
       </c>
       <c r="G246">
-        <v>712918</v>
+        <v>693825</v>
       </c>
       <c r="H246">
-        <v>725626</v>
+        <v>704303</v>
       </c>
       <c r="I246">
-        <v>715693</v>
+        <v>694939</v>
       </c>
       <c r="J246">
-        <v>3602.33</v>
+        <v>600</v>
       </c>
       <c r="K246">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -9691,16 +9841,16 @@
         <v>693825</v>
       </c>
       <c r="H247">
-        <v>704303</v>
+        <v>703797</v>
       </c>
       <c r="I247">
-        <v>694939</v>
+        <v>694978</v>
       </c>
       <c r="J247">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K247">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -9726,16 +9876,16 @@
         <v>693825</v>
       </c>
       <c r="H248">
-        <v>703797</v>
+        <v>702537</v>
       </c>
       <c r="I248">
-        <v>694978</v>
+        <v>695003</v>
       </c>
       <c r="J248">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K248">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -9761,16 +9911,16 @@
         <v>693825</v>
       </c>
       <c r="H249">
-        <v>702537</v>
+        <v>702444</v>
       </c>
       <c r="I249">
-        <v>695003</v>
+        <v>695018</v>
       </c>
       <c r="J249">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K249">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -9796,16 +9946,16 @@
         <v>693825</v>
       </c>
       <c r="H250">
-        <v>702444</v>
+        <v>702412</v>
       </c>
       <c r="I250">
-        <v>695018</v>
+        <v>695029</v>
       </c>
       <c r="J250">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K250">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -9831,16 +9981,16 @@
         <v>693825</v>
       </c>
       <c r="H251">
-        <v>702412</v>
+        <v>701504</v>
       </c>
       <c r="I251">
-        <v>695029</v>
+        <v>695035</v>
       </c>
       <c r="J251">
-        <v>3000</v>
+        <v>3602.68</v>
       </c>
       <c r="K251">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9854,7 +10004,7 @@
         <v>25</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E252">
         <v>30000</v>
@@ -9863,19 +10013,19 @@
         <v>15650</v>
       </c>
       <c r="G252">
-        <v>693825</v>
+        <v>652111</v>
       </c>
       <c r="H252">
-        <v>701504</v>
+        <v>658915</v>
       </c>
       <c r="I252">
-        <v>695035</v>
+        <v>652970</v>
       </c>
       <c r="J252">
-        <v>3602.68</v>
+        <v>600</v>
       </c>
       <c r="K252">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -9901,16 +10051,16 @@
         <v>652111</v>
       </c>
       <c r="H253">
-        <v>658915</v>
+        <v>658280</v>
       </c>
       <c r="I253">
-        <v>652970</v>
+        <v>653018</v>
       </c>
       <c r="J253">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K253">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -9936,16 +10086,16 @@
         <v>652111</v>
       </c>
       <c r="H254">
-        <v>658280</v>
+        <v>658146</v>
       </c>
       <c r="I254">
-        <v>653018</v>
+        <v>653050</v>
       </c>
       <c r="J254">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K254">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -9974,13 +10124,13 @@
         <v>658146</v>
       </c>
       <c r="I255">
-        <v>653050</v>
+        <v>653074</v>
       </c>
       <c r="J255">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K255">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -10006,16 +10156,16 @@
         <v>652111</v>
       </c>
       <c r="H256">
-        <v>658146</v>
+        <v>658141</v>
       </c>
       <c r="I256">
-        <v>653074</v>
+        <v>653090</v>
       </c>
       <c r="J256">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K256">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -10041,16 +10191,16 @@
         <v>652111</v>
       </c>
       <c r="H257">
-        <v>658141</v>
+        <v>657693</v>
       </c>
       <c r="I257">
-        <v>653090</v>
+        <v>653096</v>
       </c>
       <c r="J257">
-        <v>3000</v>
+        <v>3603.18</v>
       </c>
       <c r="K257">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10064,7 +10214,7 @@
         <v>25</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E258">
         <v>30000</v>
@@ -10073,19 +10223,19 @@
         <v>15650</v>
       </c>
       <c r="G258">
-        <v>652111</v>
+        <v>675598</v>
       </c>
       <c r="H258">
-        <v>657693</v>
+        <v>682381</v>
       </c>
       <c r="I258">
-        <v>653096</v>
+        <v>676423</v>
       </c>
       <c r="J258">
-        <v>3603.18</v>
+        <v>600</v>
       </c>
       <c r="K258">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10111,16 +10261,16 @@
         <v>675598</v>
       </c>
       <c r="H259">
-        <v>682381</v>
+        <v>681926</v>
       </c>
       <c r="I259">
-        <v>676423</v>
+        <v>676465</v>
       </c>
       <c r="J259">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K259">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10149,13 +10299,13 @@
         <v>681926</v>
       </c>
       <c r="I260">
-        <v>676465</v>
+        <v>676490</v>
       </c>
       <c r="J260">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K260">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10181,16 +10331,16 @@
         <v>675598</v>
       </c>
       <c r="H261">
-        <v>681926</v>
+        <v>681825</v>
       </c>
       <c r="I261">
-        <v>676490</v>
+        <v>676509</v>
       </c>
       <c r="J261">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K261">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10216,16 +10366,16 @@
         <v>675598</v>
       </c>
       <c r="H262">
-        <v>681825</v>
+        <v>681763</v>
       </c>
       <c r="I262">
-        <v>676509</v>
+        <v>676523</v>
       </c>
       <c r="J262">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K262">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10251,16 +10401,16 @@
         <v>675598</v>
       </c>
       <c r="H263">
-        <v>681763</v>
+        <v>681435</v>
       </c>
       <c r="I263">
-        <v>676523</v>
+        <v>676530</v>
       </c>
       <c r="J263">
-        <v>3000</v>
+        <v>3602.92</v>
       </c>
       <c r="K263">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -10274,7 +10424,7 @@
         <v>25</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E264">
         <v>30000</v>
@@ -10283,19 +10433,19 @@
         <v>15650</v>
       </c>
       <c r="G264">
-        <v>675598</v>
+        <v>676071</v>
       </c>
       <c r="H264">
-        <v>681435</v>
+        <v>683546</v>
       </c>
       <c r="I264">
-        <v>676530</v>
+        <v>677339</v>
       </c>
       <c r="J264">
-        <v>3602.92</v>
+        <v>600</v>
       </c>
       <c r="K264">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -10321,16 +10471,16 @@
         <v>676071</v>
       </c>
       <c r="H265">
-        <v>683546</v>
+        <v>682984</v>
       </c>
       <c r="I265">
-        <v>677339</v>
+        <v>677398</v>
       </c>
       <c r="J265">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K265">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -10356,16 +10506,16 @@
         <v>676071</v>
       </c>
       <c r="H266">
-        <v>682984</v>
+        <v>682325</v>
       </c>
       <c r="I266">
-        <v>677398</v>
+        <v>677424</v>
       </c>
       <c r="J266">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K266">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -10391,16 +10541,16 @@
         <v>676071</v>
       </c>
       <c r="H267">
-        <v>682325</v>
+        <v>682151</v>
       </c>
       <c r="I267">
-        <v>677424</v>
+        <v>677436</v>
       </c>
       <c r="J267">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K267">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -10426,16 +10576,16 @@
         <v>676071</v>
       </c>
       <c r="H268">
-        <v>682151</v>
+        <v>682131</v>
       </c>
       <c r="I268">
-        <v>677436</v>
+        <v>677443</v>
       </c>
       <c r="J268">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K268">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -10461,50 +10611,15 @@
         <v>676071</v>
       </c>
       <c r="H269">
-        <v>682131</v>
+        <v>681632</v>
       </c>
       <c r="I269">
-        <v>677443</v>
+        <v>677445</v>
       </c>
       <c r="J269">
-        <v>3000</v>
+        <v>3603.33</v>
       </c>
       <c r="K269">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>300</v>
-      </c>
-      <c r="B270">
-        <v>50</v>
-      </c>
-      <c r="C270">
-        <v>25</v>
-      </c>
-      <c r="D270">
-        <v>4</v>
-      </c>
-      <c r="E270">
-        <v>30000</v>
-      </c>
-      <c r="F270">
-        <v>15650</v>
-      </c>
-      <c r="G270">
-        <v>676071</v>
-      </c>
-      <c r="H270">
-        <v>681632</v>
-      </c>
-      <c r="I270">
-        <v>677445</v>
-      </c>
-      <c r="J270">
-        <v>3603.33</v>
-      </c>
-      <c r="K270">
         <v>3600</v>
       </c>
     </row>
@@ -10515,10 +10630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10655,7 +10770,7 @@
         <v>2.1173348779865903E-3</v>
       </c>
       <c r="U2" s="13">
-        <v>7.1203627492855761E-5</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -10702,11 +10817,11 @@
         <v>3.8605</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K57" si="0">(H3-G3)/H3</f>
+        <f t="shared" ref="K3:K58" si="0">(H3-G3)/H3</f>
         <v>4.0052521581682423E-3</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L57" si="1">(H3-I3)/H3</f>
+        <f t="shared" ref="L3:L58" si="1">(H3-I3)/H3</f>
         <v>1.005647033140511E-4</v>
       </c>
       <c r="O3">
@@ -10728,7 +10843,7 @@
         <v>3.8872040997512476E-3</v>
       </c>
       <c r="U3" s="13">
-        <v>9.6692246160878318E-5</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -10763,24 +10878,24 @@
         <v>610</v>
       </c>
       <c r="G4" s="2">
-        <v>137764.66666700001</v>
+        <v>118948</v>
       </c>
       <c r="H4" s="2">
-        <v>139340.33333299999</v>
+        <v>120485</v>
       </c>
       <c r="I4" s="2">
-        <v>139326.33333299999</v>
+        <v>120045</v>
       </c>
       <c r="J4" s="3">
-        <v>152.97049999999999</v>
+        <v>1234.0899999999999</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" si="0"/>
-        <v>1.1308044327943417E-2</v>
+        <v>1.2756774702245092E-2</v>
       </c>
       <c r="L4" s="13">
         <f t="shared" si="1"/>
-        <v>1.0047342119199868E-4</v>
+        <v>3.6519068763746524E-3</v>
       </c>
       <c r="O4">
         <v>50</v>
@@ -10801,7 +10916,7 @@
         <v>4.0052521581682423E-3</v>
       </c>
       <c r="U4" s="13">
-        <v>1.005647033140511E-4</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -10827,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <v>1000</v>
@@ -10836,24 +10951,24 @@
         <v>610</v>
       </c>
       <c r="G5" s="5">
-        <v>120356.5</v>
+        <v>121765</v>
       </c>
       <c r="H5" s="5">
-        <v>122226.75</v>
+        <v>123821</v>
       </c>
       <c r="I5" s="5">
-        <v>121631.75</v>
+        <v>123326</v>
       </c>
       <c r="J5" s="6">
-        <v>607.45749999999998</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="K5" s="13">
         <f t="shared" si="0"/>
-        <v>1.5301478604315339E-2</v>
+        <v>1.6604614726096544E-2</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="1"/>
-        <v>4.8680014808542317E-3</v>
+        <v>3.9977063664483406E-3</v>
       </c>
       <c r="O5">
         <v>50</v>
@@ -10871,19 +10986,21 @@
         <v>610</v>
       </c>
       <c r="T5" s="13">
-        <v>1.4706965854297479E-2</v>
+        <f>AVERAGE(K4:K8)</f>
+        <v>1.3203740549296456E-2</v>
       </c>
       <c r="U5" s="13">
-        <v>4.0031763444205214E-3</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="14">
-        <v>3608.5250000000001</v>
+        <f>AVERAGE(J4:J8)</f>
+        <v>778.12040000000002</v>
       </c>
       <c r="Y5">
         <v>3600</v>
@@ -10900,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>1200</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>1000</v>
@@ -10909,24 +11026,24 @@
         <v>610</v>
       </c>
       <c r="G6" s="5">
-        <v>120356.5</v>
+        <v>149599</v>
       </c>
       <c r="H6" s="5">
-        <v>122300.5</v>
+        <v>151532</v>
       </c>
       <c r="I6" s="5">
-        <v>121503</v>
+        <v>151517</v>
       </c>
       <c r="J6" s="6">
-        <v>1200</v>
+        <v>162.11600000000001</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" si="0"/>
-        <v>1.5895274344749202E-2</v>
+        <v>1.275638149037827E-2</v>
       </c>
       <c r="L6" s="13">
         <f t="shared" si="1"/>
-        <v>6.5208237088155811E-3</v>
+        <v>9.8988992424042449E-5</v>
       </c>
       <c r="O6">
         <v>50</v>
@@ -10944,19 +11061,21 @@
         <v>610</v>
       </c>
       <c r="T6" s="13">
-        <v>1.3383067882978142E-2</v>
+        <f>AVERAGE(K9:K13)</f>
+        <v>1.3359078842241917E-2</v>
       </c>
       <c r="U6" s="13">
-        <v>5.0722997807205791E-4</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X6" s="14">
-        <v>600.04600000000005</v>
+        <f>AVERAGE(J9:J13)</f>
+        <v>278.04239999999999</v>
       </c>
       <c r="Y6">
         <v>600</v>
@@ -10973,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>1800</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1000</v>
@@ -10982,24 +11101,24 @@
         <v>610</v>
       </c>
       <c r="G7" s="5">
-        <v>120356.5</v>
+        <v>139311</v>
       </c>
       <c r="H7" s="5">
-        <v>122300.5</v>
+        <v>140881</v>
       </c>
       <c r="I7" s="5">
-        <v>121503</v>
+        <v>140867</v>
       </c>
       <c r="J7" s="6">
-        <v>1800</v>
+        <v>57.445999999999998</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
-        <v>1.5895274344749202E-2</v>
+        <v>1.1144157125517281E-2</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="1"/>
-        <v>6.5208237088155811E-3</v>
+        <v>9.9374649526905691E-5</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -11036,43 +11155,43 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8" s="7">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
         <v>1000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>610</v>
       </c>
-      <c r="G8" s="5">
-        <v>120356.5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>121539.5</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2400</v>
+      <c r="G8" s="8">
+        <v>118948</v>
+      </c>
+      <c r="H8" s="8">
+        <v>120485</v>
+      </c>
+      <c r="I8" s="8">
+        <v>120044</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1220.55</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
-        <v>1.5895274344749202E-2</v>
+        <v>1.2756774702245092E-2</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="1"/>
-        <v>6.2223784857788804E-3</v>
+        <v>3.6602066647300493E-3</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -11109,43 +11228,43 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>50</v>
-      </c>
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>1000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>610</v>
       </c>
-      <c r="G9" s="5">
-        <v>120356.5</v>
-      </c>
-      <c r="H9" s="5">
-        <v>122300.5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>121539.5</v>
-      </c>
-      <c r="J9" s="6">
-        <v>3000</v>
+      <c r="G9">
+        <v>134062</v>
+      </c>
+      <c r="H9">
+        <v>135207</v>
+      </c>
+      <c r="I9">
+        <v>135193</v>
+      </c>
+      <c r="J9">
+        <v>29.484000000000002</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
-        <v>1.5895274344749202E-2</v>
+        <v>8.4684964535859837E-3</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="1"/>
-        <v>6.2223784857788804E-3</v>
+        <v>1.0354493480367141E-4</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -11182,43 +11301,43 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <v>610</v>
       </c>
-      <c r="G10" s="8">
-        <v>120356.5</v>
-      </c>
-      <c r="H10" s="8">
-        <v>122153</v>
-      </c>
-      <c r="I10" s="8">
-        <v>121664</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3608.5250000000001</v>
+      <c r="G10">
+        <v>126432</v>
+      </c>
+      <c r="H10">
+        <v>128147</v>
+      </c>
+      <c r="I10">
+        <v>128082</v>
+      </c>
+      <c r="J10">
+        <v>600.04600000000005</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
-        <v>1.4706965854297479E-2</v>
+        <v>1.3383067882978142E-2</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="1"/>
-        <v>4.0031763444205214E-3</v>
+        <v>5.0722997807205791E-4</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -11255,43 +11374,43 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>1000</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>610</v>
       </c>
-      <c r="G11" s="5">
-        <v>132450.11764700001</v>
-      </c>
-      <c r="H11" s="5">
-        <v>134239.29411799999</v>
-      </c>
-      <c r="I11" s="5">
-        <v>134006.82352899999</v>
-      </c>
-      <c r="J11" s="6">
-        <v>181.07400000000001</v>
+      <c r="G11">
+        <v>119008</v>
+      </c>
+      <c r="H11">
+        <v>120172</v>
+      </c>
+      <c r="I11">
+        <v>120160</v>
+      </c>
+      <c r="J11">
+        <v>135.21100000000001</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>1.3328261912843862E-2</v>
+        <v>9.686116566255034E-3</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="1"/>
-        <v>1.7317625999705879E-3</v>
+        <v>9.9856871817062214E-5</v>
       </c>
       <c r="O11">
         <v>200</v>
@@ -11328,43 +11447,43 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>50</v>
-      </c>
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
-        <v>600</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>1000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>610</v>
       </c>
-      <c r="G12" s="8">
-        <v>126432</v>
-      </c>
-      <c r="H12" s="8">
-        <v>128147</v>
-      </c>
-      <c r="I12" s="8">
-        <v>128082</v>
-      </c>
-      <c r="J12" s="9">
-        <v>600.04600000000005</v>
+      <c r="G12">
+        <v>145408</v>
+      </c>
+      <c r="H12">
+        <v>148487</v>
+      </c>
+      <c r="I12">
+        <v>148472</v>
+      </c>
+      <c r="J12">
+        <v>120.17400000000001</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>1.3383067882978142E-2</v>
+        <v>2.0735821991150739E-2</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="1"/>
-        <v>5.0722997807205791E-4</v>
+        <v>1.0101894441937678E-4</v>
       </c>
       <c r="O12">
         <v>200</v>
@@ -11401,43 +11520,43 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>610</v>
       </c>
-      <c r="G13" s="2">
-        <v>110832.533333</v>
-      </c>
-      <c r="H13" s="2">
-        <v>112085</v>
-      </c>
-      <c r="I13" s="2">
-        <v>112076.36666699999</v>
-      </c>
-      <c r="J13" s="3">
-        <v>87.983999999999995</v>
+      <c r="G13">
+        <v>136266</v>
+      </c>
+      <c r="H13">
+        <v>138274</v>
+      </c>
+      <c r="I13">
+        <v>138260</v>
+      </c>
+      <c r="J13">
+        <v>505.29700000000003</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>1.1174257634830714E-2</v>
+        <v>1.4521891317239683E-2</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="1"/>
-        <v>7.7024873979615675E-5</v>
+        <v>1.0124824623573485E-4</v>
       </c>
       <c r="O13">
         <v>300</v>
@@ -11474,43 +11593,43 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>600</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="A14" s="1">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>1000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>610</v>
       </c>
-      <c r="G14" s="5">
-        <v>132466.5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>134806.75</v>
-      </c>
-      <c r="I14" s="5">
-        <v>134012.25</v>
-      </c>
-      <c r="J14" s="6">
-        <v>606.51675</v>
+      <c r="G14" s="2">
+        <v>110832.533333</v>
+      </c>
+      <c r="H14" s="2">
+        <v>112085</v>
+      </c>
+      <c r="I14" s="2">
+        <v>112076.36666699999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>87.983999999999995</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="0"/>
-        <v>1.736003575488616E-2</v>
+        <v>1.1174257634830714E-2</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="1"/>
-        <v>5.8936217956445059E-3</v>
+        <v>7.7024873979615675E-5</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -11524,7 +11643,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E15" s="5">
         <v>1000</v>
@@ -11536,21 +11655,21 @@
         <v>132466.5</v>
       </c>
       <c r="H15" s="5">
-        <v>134864</v>
+        <v>134806.75</v>
       </c>
       <c r="I15" s="5">
-        <v>134103.5</v>
+        <v>134012.25</v>
       </c>
       <c r="J15" s="6">
-        <v>1200</v>
+        <v>606.51675</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="0"/>
-        <v>1.7777168110096098E-2</v>
+        <v>1.736003575488616E-2</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="1"/>
-        <v>5.6390141179262073E-3</v>
+        <v>5.8936217956445059E-3</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -11564,7 +11683,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="5">
         <v>1000</v>
@@ -11582,7 +11701,7 @@
         <v>134103.5</v>
       </c>
       <c r="J16" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="0"/>
@@ -11604,7 +11723,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="5">
         <v>1000</v>
@@ -11619,10 +11738,10 @@
         <v>134864</v>
       </c>
       <c r="I17" s="5">
-        <v>134109</v>
+        <v>134103.5</v>
       </c>
       <c r="J17" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
@@ -11630,7 +11749,7 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>5.5982322932732233E-3</v>
+        <v>5.6390141179262073E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -11644,7 +11763,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="5">
         <v>1000</v>
@@ -11662,7 +11781,7 @@
         <v>134109</v>
       </c>
       <c r="J18" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="0"/>
@@ -11674,163 +11793,163 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>50</v>
-      </c>
-      <c r="B19" s="8">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="A19" s="4">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="5">
         <v>1000</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>610</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>132466.5</v>
       </c>
-      <c r="H19" s="8">
-        <v>134749.5</v>
-      </c>
-      <c r="I19" s="8">
-        <v>134273</v>
-      </c>
-      <c r="J19" s="9">
-        <v>3610.81</v>
+      <c r="H19" s="5">
+        <v>134864</v>
+      </c>
+      <c r="I19" s="5">
+        <v>134109</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3000</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="0"/>
-        <v>1.6942548951944164E-2</v>
+        <v>1.7777168110096098E-2</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="1"/>
-        <v>3.5361912289099402E-3</v>
+        <v>5.5982322932732233E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>52</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>416</v>
-      </c>
-      <c r="F20" s="11">
-        <v>316</v>
-      </c>
-      <c r="G20" s="11">
-        <v>87170.14</v>
-      </c>
-      <c r="H20" s="11">
-        <v>87355.1</v>
-      </c>
-      <c r="I20" s="11">
-        <v>87348.88</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0.2893</v>
+      <c r="A20" s="7">
+        <v>50</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>610</v>
+      </c>
+      <c r="G20" s="8">
+        <v>132466.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>134749.5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>134273</v>
+      </c>
+      <c r="J20" s="9">
+        <v>3610.81</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="0"/>
-        <v>2.1173348779865903E-3</v>
+        <v>1.6942548951944164E-2</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="1"/>
-        <v>7.1203627492855761E-5</v>
+        <v>3.5361912289099402E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1210</v>
-      </c>
-      <c r="G21" s="2">
-        <v>254945</v>
-      </c>
-      <c r="H21" s="2">
-        <v>255761</v>
-      </c>
-      <c r="I21" s="2">
-        <v>255735</v>
-      </c>
-      <c r="J21" s="3">
-        <v>35.008000000000003</v>
+      <c r="A21" s="10">
+        <v>52</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>416</v>
+      </c>
+      <c r="F21" s="11">
+        <v>316</v>
+      </c>
+      <c r="G21" s="11">
+        <v>87170.14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>87355.1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>87348.88</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.2893</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="0"/>
-        <v>3.1904786108906363E-3</v>
+        <v>2.1173348779865903E-3</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="1"/>
-        <v>1.0165740671955458E-4</v>
+        <v>7.1203627492855761E-5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>100</v>
       </c>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
-        <v>600</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>2000</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>1210</v>
       </c>
-      <c r="G22" s="5">
-        <v>285752</v>
-      </c>
-      <c r="H22" s="5">
-        <v>287375</v>
-      </c>
-      <c r="I22" s="5">
-        <v>286844</v>
-      </c>
-      <c r="J22" s="6">
-        <v>600</v>
+      <c r="G22" s="2">
+        <v>254945</v>
+      </c>
+      <c r="H22" s="2">
+        <v>255761</v>
+      </c>
+      <c r="I22" s="2">
+        <v>255735</v>
+      </c>
+      <c r="J22" s="3">
+        <v>35.008000000000003</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>3.1904786108906363E-3</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
+        <v>1.0165740671955458E-4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -11844,7 +11963,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E23" s="5">
         <v>2000</v>
@@ -11862,7 +11981,7 @@
         <v>286844</v>
       </c>
       <c r="J23" s="6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="0"/>
@@ -11884,7 +12003,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="5">
         <v>2000</v>
@@ -11902,7 +12021,7 @@
         <v>286844</v>
       </c>
       <c r="J24" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="0"/>
@@ -11924,7 +12043,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E25" s="5">
         <v>2000</v>
@@ -11942,7 +12061,7 @@
         <v>286844</v>
       </c>
       <c r="J25" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="0"/>
@@ -11964,7 +12083,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E26" s="5">
         <v>2000</v>
@@ -11982,7 +12101,7 @@
         <v>286844</v>
       </c>
       <c r="J26" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="0"/>
@@ -11994,35 +12113,35 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="4">
         <v>100</v>
       </c>
-      <c r="B27" s="8">
-        <v>10</v>
-      </c>
-      <c r="C27" s="8">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="B27" s="5">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="5">
         <v>2000</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <v>1210</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>285752</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>287375</v>
       </c>
-      <c r="I27" s="8">
-        <v>286872</v>
-      </c>
-      <c r="J27" s="9">
-        <v>3612.44</v>
+      <c r="I27" s="5">
+        <v>286844</v>
+      </c>
+      <c r="J27" s="6">
+        <v>3000</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="0"/>
@@ -12030,87 +12149,87 @@
       </c>
       <c r="L27" s="13">
         <f t="shared" si="1"/>
-        <v>1.7503262287951284E-3</v>
+        <v>1.8477598956067856E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>100</v>
       </c>
-      <c r="B28" s="2">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>600</v>
-      </c>
-      <c r="E28" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5250</v>
-      </c>
-      <c r="G28" s="2">
-        <v>220237.6</v>
-      </c>
-      <c r="H28" s="2">
-        <v>231409.4</v>
-      </c>
-      <c r="I28" s="2">
-        <v>225025.8</v>
-      </c>
-      <c r="J28" s="3">
-        <v>600</v>
+      <c r="B28" s="8">
+        <v>10</v>
+      </c>
+      <c r="C28" s="8">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1210</v>
+      </c>
+      <c r="G28" s="8">
+        <v>285752</v>
+      </c>
+      <c r="H28" s="8">
+        <v>287375</v>
+      </c>
+      <c r="I28" s="8">
+        <v>286872</v>
+      </c>
+      <c r="J28" s="9">
+        <v>3612.44</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>4.8277209136707445E-2</v>
+        <v>5.6476729012614182E-3</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="1"/>
-        <v>2.7585741979366463E-2</v>
+        <v>1.7503262287951284E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>100</v>
       </c>
-      <c r="B29" s="5">
-        <v>50</v>
-      </c>
-      <c r="C29" s="5">
-        <v>10</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>600</v>
+      </c>
+      <c r="E29" s="2">
         <v>10000</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>5250</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>220237.6</v>
       </c>
-      <c r="H29" s="5">
-        <v>231112.2</v>
-      </c>
-      <c r="I29" s="5">
-        <v>225125.8</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1200</v>
+      <c r="H29" s="2">
+        <v>231409.4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>225025.8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>600</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="0"/>
-        <v>4.7053335998705412E-2</v>
+        <v>4.8277209136707445E-2</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="1"/>
-        <v>2.5902570266736341E-2</v>
+        <v>2.7585741979366463E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -12124,7 +12243,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E30" s="5">
         <v>10000</v>
@@ -12136,21 +12255,21 @@
         <v>220237.6</v>
       </c>
       <c r="H30" s="5">
-        <v>231108</v>
+        <v>231112.2</v>
       </c>
       <c r="I30" s="5">
-        <v>225178.2</v>
+        <v>225125.8</v>
       </c>
       <c r="J30" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="0"/>
-        <v>4.703601779254718E-2</v>
+        <v>4.7053335998705412E-2</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="1"/>
-        <v>2.5658133859494212E-2</v>
+        <v>2.5902570266736341E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -12164,7 +12283,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E31" s="5">
         <v>10000</v>
@@ -12176,21 +12295,21 @@
         <v>220237.6</v>
       </c>
       <c r="H31" s="5">
-        <v>231102.6</v>
+        <v>231108</v>
       </c>
       <c r="I31" s="5">
-        <v>225212.2</v>
+        <v>225178.2</v>
       </c>
       <c r="J31" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="0"/>
-        <v>4.7013750602546228E-2</v>
+        <v>4.703601779254718E-2</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="1"/>
-        <v>2.5488246345995218E-2</v>
+        <v>2.5658133859494212E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -12204,7 +12323,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="5">
         <v>10000</v>
@@ -12216,141 +12335,141 @@
         <v>220237.6</v>
       </c>
       <c r="H32" s="5">
-        <v>231079.4</v>
+        <v>231102.6</v>
       </c>
       <c r="I32" s="5">
-        <v>225233</v>
+        <v>225212.2</v>
       </c>
       <c r="J32" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="0"/>
-        <v>4.6918072316268732E-2</v>
+        <v>4.7013750602546228E-2</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="1"/>
-        <v>2.5300394582987468E-2</v>
+        <v>2.5488246345995218E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="4">
         <v>100</v>
       </c>
-      <c r="B33" s="8">
-        <v>50</v>
-      </c>
-      <c r="C33" s="8">
-        <v>10</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="B33" s="5">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="5">
         <v>10000</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>5250</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="5">
         <v>220237.6</v>
       </c>
-      <c r="H33" s="8">
-        <v>230845.6</v>
-      </c>
-      <c r="I33" s="8">
-        <v>225261</v>
-      </c>
-      <c r="J33" s="9">
-        <v>3606.7159999999999</v>
+      <c r="H33" s="5">
+        <v>231079.4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>225233</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3000</v>
       </c>
       <c r="K33" s="13">
         <f t="shared" si="0"/>
-        <v>4.5952792689139405E-2</v>
+        <v>4.6918072316268732E-2</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="1"/>
-        <v>2.4191927418153111E-2</v>
+        <v>2.5300394582987468E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="7">
         <v>100</v>
       </c>
-      <c r="B34" s="2">
-        <v>50</v>
-      </c>
-      <c r="C34" s="2">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2">
-        <v>600</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="B34" s="8">
+        <v>50</v>
+      </c>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E34" s="8">
         <v>10000</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="8">
         <v>5250</v>
       </c>
-      <c r="G34" s="2">
-        <v>233564.79999999999</v>
-      </c>
-      <c r="H34" s="2">
-        <v>244758.39999999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>238081.8</v>
-      </c>
-      <c r="J34" s="3">
-        <v>600</v>
+      <c r="G34" s="8">
+        <v>220237.6</v>
+      </c>
+      <c r="H34" s="8">
+        <v>230845.6</v>
+      </c>
+      <c r="I34" s="8">
+        <v>225261</v>
+      </c>
+      <c r="J34" s="9">
+        <v>3606.7159999999999</v>
       </c>
       <c r="K34" s="13">
         <f t="shared" si="0"/>
-        <v>4.5733261861492826E-2</v>
+        <v>4.5952792689139405E-2</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="1"/>
-        <v>2.7278328343378639E-2</v>
+        <v>2.4191927418153111E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>100</v>
       </c>
-      <c r="B35" s="5">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
         <v>25</v>
       </c>
-      <c r="D35" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="2">
+        <v>600</v>
+      </c>
+      <c r="E35" s="2">
         <v>10000</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="2">
         <v>5250</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="2">
         <v>233564.79999999999</v>
       </c>
-      <c r="H35" s="5">
-        <v>244669.6</v>
-      </c>
-      <c r="I35" s="5">
-        <v>238183.6</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1200</v>
+      <c r="H35" s="2">
+        <v>244758.39999999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>238081.8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>600</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="0"/>
-        <v>4.5386921791673411E-2</v>
+        <v>4.5733261861492826E-2</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="1"/>
-        <v>2.6509218963042404E-2</v>
+        <v>2.7278328343378639E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12364,7 +12483,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="5">
         <v>10000</v>
@@ -12376,21 +12495,21 @@
         <v>233564.79999999999</v>
       </c>
       <c r="H36" s="5">
-        <v>244664.6</v>
+        <v>244669.6</v>
       </c>
       <c r="I36" s="5">
-        <v>238239.6</v>
+        <v>238183.6</v>
       </c>
       <c r="J36" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K36" s="13">
         <f t="shared" si="0"/>
-        <v>4.536741318523406E-2</v>
+        <v>4.5386921791673411E-2</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="1"/>
-        <v>2.6260439802080073E-2</v>
+        <v>2.6509218963042404E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12404,7 +12523,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E37" s="5">
         <v>10000</v>
@@ -12419,10 +12538,10 @@
         <v>244664.6</v>
       </c>
       <c r="I37" s="5">
-        <v>238277.2</v>
+        <v>238239.6</v>
       </c>
       <c r="J37" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="0"/>
@@ -12430,7 +12549,7 @@
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>2.6106760029853088E-2</v>
+        <v>2.6260439802080073E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12444,7 +12563,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E38" s="5">
         <v>10000</v>
@@ -12456,141 +12575,141 @@
         <v>233564.79999999999</v>
       </c>
       <c r="H38" s="5">
-        <v>244637.6</v>
+        <v>244664.6</v>
       </c>
       <c r="I38" s="5">
-        <v>238301.6</v>
+        <v>238277.2</v>
       </c>
       <c r="J38" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K38" s="13">
         <f t="shared" si="0"/>
-        <v>4.5262052930538955E-2</v>
+        <v>4.536741318523406E-2</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="1"/>
-        <v>2.5899534658613395E-2</v>
+        <v>2.6106760029853088E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="4">
         <v>100</v>
       </c>
-      <c r="B39" s="8">
-        <v>50</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="5">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5">
         <v>25</v>
       </c>
-      <c r="D39" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="D39" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="5">
         <v>10000</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="5">
         <v>5250</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="5">
         <v>233564.79999999999</v>
       </c>
-      <c r="H39" s="8">
-        <v>244369.2</v>
-      </c>
-      <c r="I39" s="8">
-        <v>238322.6</v>
-      </c>
-      <c r="J39" s="9">
-        <v>3607.0219999999999</v>
+      <c r="H39" s="5">
+        <v>244637.6</v>
+      </c>
+      <c r="I39" s="5">
+        <v>238301.6</v>
+      </c>
+      <c r="J39" s="6">
+        <v>3000</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="0"/>
-        <v>4.421342787879988E-2</v>
+        <v>4.5262052930538955E-2</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="1"/>
-        <v>2.4743707472136445E-2</v>
+        <v>2.5899534658613395E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>200</v>
-      </c>
-      <c r="B40" s="2">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2">
-        <v>600</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F40" s="2">
-        <v>10450</v>
-      </c>
-      <c r="G40" s="2">
-        <v>438446.5</v>
-      </c>
-      <c r="H40" s="2">
-        <v>446269.83333300002</v>
-      </c>
-      <c r="I40" s="2">
-        <v>440084.83333300002</v>
-      </c>
-      <c r="J40" s="3">
-        <v>600</v>
+      <c r="A40" s="7">
+        <v>100</v>
+      </c>
+      <c r="B40" s="8">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <v>25</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E40" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F40" s="8">
+        <v>5250</v>
+      </c>
+      <c r="G40" s="8">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H40" s="8">
+        <v>244369.2</v>
+      </c>
+      <c r="I40" s="8">
+        <v>238322.6</v>
+      </c>
+      <c r="J40" s="9">
+        <v>3607.0219999999999</v>
       </c>
       <c r="K40" s="13">
         <f t="shared" si="0"/>
-        <v>1.7530500044268867E-2</v>
+        <v>4.421342787879988E-2</v>
       </c>
       <c r="L40" s="13">
         <f t="shared" si="1"/>
-        <v>1.3859328007467723E-2</v>
+        <v>2.4743707472136445E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>200</v>
       </c>
-      <c r="B41" s="5">
-        <v>50</v>
-      </c>
-      <c r="C41" s="5">
-        <v>10</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="B41" s="2">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>600</v>
+      </c>
+      <c r="E41" s="2">
         <v>20000</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="2">
         <v>10450</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>438446.5</v>
       </c>
-      <c r="H41" s="5">
-        <v>446128.66666699998</v>
-      </c>
-      <c r="I41" s="5">
-        <v>440131</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1200</v>
+      <c r="H41" s="2">
+        <v>446269.83333300002</v>
+      </c>
+      <c r="I41" s="2">
+        <v>440084.83333300002</v>
+      </c>
+      <c r="J41" s="3">
+        <v>600</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="0"/>
-        <v>1.7219621246025236E-2</v>
+        <v>1.7530500044268867E-2</v>
       </c>
       <c r="L41" s="13">
         <f t="shared" si="1"/>
-        <v>1.3443804702818548E-2</v>
+        <v>1.3859328007467723E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12604,7 +12723,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="5">
         <v>20000</v>
@@ -12616,21 +12735,21 @@
         <v>438446.5</v>
       </c>
       <c r="H42" s="5">
-        <v>445970.83333300002</v>
+        <v>446128.66666699998</v>
       </c>
       <c r="I42" s="5">
-        <v>440162.66666699998</v>
+        <v>440131</v>
       </c>
       <c r="J42" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K42" s="13">
         <f t="shared" si="0"/>
-        <v>1.6871805890906109E-2</v>
+        <v>1.7219621246025236E-2</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="1"/>
-        <v>1.3023646911149364E-2</v>
+        <v>1.3443804702818548E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12644,7 +12763,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="5">
         <v>20000</v>
@@ -12656,21 +12775,21 @@
         <v>438446.5</v>
       </c>
       <c r="H43" s="5">
-        <v>445875.66666699998</v>
+        <v>445970.83333300002</v>
       </c>
       <c r="I43" s="5">
-        <v>440182.5</v>
+        <v>440162.66666699998</v>
       </c>
       <c r="J43" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K43" s="13">
         <f t="shared" si="0"/>
-        <v>1.6661969294118083E-2</v>
+        <v>1.6871805890906109E-2</v>
       </c>
       <c r="L43" s="13">
         <f t="shared" si="1"/>
-        <v>1.2768507215380058E-2</v>
+        <v>1.3023646911149364E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -12684,7 +12803,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E44" s="5">
         <v>20000</v>
@@ -12696,141 +12815,141 @@
         <v>438446.5</v>
       </c>
       <c r="H44" s="5">
-        <v>445810.83333300002</v>
+        <v>445875.66666699998</v>
       </c>
       <c r="I44" s="5">
-        <v>440195.83333300002</v>
+        <v>440182.5</v>
       </c>
       <c r="J44" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K44" s="13">
         <f t="shared" si="0"/>
-        <v>1.6518964507753902E-2</v>
+        <v>1.6661969294118083E-2</v>
       </c>
       <c r="L44" s="13">
         <f t="shared" si="1"/>
-        <v>1.2595028160309095E-2</v>
+        <v>1.2768507215380058E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="4">
         <v>200</v>
       </c>
-      <c r="B45" s="8">
-        <v>50</v>
-      </c>
-      <c r="C45" s="8">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E45" s="8">
+      <c r="B45" s="5">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="5">
         <v>20000</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="5">
         <v>10450</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="5">
         <v>438446.5</v>
       </c>
-      <c r="H45" s="8">
-        <v>445554.66666699998</v>
-      </c>
-      <c r="I45" s="8">
-        <v>440202</v>
-      </c>
-      <c r="J45" s="9">
-        <v>3604.2266669999999</v>
+      <c r="H45" s="5">
+        <v>445810.83333300002</v>
+      </c>
+      <c r="I45" s="5">
+        <v>440195.83333300002</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3000</v>
       </c>
       <c r="K45" s="13">
         <f t="shared" si="0"/>
-        <v>1.5953523100034114E-2</v>
+        <v>1.6518964507753902E-2</v>
       </c>
       <c r="L45" s="13">
         <f t="shared" si="1"/>
-        <v>1.2013490301966639E-2</v>
+        <v>1.2595028160309095E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="7">
         <v>200</v>
       </c>
-      <c r="B46" s="2">
-        <v>50</v>
-      </c>
-      <c r="C46" s="2">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2">
-        <v>600</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="B46" s="8">
+        <v>50</v>
+      </c>
+      <c r="C46" s="8">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="8">
         <v>20000</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="8">
         <v>10450</v>
       </c>
-      <c r="G46" s="2">
-        <v>479852</v>
-      </c>
-      <c r="H46" s="2">
-        <v>488999.33333300002</v>
-      </c>
-      <c r="I46" s="2">
-        <v>481421.33333300002</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
+      <c r="G46" s="8">
+        <v>438446.5</v>
+      </c>
+      <c r="H46" s="8">
+        <v>445554.66666699998</v>
+      </c>
+      <c r="I46" s="8">
+        <v>440202</v>
+      </c>
+      <c r="J46" s="9">
+        <v>3604.2266669999999</v>
       </c>
       <c r="K46" s="13">
         <f t="shared" si="0"/>
-        <v>1.870622863767964E-2</v>
+        <v>1.5953523100034114E-2</v>
       </c>
       <c r="L46" s="13">
         <f t="shared" si="1"/>
-        <v>1.5496953642755816E-2</v>
+        <v>1.2013490301966639E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>200</v>
       </c>
-      <c r="B47" s="5">
-        <v>50</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
         <v>25</v>
       </c>
-      <c r="D47" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="2">
+        <v>600</v>
+      </c>
+      <c r="E47" s="2">
         <v>20000</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="2">
         <v>10450</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="2">
         <v>479852</v>
       </c>
-      <c r="H47" s="5">
-        <v>488424.33333300002</v>
-      </c>
-      <c r="I47" s="5">
-        <v>481479.66666699998</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1200</v>
+      <c r="H47" s="2">
+        <v>488999.33333300002</v>
+      </c>
+      <c r="I47" s="2">
+        <v>481421.33333300002</v>
+      </c>
+      <c r="J47" s="3">
+        <v>600</v>
       </c>
       <c r="K47" s="13">
         <f t="shared" si="0"/>
-        <v>1.7550995615846058E-2</v>
+        <v>1.870622863767964E-2</v>
       </c>
       <c r="L47" s="13">
         <f t="shared" si="1"/>
-        <v>1.4218510815400489E-2</v>
+        <v>1.5496953642755816E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12844,7 +12963,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="5">
         <v>20000</v>
@@ -12856,21 +12975,21 @@
         <v>479852</v>
       </c>
       <c r="H48" s="5">
-        <v>488078</v>
+        <v>488424.33333300002</v>
       </c>
       <c r="I48" s="5">
-        <v>481506.66666699998</v>
+        <v>481479.66666699998</v>
       </c>
       <c r="J48" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K48" s="13">
         <f t="shared" si="0"/>
-        <v>1.6853863521814137E-2</v>
+        <v>1.7550995615846058E-2</v>
       </c>
       <c r="L48" s="13">
         <f t="shared" si="1"/>
-        <v>1.346369500981404E-2</v>
+        <v>1.4218510815400489E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -12884,7 +13003,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="5">
         <v>20000</v>
@@ -12896,21 +13015,21 @@
         <v>479852</v>
       </c>
       <c r="H49" s="5">
-        <v>487986.66666699998</v>
+        <v>488078</v>
       </c>
       <c r="I49" s="5">
-        <v>481525</v>
+        <v>481506.66666699998</v>
       </c>
       <c r="J49" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K49" s="13">
         <f t="shared" si="0"/>
-        <v>1.666985436827733E-2</v>
+        <v>1.6853863521814137E-2</v>
       </c>
       <c r="L49" s="13">
         <f t="shared" si="1"/>
-        <v>1.3241482008379128E-2</v>
+        <v>1.346369500981404E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -12924,7 +13043,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E50" s="5">
         <v>20000</v>
@@ -12936,141 +13055,141 @@
         <v>479852</v>
       </c>
       <c r="H50" s="5">
-        <v>487880</v>
+        <v>487986.66666699998</v>
       </c>
       <c r="I50" s="5">
-        <v>481538.66666699998</v>
+        <v>481525</v>
       </c>
       <c r="J50" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K50" s="13">
         <f t="shared" si="0"/>
-        <v>1.6454865950643601E-2</v>
+        <v>1.666985436827733E-2</v>
       </c>
       <c r="L50" s="13">
         <f t="shared" si="1"/>
-        <v>1.2997731681971011E-2</v>
+        <v>1.3241482008379128E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>200</v>
       </c>
-      <c r="B51" s="8">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="5">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5">
         <v>25</v>
       </c>
-      <c r="D51" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E51" s="8">
+      <c r="D51" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E51" s="5">
         <v>20000</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="5">
         <v>10450</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>479852</v>
       </c>
-      <c r="H51" s="8">
-        <v>487651.66666699998</v>
-      </c>
-      <c r="I51" s="8">
-        <v>481546.33333300002</v>
-      </c>
-      <c r="J51" s="9">
-        <v>3603.04</v>
+      <c r="H51" s="5">
+        <v>487880</v>
+      </c>
+      <c r="I51" s="5">
+        <v>481538.66666699998</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3000</v>
       </c>
       <c r="K51" s="13">
         <f t="shared" si="0"/>
-        <v>1.5994340223030753E-2</v>
+        <v>1.6454865950643601E-2</v>
       </c>
       <c r="L51" s="13">
         <f t="shared" si="1"/>
-        <v>1.2519865615816876E-2</v>
+        <v>1.2997731681971011E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>300</v>
-      </c>
-      <c r="B52" s="2">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2">
-        <v>600</v>
-      </c>
-      <c r="E52" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F52" s="2">
-        <v>15650</v>
-      </c>
-      <c r="G52" s="2">
-        <v>680189</v>
-      </c>
-      <c r="H52" s="2">
-        <v>687166</v>
-      </c>
-      <c r="I52" s="2">
-        <v>681482.2</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
+      <c r="A52" s="7">
+        <v>200</v>
+      </c>
+      <c r="B52" s="8">
+        <v>50</v>
+      </c>
+      <c r="C52" s="8">
+        <v>25</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F52" s="8">
+        <v>10450</v>
+      </c>
+      <c r="G52" s="8">
+        <v>479852</v>
+      </c>
+      <c r="H52" s="8">
+        <v>487651.66666699998</v>
+      </c>
+      <c r="I52" s="8">
+        <v>481546.33333300002</v>
+      </c>
+      <c r="J52" s="9">
+        <v>3603.04</v>
       </c>
       <c r="K52" s="13">
         <f t="shared" si="0"/>
-        <v>1.0153296292307826E-2</v>
+        <v>1.5994340223030753E-2</v>
       </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>8.2713638334842628E-3</v>
+        <v>1.2519865615816876E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>300</v>
       </c>
-      <c r="B53" s="5">
-        <v>50</v>
-      </c>
-      <c r="C53" s="5">
-        <v>10</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>600</v>
+      </c>
+      <c r="E53" s="2">
         <v>30000</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="2">
         <v>15650</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="2">
         <v>680189</v>
       </c>
-      <c r="H53" s="5">
-        <v>686692.8</v>
-      </c>
-      <c r="I53" s="5">
-        <v>681547.4</v>
-      </c>
-      <c r="J53" s="6">
-        <v>1200</v>
+      <c r="H53" s="2">
+        <v>687166</v>
+      </c>
+      <c r="I53" s="2">
+        <v>681482.2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>600</v>
       </c>
       <c r="K53" s="13">
         <f t="shared" si="0"/>
-        <v>9.471192941006585E-3</v>
+        <v>1.0153296292307826E-2</v>
       </c>
       <c r="L53" s="13">
         <f t="shared" si="1"/>
-        <v>7.4930157997870703E-3</v>
+        <v>8.2713638334842628E-3</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -13084,7 +13203,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="5">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="5">
         <v>30000</v>
@@ -13096,21 +13215,21 @@
         <v>680189</v>
       </c>
       <c r="H54" s="5">
-        <v>686626.2</v>
+        <v>686692.8</v>
       </c>
       <c r="I54" s="5">
-        <v>681580.4</v>
+        <v>681547.4</v>
       </c>
       <c r="J54" s="6">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K54" s="13">
         <f t="shared" si="0"/>
-        <v>9.3751156014727569E-3</v>
+        <v>9.471192941006585E-3</v>
       </c>
       <c r="L54" s="13">
         <f t="shared" si="1"/>
-        <v>7.3486855002036482E-3</v>
+        <v>7.4930157997870703E-3</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -13124,7 +13243,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="5">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E55" s="5">
         <v>30000</v>
@@ -13136,21 +13255,21 @@
         <v>680189</v>
       </c>
       <c r="H55" s="5">
-        <v>686525.4</v>
+        <v>686626.2</v>
       </c>
       <c r="I55" s="5">
-        <v>681599.8</v>
+        <v>681580.4</v>
       </c>
       <c r="J55" s="6">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" si="0"/>
-        <v>9.229665792409171E-3</v>
+        <v>9.3751156014727569E-3</v>
       </c>
       <c r="L55" s="13">
         <f t="shared" si="1"/>
-        <v>7.1746799171596223E-3</v>
+        <v>7.3486855002036482E-3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -13164,7 +13283,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="5">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E56" s="5">
         <v>30000</v>
@@ -13176,59 +13295,99 @@
         <v>680189</v>
       </c>
       <c r="H56" s="5">
-        <v>686495.2</v>
+        <v>686525.4</v>
       </c>
       <c r="I56" s="5">
-        <v>681612.80000000005</v>
+        <v>681599.8</v>
       </c>
       <c r="J56" s="6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K56" s="13">
         <f t="shared" si="0"/>
-        <v>9.1860802522726361E-3</v>
+        <v>9.229665792409171E-3</v>
       </c>
       <c r="L56" s="13">
         <f t="shared" si="1"/>
-        <v>7.1120672074617671E-3</v>
+        <v>7.1746799171596223E-3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="4">
         <v>300</v>
       </c>
-      <c r="B57" s="8">
-        <v>50</v>
-      </c>
-      <c r="C57" s="8">
-        <v>10</v>
-      </c>
-      <c r="D57" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E57" s="8">
+      <c r="B57" s="5">
+        <v>50</v>
+      </c>
+      <c r="C57" s="5">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="5">
         <v>30000</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="5">
         <v>15650</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="5">
         <v>680189</v>
       </c>
-      <c r="H57" s="8">
-        <v>686009.8</v>
-      </c>
-      <c r="I57" s="8">
-        <v>681618.6</v>
-      </c>
-      <c r="J57" s="9">
-        <v>3603.3440000000001</v>
+      <c r="H57" s="5">
+        <v>686495.2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>681612.80000000005</v>
+      </c>
+      <c r="J57" s="6">
+        <v>3000</v>
       </c>
       <c r="K57" s="13">
         <f t="shared" si="0"/>
+        <v>9.1860802522726361E-3</v>
+      </c>
+      <c r="L57" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1120672074617671E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>300</v>
+      </c>
+      <c r="B58" s="8">
+        <v>50</v>
+      </c>
+      <c r="C58" s="8">
+        <v>10</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F58" s="8">
+        <v>15650</v>
+      </c>
+      <c r="G58" s="8">
+        <v>680189</v>
+      </c>
+      <c r="H58" s="8">
+        <v>686009.8</v>
+      </c>
+      <c r="I58" s="8">
+        <v>681618.6</v>
+      </c>
+      <c r="J58" s="9">
+        <v>3603.3440000000001</v>
+      </c>
+      <c r="K58" s="13">
+        <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB647B-F52D-4578-9F4A-5CC3D80C6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCD632-5F75-4F10-9B1A-4A6467944CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2430" yWindow="975" windowWidth="25005" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -708,6 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10630,10 +10631,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10744,11 +10746,11 @@
         <v>2.7496999999999998</v>
       </c>
       <c r="K2" s="13">
-        <f>(H2-G2)/H2</f>
+        <f t="shared" ref="K2:K59" si="0">(H2-G2)/H2</f>
         <v>3.8872040997512476E-3</v>
       </c>
       <c r="L2" s="13">
-        <f>(H2-I2)/H2</f>
+        <f t="shared" ref="L2:L59" si="1">(H2-I2)/H2</f>
         <v>9.6692246160878318E-5</v>
       </c>
       <c r="O2">
@@ -10817,11 +10819,11 @@
         <v>3.8605</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K58" si="0">(H3-G3)/H3</f>
+        <f t="shared" si="0"/>
         <v>4.0052521581682423E-3</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L58" si="1">(H3-I3)/H3</f>
+        <f t="shared" si="1"/>
         <v>1.005647033140511E-4</v>
       </c>
       <c r="O3">
@@ -10869,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E4" s="2">
         <v>1000</v>
@@ -10941,8 +10943,8 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
+      <c r="D5" s="15">
+        <v>3600</v>
       </c>
       <c r="E5" s="5">
         <v>1000</v>
@@ -11000,7 +11002,7 @@
       </c>
       <c r="X5" s="14">
         <f>AVERAGE(J4:J8)</f>
-        <v>778.12040000000002</v>
+        <v>583.46640000000002</v>
       </c>
       <c r="Y5">
         <v>3600</v>
@@ -11016,8 +11018,8 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
+      <c r="D6" s="15">
+        <v>3600</v>
       </c>
       <c r="E6" s="5">
         <v>1000</v>
@@ -11091,8 +11093,8 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
-        <v>3</v>
+      <c r="D7" s="15">
+        <v>3600</v>
       </c>
       <c r="E7" s="5">
         <v>1000</v>
@@ -11136,19 +11138,22 @@
         <v>610</v>
       </c>
       <c r="T7" s="13">
-        <v>1.6942548951944164E-2</v>
+        <f>AVERAGE(K14:K18)</f>
+        <v>1.3499262756195752E-2</v>
       </c>
       <c r="U7" s="13">
-        <v>3.5361912289099402E-3</v>
+        <f>AVERAGE(L14:L18)</f>
+        <v>1.3088328468142947E-3</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X7" s="14">
-        <v>3610.81</v>
+        <f>AVERAGE(J14:J18)</f>
+        <v>1149.6170000000002</v>
       </c>
       <c r="Y7">
         <v>3600</v>
@@ -11165,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>4</v>
+        <v>3600</v>
       </c>
       <c r="E8" s="8">
         <v>1000</v>
@@ -11183,7 +11188,7 @@
         <v>120044</v>
       </c>
       <c r="J8" s="9">
-        <v>1220.55</v>
+        <v>247.28</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
@@ -11200,28 +11205,31 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S8">
         <v>1210</v>
       </c>
       <c r="T8" s="13">
-        <v>5.6476729012614182E-3</v>
+        <f>AVERAGE(K20:K24)</f>
+        <v>5.0245828018450431E-3</v>
       </c>
       <c r="U8" s="13">
-        <v>1.7503262287951284E-3</v>
+        <f>AVERAGE(L20:L24)</f>
+        <v>1.2416912052439734E-3</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8" s="14">
-        <v>3612.44</v>
+        <f>AVERAGE(J20:J24)</f>
+        <v>2919.5526</v>
       </c>
       <c r="Y8">
         <v>3600</v>
@@ -11237,8 +11245,8 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" s="2">
+        <v>3600</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -11270,31 +11278,34 @@
         <v>100</v>
       </c>
       <c r="P9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="S9">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="T9" s="13">
-        <v>4.5952792689139405E-2</v>
+        <f>AVERAGE(K25:K29)</f>
+        <v>5.3581947972910051E-3</v>
       </c>
       <c r="U9" s="13">
-        <v>2.4191927418153111E-2</v>
+        <f>AVERAGE(L25:L29)</f>
+        <v>4.678464118021763E-4</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="14">
-        <v>3606.7159999999999</v>
+        <f>AVERAGE(J25:J29)</f>
+        <v>1514.0592000000001</v>
       </c>
       <c r="Y9">
         <v>3600</v>
@@ -11310,8 +11321,8 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" s="15">
+        <v>3600</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -11343,31 +11354,32 @@
         <v>100</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="S10">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="T10" s="13">
-        <v>4.421342787879988E-2</v>
+        <f>AVERAGE(K30:K34)</f>
+        <v>4.7240919777485424E-3</v>
       </c>
       <c r="U10" s="13">
-        <v>2.4743707472136445E-2</v>
+        <v>1.7503262287951284E-3</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="14">
-        <v>3607.0219999999999</v>
+        <v>3612.44</v>
       </c>
       <c r="Y10">
         <v>3600</v>
@@ -11383,8 +11395,8 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" s="15">
+        <v>3600</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -11413,38 +11425,17 @@
         <v>9.9856871817062214E-5</v>
       </c>
       <c r="O11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>50</v>
       </c>
       <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>20000</v>
-      </c>
-      <c r="S11">
-        <v>10450</v>
-      </c>
-      <c r="T11" s="13">
-        <v>1.5953523100034114E-2</v>
-      </c>
-      <c r="U11" s="13">
-        <v>1.2013490301966639E-2</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="14">
-        <v>3604.2266669999999</v>
-      </c>
-      <c r="Y11">
-        <v>3600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -11456,8 +11447,8 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" s="15">
+        <v>3600</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -11486,38 +11477,17 @@
         <v>1.0101894441937678E-4</v>
       </c>
       <c r="O12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>50</v>
       </c>
       <c r="Q12">
-        <v>25</v>
-      </c>
-      <c r="R12">
-        <v>20000</v>
-      </c>
-      <c r="S12">
-        <v>10450</v>
-      </c>
-      <c r="T12" s="13">
-        <v>1.5994340223030753E-2</v>
-      </c>
-      <c r="U12" s="13">
-        <v>1.2519865615816876E-2</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" s="14">
-        <v>3603.04</v>
-      </c>
-      <c r="Y12">
-        <v>3600</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -11529,8 +11499,8 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>4</v>
+      <c r="D13" s="8">
+        <v>3600</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -11559,7 +11529,7 @@
         <v>1.0124824623573485E-4</v>
       </c>
       <c r="O13">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>50</v>
@@ -11568,16 +11538,18 @@
         <v>10</v>
       </c>
       <c r="R13">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="S13">
-        <v>15650</v>
+        <v>5250</v>
       </c>
       <c r="T13" s="13">
-        <v>8.4850099809070448E-3</v>
+        <f>AVERAGE(K35:K39)</f>
+        <v>4.5509053366806274E-2</v>
       </c>
       <c r="U13" s="13">
-        <v>6.4010747368333067E-3</v>
+        <f>AVERAGE(L35:L39)</f>
+        <v>2.4199573920670858E-2</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -11586,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="14">
-        <v>3603.3440000000001</v>
+        <v>3606.7159999999999</v>
       </c>
       <c r="Y13">
         <v>3600</v>
@@ -11603,7 +11575,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="2">
         <v>1000</v>
@@ -11612,24 +11584,59 @@
         <v>610</v>
       </c>
       <c r="G14" s="2">
-        <v>110832.533333</v>
+        <v>144518</v>
       </c>
       <c r="H14" s="2">
-        <v>112085</v>
+        <v>146982</v>
       </c>
       <c r="I14" s="2">
-        <v>112076.36666699999</v>
+        <v>146464</v>
       </c>
       <c r="J14" s="3">
-        <v>87.983999999999995</v>
+        <v>3601.63</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="0"/>
-        <v>1.1174257634830714E-2</v>
+        <v>1.6763957491393505E-2</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="1"/>
-        <v>7.7024873979615675E-5</v>
+        <v>3.5242410635315888E-3</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+      <c r="R14">
+        <v>10000</v>
+      </c>
+      <c r="S14">
+        <v>5250</v>
+      </c>
+      <c r="T14" s="13">
+        <f>AVERAGE(K40:K44)</f>
+        <v>4.5192615529547821E-2</v>
+      </c>
+      <c r="U14" s="13">
+        <f>AVERAGE(L40:L44)</f>
+        <v>2.6107509893404796E-2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>3607.0219999999999</v>
+      </c>
+      <c r="Y14">
+        <v>3600</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -11642,8 +11649,8 @@
       <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
-        <v>600</v>
+      <c r="D15" s="15">
+        <v>3600</v>
       </c>
       <c r="E15" s="5">
         <v>1000</v>
@@ -11652,25 +11659,37 @@
         <v>610</v>
       </c>
       <c r="G15" s="5">
-        <v>132466.5</v>
+        <v>98195.6</v>
       </c>
       <c r="H15" s="5">
-        <v>134806.75</v>
+        <v>99220</v>
       </c>
       <c r="I15" s="5">
-        <v>134012.25</v>
+        <v>99210.1</v>
       </c>
       <c r="J15" s="6">
-        <v>606.51675</v>
+        <v>281.226</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="0"/>
-        <v>1.736003575488616E-2</v>
+        <v>1.032453134448694E-2</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="1"/>
-        <v>5.8936217956445059E-3</v>
-      </c>
+        <v>9.9778270509919158E-5</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -11682,8 +11701,8 @@
       <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="D16" s="5">
-        <v>1200</v>
+      <c r="D16" s="15">
+        <v>3600</v>
       </c>
       <c r="E16" s="5">
         <v>1000</v>
@@ -11692,27 +11711,62 @@
         <v>610</v>
       </c>
       <c r="G16" s="5">
-        <v>132466.5</v>
+        <v>121248</v>
       </c>
       <c r="H16" s="5">
-        <v>134864</v>
+        <v>122304</v>
       </c>
       <c r="I16" s="5">
-        <v>134103.5</v>
+        <v>122292</v>
       </c>
       <c r="J16" s="6">
-        <v>1200</v>
+        <v>7.391</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="0"/>
-        <v>1.7777168110096098E-2</v>
+        <v>8.634222919937205E-3</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="1"/>
-        <v>5.6390141179262073E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.8116169544740979E-5</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>20000</v>
+      </c>
+      <c r="S16">
+        <v>10450</v>
+      </c>
+      <c r="T16" s="13">
+        <f>AVERAGE(K45:K49)</f>
+        <v>1.677691563844004E-2</v>
+      </c>
+      <c r="U16" s="13">
+        <f>AVERAGE(L45:L49)</f>
+        <v>1.2936031677588411E-2</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>3604.2266669999999</v>
+      </c>
+      <c r="Y16">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>50</v>
       </c>
@@ -11722,8 +11776,8 @@
       <c r="C17" s="5">
         <v>10</v>
       </c>
-      <c r="D17" s="5">
-        <v>1800</v>
+      <c r="D17" s="15">
+        <v>3600</v>
       </c>
       <c r="E17" s="5">
         <v>1000</v>
@@ -11732,227 +11786,309 @@
         <v>610</v>
       </c>
       <c r="G17" s="5">
-        <v>132466.5</v>
+        <v>113054</v>
       </c>
       <c r="H17" s="5">
-        <v>134864</v>
+        <v>114731</v>
       </c>
       <c r="I17" s="5">
-        <v>134103.5</v>
+        <v>114720</v>
       </c>
       <c r="J17" s="6">
-        <v>1800</v>
+        <v>38.878</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
-        <v>1.7777168110096098E-2</v>
+        <v>1.4616799295743957E-2</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>5.6390141179262073E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E18" s="5">
+        <v>9.587644141513627E-5</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>20000</v>
+      </c>
+      <c r="S17">
+        <v>10450</v>
+      </c>
+      <c r="T17" s="13">
+        <f>AVERAGE(K50:K54)</f>
+        <v>1.7075256959095477E-2</v>
+      </c>
+      <c r="U17" s="13">
+        <f>AVERAGE(L50:L54)</f>
+        <v>1.3694908752864665E-2</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>3603.04</v>
+      </c>
+      <c r="Y17">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="8">
         <v>1000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8">
         <v>610</v>
       </c>
-      <c r="G18" s="5">
-        <v>132466.5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>134864</v>
-      </c>
-      <c r="I18" s="5">
-        <v>134109</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2400</v>
+      <c r="G18" s="8">
+        <v>120415</v>
+      </c>
+      <c r="H18" s="8">
+        <v>122517</v>
+      </c>
+      <c r="I18" s="8">
+        <v>122183</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1818.96</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="0"/>
-        <v>1.7777168110096098E-2</v>
+        <v>1.7156802729417144E-2</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="1"/>
-        <v>5.5982322932732233E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="5">
-        <v>610</v>
-      </c>
-      <c r="G19" s="5">
-        <v>132466.5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>134864</v>
-      </c>
-      <c r="I19" s="5">
-        <v>134109</v>
-      </c>
-      <c r="J19" s="6">
-        <v>3000</v>
+        <v>2.7261522890700881E-3</v>
+      </c>
+      <c r="O18">
+        <v>300</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>416</v>
+      </c>
+      <c r="F19" s="2">
+        <v>316</v>
+      </c>
+      <c r="G19" s="2">
+        <v>87170.14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>87355.1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>87348.88</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.2893</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="0"/>
-        <v>1.7777168110096098E-2</v>
+        <v>2.1173348779865903E-3</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="1"/>
-        <v>5.5982322932732233E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>50</v>
-      </c>
-      <c r="B20" s="8">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8">
+        <v>7.1203627492855761E-5</v>
+      </c>
+      <c r="O19">
+        <v>300</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>30000</v>
+      </c>
+      <c r="S19">
+        <v>15650</v>
+      </c>
+      <c r="T19" s="13">
+        <f>AVERAGE(K55:K59)</f>
+        <v>9.3050490517806519E-3</v>
+      </c>
+      <c r="U19" s="13">
+        <f>AVERAGE(L55:L59)</f>
+        <v>7.2904402989452059E-3</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>3603.3440000000001</v>
+      </c>
+      <c r="Y19">
         <v>3600</v>
       </c>
-      <c r="E20" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="8">
-        <v>610</v>
-      </c>
-      <c r="G20" s="8">
-        <v>132466.5</v>
-      </c>
-      <c r="H20" s="8">
-        <v>134749.5</v>
-      </c>
-      <c r="I20" s="8">
-        <v>134273</v>
-      </c>
-      <c r="J20" s="9">
-        <v>3610.81</v>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1210</v>
+      </c>
+      <c r="G20" s="2">
+        <v>231865</v>
+      </c>
+      <c r="H20" s="2">
+        <v>232394</v>
+      </c>
+      <c r="I20" s="2">
+        <v>232371</v>
+      </c>
+      <c r="J20" s="3">
+        <v>129.203</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="0"/>
-        <v>1.6942548951944164E-2</v>
+        <v>2.2763066172104269E-3</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="1"/>
-        <v>3.5361912289099402E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>416</v>
-      </c>
-      <c r="F21" s="11">
-        <v>316</v>
-      </c>
-      <c r="G21" s="11">
-        <v>87170.14</v>
-      </c>
-      <c r="H21" s="11">
-        <v>87355.1</v>
-      </c>
-      <c r="I21" s="11">
-        <v>87348.88</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.2893</v>
+        <v>9.8969852922192489E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1210</v>
+      </c>
+      <c r="G21" s="5">
+        <v>253759</v>
+      </c>
+      <c r="H21" s="5">
+        <v>255580</v>
+      </c>
+      <c r="I21" s="5">
+        <v>254975</v>
+      </c>
+      <c r="J21" s="6">
+        <v>3623.87</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="0"/>
-        <v>2.1173348779865903E-3</v>
+        <v>7.1249706549808278E-3</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="1"/>
-        <v>7.1203627492855761E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+        <v>2.3671648798810549E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>100</v>
       </c>
-      <c r="B22" s="2">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B22" s="5">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="15">
         <v>2000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="15">
         <v>1210</v>
       </c>
-      <c r="G22" s="2">
-        <v>254945</v>
-      </c>
-      <c r="H22" s="2">
-        <v>255761</v>
-      </c>
-      <c r="I22" s="2">
-        <v>255735</v>
-      </c>
-      <c r="J22" s="3">
-        <v>35.008000000000003</v>
+      <c r="G22" s="5">
+        <v>308694</v>
+      </c>
+      <c r="H22" s="5">
+        <v>309757</v>
+      </c>
+      <c r="I22" s="5">
+        <v>309583</v>
+      </c>
+      <c r="J22" s="6">
+        <v>3612.51</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="0"/>
-        <v>3.1904786108906363E-3</v>
+        <v>3.4317222855334987E-3</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="1"/>
-        <v>1.0165740671955458E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.617306469264617E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>100</v>
       </c>
@@ -11960,119 +12096,119 @@
         <v>10</v>
       </c>
       <c r="C23" s="5">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
-        <v>600</v>
-      </c>
-      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="15">
         <v>2000</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="15">
         <v>1210</v>
       </c>
       <c r="G23" s="5">
-        <v>285752</v>
+        <v>251838</v>
       </c>
       <c r="H23" s="5">
-        <v>287375</v>
+        <v>253595</v>
       </c>
       <c r="I23" s="5">
-        <v>286844</v>
+        <v>252931</v>
       </c>
       <c r="J23" s="6">
-        <v>600</v>
+        <v>3617.39</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>6.9283700388414601E-3</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+        <v>2.6183481535519233E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>100</v>
       </c>
-      <c r="B24" s="5">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="B24" s="8">
+        <v>10</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="8">
         <v>2000</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="8">
         <v>1210</v>
       </c>
-      <c r="G24" s="5">
-        <v>285752</v>
-      </c>
-      <c r="H24" s="5">
-        <v>287375</v>
-      </c>
-      <c r="I24" s="5">
-        <v>286844</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1200</v>
+      <c r="G24" s="8">
+        <v>221132</v>
+      </c>
+      <c r="H24" s="8">
+        <v>222324</v>
+      </c>
+      <c r="I24" s="8">
+        <v>222199</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3614.79</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>5.3615444126590018E-3</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.622424929382343E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>100</v>
       </c>
-      <c r="B25" s="5">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B25" s="15">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E25" s="2">
         <v>2000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>1210</v>
       </c>
       <c r="G25" s="5">
-        <v>285752</v>
+        <v>254308</v>
       </c>
       <c r="H25" s="5">
-        <v>287375</v>
+        <v>254858</v>
       </c>
       <c r="I25" s="5">
-        <v>286844</v>
+        <v>254781</v>
       </c>
       <c r="J25" s="6">
-        <v>1800</v>
+        <v>3608.08</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>2.1580644908144927E-3</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.0212902871402898E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>100</v>
       </c>
@@ -12080,39 +12216,39 @@
         <v>10</v>
       </c>
       <c r="C26" s="5">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="15">
         <v>2000</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="15">
         <v>1210</v>
       </c>
       <c r="G26" s="5">
-        <v>285752</v>
+        <v>245727</v>
       </c>
       <c r="H26" s="5">
-        <v>287375</v>
+        <v>247959</v>
       </c>
       <c r="I26" s="5">
-        <v>286844</v>
+        <v>247934</v>
       </c>
       <c r="J26" s="6">
-        <v>2400</v>
+        <v>30.928999999999998</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>9.0014881492504802E-3</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0082311995128227E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>100</v>
       </c>
@@ -12120,236 +12256,235 @@
         <v>10</v>
       </c>
       <c r="C27" s="5">
-        <v>10</v>
-      </c>
-      <c r="D27" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="15">
         <v>2000</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="15">
         <v>1210</v>
       </c>
       <c r="G27" s="5">
-        <v>285752</v>
+        <v>207647</v>
       </c>
       <c r="H27" s="5">
-        <v>287375</v>
+        <v>208442</v>
       </c>
       <c r="I27" s="5">
-        <v>286844</v>
+        <v>208421</v>
       </c>
       <c r="J27" s="6">
-        <v>3000</v>
+        <v>57.79</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>3.814010612064747E-3</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="1"/>
-        <v>1.8477598956067856E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+        <v>1.0074745013001219E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>100</v>
       </c>
-      <c r="B28" s="8">
-        <v>10</v>
-      </c>
-      <c r="C28" s="8">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="5">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="15">
         <v>3600</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="15">
         <v>2000</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="15">
         <v>1210</v>
       </c>
-      <c r="G28" s="8">
-        <v>285752</v>
-      </c>
-      <c r="H28" s="8">
-        <v>287375</v>
-      </c>
-      <c r="I28" s="8">
-        <v>286872</v>
-      </c>
-      <c r="J28" s="9">
-        <v>3612.44</v>
+      <c r="G28" s="5">
+        <v>279116</v>
+      </c>
+      <c r="H28" s="5">
+        <v>281398</v>
+      </c>
+      <c r="I28" s="5">
+        <v>280910</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3616.59</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>5.6476729012614182E-3</v>
+        <v>8.1095103732080533E-3</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="1"/>
-        <v>1.7503262287951284E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+        <v>1.7341985373030371E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>100</v>
       </c>
-      <c r="B29" s="2">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2">
-        <v>600</v>
-      </c>
-      <c r="E29" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5250</v>
-      </c>
-      <c r="G29" s="2">
-        <v>220237.6</v>
-      </c>
-      <c r="H29" s="2">
-        <v>231409.4</v>
-      </c>
-      <c r="I29" s="2">
-        <v>225025.8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>600</v>
+      <c r="B29" s="5">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1210</v>
+      </c>
+      <c r="G29" s="5">
+        <v>216299</v>
+      </c>
+      <c r="H29" s="5">
+        <v>217104</v>
+      </c>
+      <c r="I29" s="5">
+        <v>217082</v>
+      </c>
+      <c r="J29" s="6">
+        <v>256.90699999999998</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="0"/>
-        <v>4.8277209136707445E-2</v>
+        <v>3.7079003611172525E-3</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="1"/>
-        <v>2.7585741979366463E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+        <v>1.0133392291252119E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>100</v>
       </c>
-      <c r="B30" s="5">
-        <v>50</v>
-      </c>
-      <c r="C30" s="5">
-        <v>10</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="5">
-        <v>5250</v>
-      </c>
-      <c r="G30" s="5">
-        <v>220237.6</v>
-      </c>
-      <c r="H30" s="5">
-        <v>231112.2</v>
-      </c>
-      <c r="I30" s="5">
-        <v>225125.8</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1200</v>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1210</v>
+      </c>
+      <c r="G30" s="2">
+        <v>285752</v>
+      </c>
+      <c r="H30" s="2">
+        <v>287331</v>
+      </c>
+      <c r="I30" s="2">
+        <v>286880</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3603.65</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="0"/>
-        <v>4.7053335998705412E-2</v>
+        <v>5.495404255022953E-3</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="1"/>
-        <v>2.5902570266736341E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.5696183147658972E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>100</v>
       </c>
       <c r="B31" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
-        <v>1800</v>
+      <c r="D31" s="15">
+        <v>3600</v>
       </c>
       <c r="E31" s="5">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F31" s="5">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="G31" s="5">
-        <v>220237.6</v>
+        <v>254945</v>
       </c>
       <c r="H31" s="5">
-        <v>231108</v>
+        <v>255761</v>
       </c>
       <c r="I31" s="5">
-        <v>225178.2</v>
+        <v>255735</v>
       </c>
       <c r="J31" s="6">
-        <v>1800</v>
+        <v>41.738</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="0"/>
-        <v>4.703601779254718E-2</v>
+        <v>3.1904786108906363E-3</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="1"/>
-        <v>2.5658133859494212E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>100</v>
       </c>
       <c r="B32" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5">
         <v>10</v>
       </c>
-      <c r="D32" s="5">
-        <v>2400</v>
+      <c r="D32" s="15">
+        <v>3600</v>
       </c>
       <c r="E32" s="5">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="5">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="G32" s="5">
-        <v>220237.6</v>
+        <v>241227</v>
       </c>
       <c r="H32" s="5">
-        <v>231102.6</v>
+        <v>242085</v>
       </c>
       <c r="I32" s="5">
-        <v>225212.2</v>
+        <v>241839</v>
       </c>
       <c r="J32" s="6">
-        <v>2400</v>
+        <v>2814.15</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="0"/>
-        <v>4.7013750602546228E-2</v>
+        <v>3.5442096784187374E-3</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="1"/>
-        <v>2.5488246345995218E-2</v>
+        <v>1.0161720057004771E-3</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -12357,39 +12492,39 @@
         <v>100</v>
       </c>
       <c r="B33" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5">
         <v>10</v>
       </c>
-      <c r="D33" s="5">
-        <v>3000</v>
+      <c r="D33" s="15">
+        <v>3600</v>
       </c>
       <c r="E33" s="5">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="5">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="G33" s="5">
-        <v>220237.6</v>
+        <v>225783</v>
       </c>
       <c r="H33" s="5">
-        <v>231079.4</v>
+        <v>227205</v>
       </c>
       <c r="I33" s="5">
-        <v>225233</v>
+        <v>226791</v>
       </c>
       <c r="J33" s="6">
-        <v>3000</v>
+        <v>3607.83</v>
       </c>
       <c r="K33" s="13">
         <f t="shared" si="0"/>
-        <v>4.6918072316268732E-2</v>
+        <v>6.2586650821944943E-3</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="1"/>
-        <v>2.5300394582987468E-2</v>
+        <v>1.8221429986135869E-3</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -12397,7 +12532,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C34" s="8">
         <v>10</v>
@@ -12406,30 +12541,30 @@
         <v>3600</v>
       </c>
       <c r="E34" s="8">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F34" s="8">
-        <v>5250</v>
+        <v>1210</v>
       </c>
       <c r="G34" s="8">
-        <v>220237.6</v>
+        <v>261139</v>
       </c>
       <c r="H34" s="8">
-        <v>230845.6</v>
+        <v>262486</v>
       </c>
       <c r="I34" s="8">
-        <v>225261</v>
+        <v>262473</v>
       </c>
       <c r="J34" s="9">
-        <v>3606.7159999999999</v>
+        <v>246.49199999999999</v>
       </c>
       <c r="K34" s="13">
         <f t="shared" si="0"/>
-        <v>4.5952792689139405E-2</v>
+        <v>5.1317022622158898E-3</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="1"/>
-        <v>2.4191927418153111E-2</v>
+        <v>4.9526450934526034E-5</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -12440,10 +12575,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="E35" s="2">
         <v>10000</v>
@@ -12452,24 +12587,24 @@
         <v>5250</v>
       </c>
       <c r="G35" s="2">
-        <v>233564.79999999999</v>
+        <v>219122</v>
       </c>
       <c r="H35" s="2">
-        <v>244758.39999999999</v>
+        <v>229683</v>
       </c>
       <c r="I35" s="2">
-        <v>238081.8</v>
+        <v>224455</v>
       </c>
       <c r="J35" s="3">
-        <v>600</v>
+        <v>3608</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="0"/>
-        <v>4.5733261861492826E-2</v>
+        <v>4.5980764793214994E-2</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="1"/>
-        <v>2.7278328343378639E-2</v>
+        <v>2.2761806489814223E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12480,10 +12615,10 @@
         <v>50</v>
       </c>
       <c r="C36" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="E36" s="5">
         <v>10000</v>
@@ -12492,24 +12627,24 @@
         <v>5250</v>
       </c>
       <c r="G36" s="5">
-        <v>233564.79999999999</v>
+        <v>222991</v>
       </c>
       <c r="H36" s="5">
-        <v>244669.6</v>
+        <v>234301</v>
       </c>
       <c r="I36" s="5">
-        <v>238183.6</v>
+        <v>228626</v>
       </c>
       <c r="J36" s="6">
-        <v>1200</v>
+        <v>3606</v>
       </c>
       <c r="K36" s="13">
         <f t="shared" si="0"/>
-        <v>4.5386921791673411E-2</v>
+        <v>4.8271240839774479E-2</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="1"/>
-        <v>2.6509218963042404E-2</v>
+        <v>2.4220980704307705E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12520,10 +12655,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E37" s="5">
         <v>10000</v>
@@ -12532,24 +12667,24 @@
         <v>5250</v>
       </c>
       <c r="G37" s="5">
-        <v>233564.79999999999</v>
+        <v>214388</v>
       </c>
       <c r="H37" s="5">
-        <v>244664.6</v>
+        <v>223455</v>
       </c>
       <c r="I37" s="5">
-        <v>238239.6</v>
+        <v>218843</v>
       </c>
       <c r="J37" s="6">
-        <v>1800</v>
+        <v>3608</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="0"/>
-        <v>4.536741318523406E-2</v>
+        <v>4.0576402407643597E-2</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>2.6260439802080073E-2</v>
+        <v>2.0639502360654271E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12560,10 +12695,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="E38" s="5">
         <v>10000</v>
@@ -12572,384 +12707,384 @@
         <v>5250</v>
       </c>
       <c r="G38" s="5">
-        <v>233564.79999999999</v>
+        <v>229638</v>
       </c>
       <c r="H38" s="5">
-        <v>244664.6</v>
+        <v>242696</v>
       </c>
       <c r="I38" s="5">
-        <v>238277.2</v>
+        <v>233907</v>
       </c>
       <c r="J38" s="6">
-        <v>2400</v>
+        <v>3606</v>
       </c>
       <c r="K38" s="13">
         <f t="shared" si="0"/>
-        <v>4.536741318523406E-2</v>
+        <v>5.380393578798167E-2</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="1"/>
-        <v>2.6106760029853088E-2</v>
+        <v>3.6214029073408711E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>100</v>
       </c>
-      <c r="B39" s="5">
-        <v>50</v>
-      </c>
-      <c r="C39" s="5">
-        <v>25</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E39" s="8">
         <v>10000</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="8">
         <v>5250</v>
       </c>
-      <c r="G39" s="5">
-        <v>233564.79999999999</v>
-      </c>
-      <c r="H39" s="5">
-        <v>244637.6</v>
-      </c>
-      <c r="I39" s="5">
-        <v>238301.6</v>
-      </c>
-      <c r="J39" s="6">
-        <v>3000</v>
+      <c r="G39" s="8">
+        <v>215049</v>
+      </c>
+      <c r="H39" s="8">
+        <v>223756</v>
+      </c>
+      <c r="I39" s="8">
+        <v>219916</v>
+      </c>
+      <c r="J39" s="9">
+        <v>3607</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="0"/>
-        <v>4.5262052930538955E-2</v>
+        <v>3.8912923005416614E-2</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="1"/>
-        <v>2.5899534658613395E-2</v>
+        <v>1.716155097516938E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="1">
         <v>100</v>
       </c>
-      <c r="B40" s="8">
-        <v>50</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="2">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
         <v>25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="2">
         <v>3600</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="2">
         <v>10000</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="2">
         <v>5250</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="2">
         <v>233564.79999999999</v>
       </c>
-      <c r="H40" s="8">
-        <v>244369.2</v>
-      </c>
-      <c r="I40" s="8">
-        <v>238322.6</v>
-      </c>
-      <c r="J40" s="9">
-        <v>3607.0219999999999</v>
+      <c r="H40" s="2">
+        <v>244758.39999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>238081.8</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3600</v>
       </c>
       <c r="K40" s="13">
         <f t="shared" si="0"/>
-        <v>4.421342787879988E-2</v>
+        <v>4.5733261861492826E-2</v>
       </c>
       <c r="L40" s="13">
         <f t="shared" si="1"/>
-        <v>2.4743707472136445E-2</v>
+        <v>2.7278328343378639E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>200</v>
-      </c>
-      <c r="B41" s="2">
-        <v>50</v>
-      </c>
-      <c r="C41" s="2">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2">
-        <v>600</v>
-      </c>
-      <c r="E41" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F41" s="2">
-        <v>10450</v>
-      </c>
-      <c r="G41" s="2">
-        <v>438446.5</v>
-      </c>
-      <c r="H41" s="2">
-        <v>446269.83333300002</v>
-      </c>
-      <c r="I41" s="2">
-        <v>440084.83333300002</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
+      <c r="A41" s="4">
+        <v>100</v>
+      </c>
+      <c r="B41" s="5">
+        <v>50</v>
+      </c>
+      <c r="C41" s="5">
+        <v>25</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F41" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G41" s="5">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>244669.6</v>
+      </c>
+      <c r="I41" s="5">
+        <v>238183.6</v>
+      </c>
+      <c r="J41" s="6">
+        <v>3600</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="0"/>
-        <v>1.7530500044268867E-2</v>
+        <v>4.5386921791673411E-2</v>
       </c>
       <c r="L41" s="13">
         <f t="shared" si="1"/>
-        <v>1.3859328007467723E-2</v>
+        <v>2.6509218963042404E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B42" s="5">
         <v>50</v>
       </c>
       <c r="C42" s="5">
-        <v>10</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1200</v>
+        <v>25</v>
+      </c>
+      <c r="D42" s="15">
+        <v>3600</v>
       </c>
       <c r="E42" s="5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="5">
-        <v>10450</v>
+        <v>5250</v>
       </c>
       <c r="G42" s="5">
-        <v>438446.5</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H42" s="5">
-        <v>446128.66666699998</v>
+        <v>244664.6</v>
       </c>
       <c r="I42" s="5">
-        <v>440131</v>
+        <v>238277.2</v>
       </c>
       <c r="J42" s="6">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K42" s="13">
         <f t="shared" si="0"/>
-        <v>1.7219621246025236E-2</v>
+        <v>4.536741318523406E-2</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="1"/>
-        <v>1.3443804702818548E-2</v>
+        <v>2.6106760029853088E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B43" s="5">
         <v>50</v>
       </c>
       <c r="C43" s="5">
-        <v>10</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1800</v>
+        <v>25</v>
+      </c>
+      <c r="D43" s="15">
+        <v>3600</v>
       </c>
       <c r="E43" s="5">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="5">
-        <v>10450</v>
+        <v>5250</v>
       </c>
       <c r="G43" s="5">
-        <v>438446.5</v>
+        <v>233564.79999999999</v>
       </c>
       <c r="H43" s="5">
-        <v>445970.83333300002</v>
+        <v>244637.6</v>
       </c>
       <c r="I43" s="5">
-        <v>440162.66666699998</v>
+        <v>238301.6</v>
       </c>
       <c r="J43" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="K43" s="13">
         <f t="shared" si="0"/>
-        <v>1.6871805890906109E-2</v>
+        <v>4.5262052930538955E-2</v>
       </c>
       <c r="L43" s="13">
         <f t="shared" si="1"/>
-        <v>1.3023646911149364E-2</v>
+        <v>2.5899534658613395E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>200</v>
-      </c>
-      <c r="B44" s="5">
-        <v>50</v>
-      </c>
-      <c r="C44" s="5">
-        <v>10</v>
-      </c>
-      <c r="D44" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E44" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F44" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G44" s="5">
-        <v>438446.5</v>
-      </c>
-      <c r="H44" s="5">
-        <v>445875.66666699998</v>
-      </c>
-      <c r="I44" s="5">
-        <v>440182.5</v>
-      </c>
-      <c r="J44" s="6">
-        <v>2400</v>
+      <c r="A44" s="7">
+        <v>100</v>
+      </c>
+      <c r="B44" s="8">
+        <v>50</v>
+      </c>
+      <c r="C44" s="8">
+        <v>25</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5250</v>
+      </c>
+      <c r="G44" s="8">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H44" s="8">
+        <v>244369.2</v>
+      </c>
+      <c r="I44" s="8">
+        <v>238322.6</v>
+      </c>
+      <c r="J44" s="9">
+        <v>3600</v>
       </c>
       <c r="K44" s="13">
         <f t="shared" si="0"/>
-        <v>1.6661969294118083E-2</v>
+        <v>4.421342787879988E-2</v>
       </c>
       <c r="L44" s="13">
         <f t="shared" si="1"/>
-        <v>1.2768507215380058E-2</v>
+        <v>2.4743707472136445E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>200</v>
       </c>
-      <c r="B45" s="5">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5">
-        <v>10</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="B45" s="2">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="2">
         <v>20000</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="2">
         <v>10450</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>438446.5</v>
       </c>
-      <c r="H45" s="5">
-        <v>445810.83333300002</v>
-      </c>
-      <c r="I45" s="5">
-        <v>440195.83333300002</v>
-      </c>
-      <c r="J45" s="6">
-        <v>3000</v>
+      <c r="H45" s="2">
+        <v>446269.83333300002</v>
+      </c>
+      <c r="I45" s="2">
+        <v>440084.83333300002</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3600</v>
       </c>
       <c r="K45" s="13">
         <f t="shared" si="0"/>
-        <v>1.6518964507753902E-2</v>
+        <v>1.7530500044268867E-2</v>
       </c>
       <c r="L45" s="13">
         <f t="shared" si="1"/>
-        <v>1.2595028160309095E-2</v>
+        <v>1.3859328007467723E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="4">
         <v>200</v>
       </c>
-      <c r="B46" s="8">
-        <v>50</v>
-      </c>
-      <c r="C46" s="8">
-        <v>10</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="B46" s="5">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5">
+        <v>10</v>
+      </c>
+      <c r="D46" s="15">
         <v>3600</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="5">
         <v>20000</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="5">
         <v>10450</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="5">
         <v>438446.5</v>
       </c>
-      <c r="H46" s="8">
-        <v>445554.66666699998</v>
-      </c>
-      <c r="I46" s="8">
-        <v>440202</v>
-      </c>
-      <c r="J46" s="9">
-        <v>3604.2266669999999</v>
+      <c r="H46" s="5">
+        <v>446128.66666699998</v>
+      </c>
+      <c r="I46" s="5">
+        <v>440131</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3600</v>
       </c>
       <c r="K46" s="13">
         <f t="shared" si="0"/>
-        <v>1.5953523100034114E-2</v>
+        <v>1.7219621246025236E-2</v>
       </c>
       <c r="L46" s="13">
         <f t="shared" si="1"/>
-        <v>1.2013490301966639E-2</v>
+        <v>1.3443804702818548E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>200</v>
       </c>
-      <c r="B47" s="2">
-        <v>50</v>
-      </c>
-      <c r="C47" s="2">
-        <v>25</v>
-      </c>
-      <c r="D47" s="2">
-        <v>600</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="B47" s="5">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E47" s="5">
         <v>20000</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="5">
         <v>10450</v>
       </c>
-      <c r="G47" s="2">
-        <v>479852</v>
-      </c>
-      <c r="H47" s="2">
-        <v>488999.33333300002</v>
-      </c>
-      <c r="I47" s="2">
-        <v>481421.33333300002</v>
-      </c>
-      <c r="J47" s="3">
-        <v>600</v>
+      <c r="G47" s="5">
+        <v>438446.5</v>
+      </c>
+      <c r="H47" s="5">
+        <v>445875.66666699998</v>
+      </c>
+      <c r="I47" s="5">
+        <v>440182.5</v>
+      </c>
+      <c r="J47" s="6">
+        <v>3600</v>
       </c>
       <c r="K47" s="13">
         <f t="shared" si="0"/>
-        <v>1.870622863767964E-2</v>
+        <v>1.6661969294118083E-2</v>
       </c>
       <c r="L47" s="13">
         <f t="shared" si="1"/>
-        <v>1.5496953642755816E-2</v>
+        <v>1.2768507215380058E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -12960,10 +13095,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="5">
-        <v>25</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1200</v>
+        <v>10</v>
+      </c>
+      <c r="D48" s="15">
+        <v>3600</v>
       </c>
       <c r="E48" s="5">
         <v>20000</v>
@@ -12972,104 +13107,104 @@
         <v>10450</v>
       </c>
       <c r="G48" s="5">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H48" s="5">
-        <v>488424.33333300002</v>
+        <v>445810.83333300002</v>
       </c>
       <c r="I48" s="5">
-        <v>481479.66666699998</v>
+        <v>440195.83333300002</v>
       </c>
       <c r="J48" s="6">
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="K48" s="13">
         <f t="shared" si="0"/>
-        <v>1.7550995615846058E-2</v>
+        <v>1.6518964507753902E-2</v>
       </c>
       <c r="L48" s="13">
         <f t="shared" si="1"/>
-        <v>1.4218510815400489E-2</v>
+        <v>1.2595028160309095E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="7">
         <v>200</v>
       </c>
-      <c r="B49" s="5">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5">
-        <v>25</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="B49" s="8">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="8">
         <v>20000</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="8">
         <v>10450</v>
       </c>
-      <c r="G49" s="5">
-        <v>479852</v>
-      </c>
-      <c r="H49" s="5">
-        <v>488078</v>
-      </c>
-      <c r="I49" s="5">
-        <v>481506.66666699998</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1800</v>
+      <c r="G49" s="8">
+        <v>438446.5</v>
+      </c>
+      <c r="H49" s="8">
+        <v>445554.66666699998</v>
+      </c>
+      <c r="I49" s="8">
+        <v>440202</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3600</v>
       </c>
       <c r="K49" s="13">
         <f t="shared" si="0"/>
-        <v>1.6853863521814137E-2</v>
+        <v>1.5953523100034114E-2</v>
       </c>
       <c r="L49" s="13">
         <f t="shared" si="1"/>
-        <v>1.346369500981404E-2</v>
+        <v>1.2013490301966639E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="1">
         <v>200</v>
       </c>
-      <c r="B50" s="5">
-        <v>50</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" s="2">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2">
         <v>25</v>
       </c>
-      <c r="D50" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E50" s="2">
         <v>20000</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="2">
         <v>10450</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="2">
         <v>479852</v>
       </c>
-      <c r="H50" s="5">
-        <v>487986.66666699998</v>
-      </c>
-      <c r="I50" s="5">
-        <v>481525</v>
-      </c>
-      <c r="J50" s="6">
-        <v>2400</v>
+      <c r="H50" s="2">
+        <v>488999.33333300002</v>
+      </c>
+      <c r="I50" s="2">
+        <v>481421.33333300002</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3600</v>
       </c>
       <c r="K50" s="13">
         <f t="shared" si="0"/>
-        <v>1.666985436827733E-2</v>
+        <v>1.870622863767964E-2</v>
       </c>
       <c r="L50" s="13">
         <f t="shared" si="1"/>
-        <v>1.3241482008379128E-2</v>
+        <v>1.5496953642755816E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -13082,8 +13217,8 @@
       <c r="C51" s="5">
         <v>25</v>
       </c>
-      <c r="D51" s="5">
-        <v>3000</v>
+      <c r="D51" s="15">
+        <v>3600</v>
       </c>
       <c r="E51" s="5">
         <v>20000</v>
@@ -13095,181 +13230,181 @@
         <v>479852</v>
       </c>
       <c r="H51" s="5">
-        <v>487880</v>
+        <v>488424.33333300002</v>
       </c>
       <c r="I51" s="5">
-        <v>481538.66666699998</v>
+        <v>481479.66666699998</v>
       </c>
       <c r="J51" s="6">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="K51" s="13">
         <f t="shared" si="0"/>
-        <v>1.6454865950643601E-2</v>
+        <v>1.7550995615846058E-2</v>
       </c>
       <c r="L51" s="13">
         <f t="shared" si="1"/>
-        <v>1.2997731681971011E-2</v>
+        <v>1.4218510815400489E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>200</v>
       </c>
-      <c r="B52" s="8">
-        <v>50</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5">
         <v>25</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="15">
         <v>3600</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="5">
         <v>20000</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="5">
         <v>10450</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="5">
         <v>479852</v>
       </c>
-      <c r="H52" s="8">
-        <v>487651.66666699998</v>
-      </c>
-      <c r="I52" s="8">
-        <v>481546.33333300002</v>
-      </c>
-      <c r="J52" s="9">
-        <v>3603.04</v>
+      <c r="H52" s="5">
+        <v>487986.66666699998</v>
+      </c>
+      <c r="I52" s="5">
+        <v>481525</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3600</v>
       </c>
       <c r="K52" s="13">
         <f t="shared" si="0"/>
-        <v>1.5994340223030753E-2</v>
+        <v>1.666985436827733E-2</v>
       </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>1.2519865615816876E-2</v>
+        <v>1.3241482008379128E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>300</v>
-      </c>
-      <c r="B53" s="2">
-        <v>50</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
-        <v>600</v>
-      </c>
-      <c r="E53" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F53" s="2">
-        <v>15650</v>
-      </c>
-      <c r="G53" s="2">
-        <v>680189</v>
-      </c>
-      <c r="H53" s="2">
-        <v>687166</v>
-      </c>
-      <c r="I53" s="2">
-        <v>681482.2</v>
-      </c>
-      <c r="J53" s="3">
-        <v>600</v>
+      <c r="A53" s="4">
+        <v>200</v>
+      </c>
+      <c r="B53" s="5">
+        <v>50</v>
+      </c>
+      <c r="C53" s="5">
+        <v>25</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E53" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F53" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G53" s="5">
+        <v>479852</v>
+      </c>
+      <c r="H53" s="5">
+        <v>487880</v>
+      </c>
+      <c r="I53" s="5">
+        <v>481538.66666699998</v>
+      </c>
+      <c r="J53" s="6">
+        <v>3600</v>
       </c>
       <c r="K53" s="13">
         <f t="shared" si="0"/>
-        <v>1.0153296292307826E-2</v>
+        <v>1.6454865950643601E-2</v>
       </c>
       <c r="L53" s="13">
         <f t="shared" si="1"/>
-        <v>8.2713638334842628E-3</v>
+        <v>1.2997731681971011E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>300</v>
-      </c>
-      <c r="B54" s="5">
-        <v>50</v>
-      </c>
-      <c r="C54" s="5">
-        <v>10</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1200</v>
-      </c>
-      <c r="E54" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F54" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G54" s="5">
-        <v>680189</v>
-      </c>
-      <c r="H54" s="5">
-        <v>686692.8</v>
-      </c>
-      <c r="I54" s="5">
-        <v>681547.4</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1200</v>
+      <c r="A54" s="7">
+        <v>200</v>
+      </c>
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8">
+        <v>25</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F54" s="8">
+        <v>10450</v>
+      </c>
+      <c r="G54" s="8">
+        <v>479852</v>
+      </c>
+      <c r="H54" s="8">
+        <v>487651.66666699998</v>
+      </c>
+      <c r="I54" s="8">
+        <v>481546.33333300002</v>
+      </c>
+      <c r="J54" s="9">
+        <v>3600</v>
       </c>
       <c r="K54" s="13">
         <f t="shared" si="0"/>
-        <v>9.471192941006585E-3</v>
+        <v>1.5994340223030753E-2</v>
       </c>
       <c r="L54" s="13">
         <f t="shared" si="1"/>
-        <v>7.4930157997870703E-3</v>
+        <v>1.2519865615816876E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>300</v>
       </c>
-      <c r="B55" s="5">
-        <v>50</v>
-      </c>
-      <c r="C55" s="5">
-        <v>10</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E55" s="2">
         <v>30000</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="2">
         <v>15650</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="2">
         <v>680189</v>
       </c>
-      <c r="H55" s="5">
-        <v>686626.2</v>
-      </c>
-      <c r="I55" s="5">
-        <v>681580.4</v>
-      </c>
-      <c r="J55" s="6">
-        <v>1800</v>
+      <c r="H55" s="2">
+        <v>687166</v>
+      </c>
+      <c r="I55" s="2">
+        <v>681482.2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3600</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" si="0"/>
-        <v>9.3751156014727569E-3</v>
+        <v>1.0153296292307826E-2</v>
       </c>
       <c r="L55" s="13">
         <f t="shared" si="1"/>
-        <v>7.3486855002036482E-3</v>
+        <v>8.2713638334842628E-3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -13282,8 +13417,8 @@
       <c r="C56" s="5">
         <v>10</v>
       </c>
-      <c r="D56" s="5">
-        <v>2400</v>
+      <c r="D56" s="15">
+        <v>3600</v>
       </c>
       <c r="E56" s="5">
         <v>30000</v>
@@ -13295,21 +13430,21 @@
         <v>680189</v>
       </c>
       <c r="H56" s="5">
-        <v>686525.4</v>
+        <v>686692.8</v>
       </c>
       <c r="I56" s="5">
-        <v>681599.8</v>
+        <v>681547.4</v>
       </c>
       <c r="J56" s="6">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K56" s="13">
         <f t="shared" si="0"/>
-        <v>9.229665792409171E-3</v>
+        <v>9.471192941006585E-3</v>
       </c>
       <c r="L56" s="13">
         <f t="shared" si="1"/>
-        <v>7.1746799171596223E-3</v>
+        <v>7.4930157997870703E-3</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -13322,8 +13457,8 @@
       <c r="C57" s="5">
         <v>10</v>
       </c>
-      <c r="D57" s="5">
-        <v>3000</v>
+      <c r="D57" s="15">
+        <v>3600</v>
       </c>
       <c r="E57" s="5">
         <v>30000</v>
@@ -13335,59 +13470,99 @@
         <v>680189</v>
       </c>
       <c r="H57" s="5">
-        <v>686495.2</v>
+        <v>686525.4</v>
       </c>
       <c r="I57" s="5">
-        <v>681612.80000000005</v>
+        <v>681599.8</v>
       </c>
       <c r="J57" s="6">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="K57" s="13">
         <f t="shared" si="0"/>
-        <v>9.1860802522726361E-3</v>
+        <v>9.229665792409171E-3</v>
       </c>
       <c r="L57" s="13">
         <f t="shared" si="1"/>
-        <v>7.1120672074617671E-3</v>
+        <v>7.1746799171596223E-3</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="4">
         <v>300</v>
       </c>
-      <c r="B58" s="8">
-        <v>50</v>
-      </c>
-      <c r="C58" s="8">
-        <v>10</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="B58" s="5">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5">
+        <v>10</v>
+      </c>
+      <c r="D58" s="15">
         <v>3600</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="5">
         <v>30000</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="5">
         <v>15650</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="5">
         <v>680189</v>
       </c>
-      <c r="H58" s="8">
-        <v>686009.8</v>
-      </c>
-      <c r="I58" s="8">
-        <v>681618.6</v>
-      </c>
-      <c r="J58" s="9">
-        <v>3603.3440000000001</v>
+      <c r="H58" s="5">
+        <v>686495.2</v>
+      </c>
+      <c r="I58" s="5">
+        <v>681612.80000000005</v>
+      </c>
+      <c r="J58" s="6">
+        <v>3600</v>
       </c>
       <c r="K58" s="13">
         <f t="shared" si="0"/>
+        <v>9.1860802522726361E-3</v>
+      </c>
+      <c r="L58" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1120672074617671E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>300</v>
+      </c>
+      <c r="B59" s="8">
+        <v>50</v>
+      </c>
+      <c r="C59" s="8">
+        <v>10</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F59" s="8">
+        <v>15650</v>
+      </c>
+      <c r="G59" s="8">
+        <v>680189</v>
+      </c>
+      <c r="H59" s="8">
+        <v>686009.8</v>
+      </c>
+      <c r="I59" s="8">
+        <v>681618.6</v>
+      </c>
+      <c r="J59" s="9">
+        <v>3600</v>
+      </c>
+      <c r="K59" s="13">
+        <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="13">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCD632-5F75-4F10-9B1A-4A6467944CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8516F-ED68-447D-8EF7-C479D5ED8EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="975" windowWidth="25005" windowHeight="13305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="195" windowWidth="25005" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_det" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -709,6 +709,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10631,11 +10633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10746,11 +10748,11 @@
         <v>2.7496999999999998</v>
       </c>
       <c r="K2" s="13">
-        <f t="shared" ref="K2:K59" si="0">(H2-G2)/H2</f>
+        <f t="shared" ref="K2:K79" si="0">(H2-G2)/H2</f>
         <v>3.8872040997512476E-3</v>
       </c>
       <c r="L2" s="13">
-        <f t="shared" ref="L2:L59" si="1">(H2-I2)/H2</f>
+        <f t="shared" ref="L2:L79" si="1">(H2-I2)/H2</f>
         <v>9.6692246160878318E-5</v>
       </c>
       <c r="O2">
@@ -11370,7 +11372,8 @@
         <v>4.7240919777485424E-3</v>
       </c>
       <c r="U10" s="13">
-        <v>1.7503262287951284E-3</v>
+        <f>AVERAGE(L30:L34)</f>
+        <v>8.9149195400289752E-4</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -11379,7 +11382,8 @@
         <v>3</v>
       </c>
       <c r="X10" s="14">
-        <v>3612.44</v>
+        <f>AVERAGE(J30:J34)</f>
+        <v>2062.7719999999999</v>
       </c>
       <c r="Y10">
         <v>3600</v>
@@ -11433,9 +11437,33 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="X11" s="14"/>
+      <c r="R11">
+        <v>10000</v>
+      </c>
+      <c r="S11">
+        <v>5250</v>
+      </c>
+      <c r="T11" s="13">
+        <f>AVERAGE(K35:K39)</f>
+        <v>5.2268514729052098E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <f>AVERAGE(L35:L39)</f>
+        <v>3.055719944625233E-2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <f>AVERAGE(J35:J39)</f>
+        <v>3606</v>
+      </c>
+      <c r="Y11">
+        <v>3600</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -11485,9 +11513,33 @@
       <c r="Q12">
         <v>5</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="X12" s="14"/>
+      <c r="R12">
+        <v>10000</v>
+      </c>
+      <c r="S12">
+        <v>5250</v>
+      </c>
+      <c r="T12" s="13">
+        <f>AVERAGE(K40:K44)</f>
+        <v>4.7676466412581137E-2</v>
+      </c>
+      <c r="U12" s="13">
+        <f>AVERAGE(L40:L44)</f>
+        <v>2.7045826390709671E-2</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" ref="X12:X18" si="2">AVERAGE(J36:J40)</f>
+        <v>3606.6</v>
+      </c>
+      <c r="Y12">
+        <v>3600</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -11544,11 +11596,11 @@
         <v>5250</v>
       </c>
       <c r="T13" s="13">
-        <f>AVERAGE(K35:K39)</f>
+        <f>AVERAGE(K45:K49)</f>
         <v>4.5509053366806274E-2</v>
       </c>
       <c r="U13" s="13">
-        <f>AVERAGE(L35:L39)</f>
+        <f>AVERAGE(L45:L49)</f>
         <v>2.4199573920670858E-2</v>
       </c>
       <c r="V13">
@@ -11558,7 +11610,8 @@
         <v>0</v>
       </c>
       <c r="X13" s="14">
-        <v>3606.7159999999999</v>
+        <f t="shared" si="2"/>
+        <v>3606.4</v>
       </c>
       <c r="Y13">
         <v>3600</v>
@@ -11619,11 +11672,11 @@
         <v>5250</v>
       </c>
       <c r="T14" s="13">
-        <f>AVERAGE(K40:K44)</f>
+        <f>AVERAGE(K50:K54)</f>
         <v>4.5192615529547821E-2</v>
       </c>
       <c r="U14" s="13">
-        <f>AVERAGE(L40:L44)</f>
+        <f>AVERAGE(L50:L54)</f>
         <v>2.6107509893404796E-2</v>
       </c>
       <c r="V14">
@@ -11633,7 +11686,8 @@
         <v>0</v>
       </c>
       <c r="X14" s="14">
-        <v>3607.0219999999999</v>
+        <f t="shared" si="2"/>
+        <v>3606.2</v>
       </c>
       <c r="Y14">
         <v>3600</v>
@@ -11687,9 +11741,33 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="X15" s="14"/>
+      <c r="R15">
+        <v>20000</v>
+      </c>
+      <c r="S15">
+        <v>10450</v>
+      </c>
+      <c r="T15" s="13">
+        <f>AVERAGE(K55:K59)</f>
+        <v>1.6599806179806418E-2</v>
+      </c>
+      <c r="U15" s="13">
+        <f>AVERAGE(L55:L59)</f>
+        <v>1.2596167768398525E-2</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <f>AVERAGE(J55:J59)</f>
+        <v>3604</v>
+      </c>
+      <c r="Y15">
+        <v>3600</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -11746,11 +11824,11 @@
         <v>10450</v>
       </c>
       <c r="T16" s="13">
-        <f>AVERAGE(K45:K49)</f>
+        <f>AVERAGE(K60:K64)</f>
         <v>1.677691563844004E-2</v>
       </c>
       <c r="U16" s="13">
-        <f>AVERAGE(L45:L49)</f>
+        <f>AVERAGE(L60:L64)</f>
         <v>1.2936031677588411E-2</v>
       </c>
       <c r="V16">
@@ -11760,7 +11838,8 @@
         <v>0</v>
       </c>
       <c r="X16" s="14">
-        <v>3604.2266669999999</v>
+        <f t="shared" si="2"/>
+        <v>3605.6</v>
       </c>
       <c r="Y16">
         <v>3600</v>
@@ -11821,11 +11900,11 @@
         <v>10450</v>
       </c>
       <c r="T17" s="13">
-        <f>AVERAGE(K50:K54)</f>
+        <f>AVERAGE(K65:K69)</f>
         <v>1.7075256959095477E-2</v>
       </c>
       <c r="U17" s="13">
-        <f>AVERAGE(L50:L54)</f>
+        <f>AVERAGE(L65:L69)</f>
         <v>1.3694908752864665E-2</v>
       </c>
       <c r="V17">
@@ -11835,7 +11914,8 @@
         <v>0</v>
       </c>
       <c r="X17" s="14">
-        <v>3603.04</v>
+        <f t="shared" si="2"/>
+        <v>3605.6</v>
       </c>
       <c r="Y17">
         <v>3600</v>
@@ -11889,9 +11969,33 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="X18" s="14"/>
+      <c r="R18">
+        <v>30000</v>
+      </c>
+      <c r="S18">
+        <v>15650</v>
+      </c>
+      <c r="T18" s="13">
+        <f>AVERAGE(K70:K74)</f>
+        <v>9.4184210225740604E-3</v>
+      </c>
+      <c r="U18" s="13">
+        <f>AVERAGE(L70:L74)</f>
+        <v>7.2918791380460288E-3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <f>AVERAGE(J70:J74)</f>
+        <v>3605.2</v>
+      </c>
+      <c r="Y18">
+        <v>3600</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -11948,11 +12052,11 @@
         <v>15650</v>
       </c>
       <c r="T19" s="13">
-        <f>AVERAGE(K55:K59)</f>
+        <f>AVERAGE(K75:K79)</f>
         <v>9.3050490517806519E-3</v>
       </c>
       <c r="U19" s="13">
-        <f>AVERAGE(L55:L59)</f>
+        <f>AVERAGE(L75:L79)</f>
         <v>7.2904402989452059E-3</v>
       </c>
       <c r="V19">
@@ -11962,7 +12066,8 @@
         <v>0</v>
       </c>
       <c r="X19" s="14">
-        <v>3603.3440000000001</v>
+        <f>AVERAGE(J75:J79)</f>
+        <v>3600</v>
       </c>
       <c r="Y19">
         <v>3600</v>
@@ -12574,8 +12679,8 @@
       <c r="B35" s="2">
         <v>50</v>
       </c>
-      <c r="C35" s="2">
-        <v>10</v>
+      <c r="C35" s="16">
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>3600</v>
@@ -12587,24 +12692,24 @@
         <v>5250</v>
       </c>
       <c r="G35" s="2">
-        <v>219122</v>
+        <v>247220</v>
       </c>
       <c r="H35" s="2">
-        <v>229683</v>
+        <v>259743</v>
       </c>
       <c r="I35" s="2">
-        <v>224455</v>
+        <v>251028</v>
       </c>
       <c r="J35" s="3">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5980764793214994E-2</v>
+        <f t="shared" ref="K35:K39" si="3">(H35-G35)/H35</f>
+        <v>4.8213041352413735E-2</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="1"/>
-        <v>2.2761806489814223E-2</v>
+        <f t="shared" ref="L35:L39" si="4">(H35-I35)/H35</f>
+        <v>3.3552396022221966E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -12614,8 +12719,8 @@
       <c r="B36" s="5">
         <v>50</v>
       </c>
-      <c r="C36" s="5">
-        <v>10</v>
+      <c r="C36" s="15">
+        <v>0</v>
       </c>
       <c r="D36" s="5">
         <v>3600</v>
@@ -12627,24 +12732,24 @@
         <v>5250</v>
       </c>
       <c r="G36" s="5">
-        <v>222991</v>
+        <v>224476</v>
       </c>
       <c r="H36" s="5">
-        <v>234301</v>
+        <v>235695</v>
       </c>
       <c r="I36" s="5">
-        <v>228626</v>
+        <v>229977</v>
       </c>
       <c r="J36" s="6">
         <v>3606</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="0"/>
-        <v>4.8271240839774479E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.7599652092746983E-2</v>
       </c>
       <c r="L36" s="13">
-        <f t="shared" si="1"/>
-        <v>2.4220980704307705E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.4260166740915166E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -12654,8 +12759,8 @@
       <c r="B37" s="5">
         <v>50</v>
       </c>
-      <c r="C37" s="5">
-        <v>10</v>
+      <c r="C37" s="15">
+        <v>0</v>
       </c>
       <c r="D37" s="5">
         <v>3600</v>
@@ -12667,24 +12772,24 @@
         <v>5250</v>
       </c>
       <c r="G37" s="5">
-        <v>214388</v>
+        <v>232975</v>
       </c>
       <c r="H37" s="5">
-        <v>223455</v>
+        <v>247828</v>
       </c>
       <c r="I37" s="5">
-        <v>218843</v>
+        <v>238128</v>
       </c>
       <c r="J37" s="6">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="0"/>
-        <v>4.0576402407643597E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9932695256387496E-2</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="1"/>
-        <v>2.0639502360654271E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.9140048743483383E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -12694,8 +12799,8 @@
       <c r="B38" s="5">
         <v>50</v>
       </c>
-      <c r="C38" s="5">
-        <v>10</v>
+      <c r="C38" s="15">
+        <v>0</v>
       </c>
       <c r="D38" s="5">
         <v>3600</v>
@@ -12707,24 +12812,24 @@
         <v>5250</v>
       </c>
       <c r="G38" s="5">
-        <v>229638</v>
+        <v>226364</v>
       </c>
       <c r="H38" s="5">
-        <v>242696</v>
+        <v>242161</v>
       </c>
       <c r="I38" s="5">
-        <v>233907</v>
+        <v>235608</v>
       </c>
       <c r="J38" s="6">
         <v>3606</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="0"/>
-        <v>5.380393578798167E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5233460383794253E-2</v>
       </c>
       <c r="L38" s="13">
-        <f t="shared" si="1"/>
-        <v>3.6214029073408711E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7060509330569332E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -12734,8 +12839,8 @@
       <c r="B39" s="8">
         <v>50</v>
       </c>
-      <c r="C39" s="8">
-        <v>10</v>
+      <c r="C39" s="17">
+        <v>0</v>
       </c>
       <c r="D39" s="8">
         <v>3600</v>
@@ -12747,64 +12852,64 @@
         <v>5250</v>
       </c>
       <c r="G39" s="8">
-        <v>215049</v>
+        <v>225527</v>
       </c>
       <c r="H39" s="8">
-        <v>223756</v>
+        <v>235013</v>
       </c>
       <c r="I39" s="8">
-        <v>219916</v>
+        <v>228251</v>
       </c>
       <c r="J39" s="9">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="0"/>
-        <v>3.8912923005416614E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0363724559917963E-2</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="1"/>
-        <v>1.716155097516938E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.8772876394071816E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>100</v>
       </c>
-      <c r="B40" s="2">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="B40" s="5">
+        <v>50</v>
+      </c>
+      <c r="C40" s="15">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5">
         <v>3600</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="5">
         <v>10000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>5250</v>
       </c>
-      <c r="G40" s="2">
-        <v>233564.79999999999</v>
-      </c>
-      <c r="H40" s="2">
-        <v>244758.39999999999</v>
-      </c>
-      <c r="I40" s="2">
-        <v>238081.8</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3600</v>
+      <c r="G40" s="5">
+        <v>224174</v>
+      </c>
+      <c r="H40" s="5">
+        <v>235072</v>
+      </c>
+      <c r="I40" s="5">
+        <v>229013</v>
+      </c>
+      <c r="J40" s="6">
+        <v>3608</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5733261861492826E-2</v>
+        <f t="shared" ref="K40:K44" si="5">(H40-G40)/H40</f>
+        <v>4.6360264089300302E-2</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="1"/>
-        <v>2.7278328343378639E-2</v>
+        <f t="shared" ref="L40:L44" si="6">(H40-I40)/H40</f>
+        <v>2.5775081677103184E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -12814,10 +12919,10 @@
       <c r="B41" s="5">
         <v>50</v>
       </c>
-      <c r="C41" s="5">
-        <v>25</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C41" s="15">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
         <v>3600</v>
       </c>
       <c r="E41" s="5">
@@ -12827,24 +12932,24 @@
         <v>5250</v>
       </c>
       <c r="G41" s="5">
-        <v>233564.79999999999</v>
+        <v>246620</v>
       </c>
       <c r="H41" s="5">
-        <v>244669.6</v>
+        <v>260165</v>
       </c>
       <c r="I41" s="5">
-        <v>238183.6</v>
+        <v>253051</v>
       </c>
       <c r="J41" s="6">
-        <v>3600</v>
+        <v>3605</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5386921791673411E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.2063113793169719E-2</v>
       </c>
       <c r="L41" s="13">
-        <f t="shared" si="1"/>
-        <v>2.6509218963042404E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.7344185420790652E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -12854,10 +12959,10 @@
       <c r="B42" s="5">
         <v>50</v>
       </c>
-      <c r="C42" s="5">
-        <v>25</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="C42" s="15">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5">
         <v>3600</v>
       </c>
       <c r="E42" s="5">
@@ -12867,24 +12972,24 @@
         <v>5250</v>
       </c>
       <c r="G42" s="5">
-        <v>233564.79999999999</v>
+        <v>226983</v>
       </c>
       <c r="H42" s="5">
-        <v>244664.6</v>
+        <v>236848</v>
       </c>
       <c r="I42" s="5">
-        <v>238277.2</v>
+        <v>231589</v>
       </c>
       <c r="J42" s="6">
-        <v>3600</v>
+        <v>3606</v>
       </c>
       <c r="K42" s="13">
-        <f t="shared" si="0"/>
-        <v>4.536741318523406E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.1651185570492466E-2</v>
       </c>
       <c r="L42" s="13">
-        <f t="shared" si="1"/>
-        <v>2.6106760029853088E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2204114030939675E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -12894,10 +12999,10 @@
       <c r="B43" s="5">
         <v>50</v>
       </c>
-      <c r="C43" s="5">
-        <v>25</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="C43" s="15">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5">
         <v>3600</v>
       </c>
       <c r="E43" s="5">
@@ -12907,662 +13012,1462 @@
         <v>5250</v>
       </c>
       <c r="G43" s="5">
+        <v>216797</v>
+      </c>
+      <c r="H43" s="5">
+        <v>226342</v>
+      </c>
+      <c r="I43" s="5">
+        <v>220887</v>
+      </c>
+      <c r="J43" s="6">
+        <v>3604</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2170697440156932E-2</v>
+      </c>
+      <c r="L43" s="13">
+        <f t="shared" si="6"/>
+        <v>2.4100697175071351E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>100</v>
+      </c>
+      <c r="B44" s="5">
+        <v>50</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G44" s="5">
+        <v>244368</v>
+      </c>
+      <c r="H44" s="5">
+        <v>258902</v>
+      </c>
+      <c r="I44" s="5">
+        <v>249632</v>
+      </c>
+      <c r="J44" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="5"/>
+        <v>5.6137071169786251E-2</v>
+      </c>
+      <c r="L44" s="13">
+        <f t="shared" si="6"/>
+        <v>3.5805053649643495E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5250</v>
+      </c>
+      <c r="G45" s="2">
+        <v>219122</v>
+      </c>
+      <c r="H45" s="2">
+        <v>229683</v>
+      </c>
+      <c r="I45" s="2">
+        <v>224455</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3608</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5980764793214994E-2</v>
+      </c>
+      <c r="L45" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2761806489814223E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>100</v>
+      </c>
+      <c r="B46" s="5">
+        <v>50</v>
+      </c>
+      <c r="C46" s="5">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G46" s="5">
+        <v>222991</v>
+      </c>
+      <c r="H46" s="5">
+        <v>234301</v>
+      </c>
+      <c r="I46" s="5">
+        <v>228626</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3606</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8271240839774479E-2</v>
+      </c>
+      <c r="L46" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4220980704307705E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E47" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G47" s="5">
+        <v>214388</v>
+      </c>
+      <c r="H47" s="5">
+        <v>223455</v>
+      </c>
+      <c r="I47" s="5">
+        <v>218843</v>
+      </c>
+      <c r="J47" s="6">
+        <v>3608</v>
+      </c>
+      <c r="K47" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0576402407643597E-2</v>
+      </c>
+      <c r="L47" s="13">
+        <f t="shared" si="1"/>
+        <v>2.0639502360654271E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>100</v>
+      </c>
+      <c r="B48" s="5">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G48" s="5">
+        <v>229638</v>
+      </c>
+      <c r="H48" s="5">
+        <v>242696</v>
+      </c>
+      <c r="I48" s="5">
+        <v>233907</v>
+      </c>
+      <c r="J48" s="6">
+        <v>3606</v>
+      </c>
+      <c r="K48" s="13">
+        <f t="shared" si="0"/>
+        <v>5.380393578798167E-2</v>
+      </c>
+      <c r="L48" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6214029073408711E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>100</v>
+      </c>
+      <c r="B49" s="8">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F49" s="8">
+        <v>5250</v>
+      </c>
+      <c r="G49" s="8">
+        <v>215049</v>
+      </c>
+      <c r="H49" s="8">
+        <v>223756</v>
+      </c>
+      <c r="I49" s="8">
+        <v>219916</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3607</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="0"/>
+        <v>3.8912923005416614E-2</v>
+      </c>
+      <c r="L49" s="13">
+        <f t="shared" si="1"/>
+        <v>1.716155097516938E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5250</v>
+      </c>
+      <c r="G50" s="2">
         <v>233564.79999999999</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H50" s="2">
+        <v>244758.39999999999</v>
+      </c>
+      <c r="I50" s="2">
+        <v>238081.8</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K50" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5733261861492826E-2</v>
+      </c>
+      <c r="L50" s="13">
+        <f t="shared" si="1"/>
+        <v>2.7278328343378639E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>100</v>
+      </c>
+      <c r="B51" s="5">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5">
+        <v>25</v>
+      </c>
+      <c r="D51" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G51" s="5">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H51" s="5">
+        <v>244669.6</v>
+      </c>
+      <c r="I51" s="5">
+        <v>238183.6</v>
+      </c>
+      <c r="J51" s="6">
+        <v>3600</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" si="0"/>
+        <v>4.5386921791673411E-2</v>
+      </c>
+      <c r="L51" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6509218963042404E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>100</v>
+      </c>
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="5">
+        <v>25</v>
+      </c>
+      <c r="D52" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F52" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G52" s="5">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H52" s="5">
+        <v>244664.6</v>
+      </c>
+      <c r="I52" s="5">
+        <v>238277.2</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3600</v>
+      </c>
+      <c r="K52" s="13">
+        <f t="shared" si="0"/>
+        <v>4.536741318523406E-2</v>
+      </c>
+      <c r="L52" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6106760029853088E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>100</v>
+      </c>
+      <c r="B53" s="5">
+        <v>50</v>
+      </c>
+      <c r="C53" s="5">
+        <v>25</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E53" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F53" s="5">
+        <v>5250</v>
+      </c>
+      <c r="G53" s="5">
+        <v>233564.79999999999</v>
+      </c>
+      <c r="H53" s="5">
         <v>244637.6</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I53" s="5">
         <v>238301.6</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J53" s="6">
         <v>3600</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K53" s="13">
         <f t="shared" si="0"/>
         <v>4.5262052930538955E-2</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L53" s="13">
         <f t="shared" si="1"/>
         <v>2.5899534658613395E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>100</v>
       </c>
-      <c r="B44" s="8">
-        <v>50</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8">
         <v>25</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D54" s="8">
         <v>3600</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E54" s="8">
         <v>10000</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F54" s="8">
         <v>5250</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G54" s="8">
         <v>233564.79999999999</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H54" s="8">
         <v>244369.2</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I54" s="8">
         <v>238322.6</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J54" s="9">
         <v>3600</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K54" s="13">
         <f t="shared" si="0"/>
         <v>4.421342787879988E-2</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L54" s="13">
         <f t="shared" si="1"/>
         <v>2.4743707472136445E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>200</v>
       </c>
-      <c r="B45" s="2">
-        <v>50</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="B55" s="15">
+        <v>50</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0</v>
+      </c>
+      <c r="D55" s="15">
         <v>3600</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E55" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G55" s="5">
+        <v>435408</v>
+      </c>
+      <c r="H55" s="5">
+        <v>442525</v>
+      </c>
+      <c r="I55" s="5">
+        <v>436770</v>
+      </c>
+      <c r="J55" s="6">
+        <v>3604</v>
+      </c>
+      <c r="K55" s="13">
+        <f t="shared" ref="K55:K59" si="7">(H55-G55)/H55</f>
+        <v>1.6082707191684087E-2</v>
+      </c>
+      <c r="L55" s="13">
+        <f t="shared" ref="L55:L59" si="8">(H55-I55)/H55</f>
+        <v>1.3004914976554998E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>200</v>
+      </c>
+      <c r="B56" s="15">
+        <v>50</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E56" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F56" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G56" s="5">
+        <v>453567</v>
+      </c>
+      <c r="H56" s="5">
+        <v>462883</v>
+      </c>
+      <c r="I56" s="5">
+        <v>455366</v>
+      </c>
+      <c r="J56" s="6">
+        <v>3603</v>
+      </c>
+      <c r="K56" s="13">
+        <f t="shared" si="7"/>
+        <v>2.0126036168967104E-2</v>
+      </c>
+      <c r="L56" s="13">
+        <f t="shared" si="8"/>
+        <v>1.623952489073913E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>200</v>
+      </c>
+      <c r="B57" s="15">
+        <v>50</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0</v>
+      </c>
+      <c r="D57" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F57" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G57" s="5">
+        <v>434155</v>
+      </c>
+      <c r="H57" s="5">
+        <v>440908</v>
+      </c>
+      <c r="I57" s="5">
+        <v>436384</v>
+      </c>
+      <c r="J57" s="6">
+        <v>3604</v>
+      </c>
+      <c r="K57" s="13">
+        <f>(H57-G57)/H57</f>
+        <v>1.5316120369782358E-2</v>
+      </c>
+      <c r="L57" s="13">
+        <f t="shared" si="8"/>
+        <v>1.0260643943861305E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>200</v>
+      </c>
+      <c r="B58" s="15">
+        <v>50</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G58" s="5">
+        <v>427366</v>
+      </c>
+      <c r="H58" s="5">
+        <v>434383</v>
+      </c>
+      <c r="I58" s="5">
+        <v>428770</v>
+      </c>
+      <c r="J58" s="6">
+        <v>3604</v>
+      </c>
+      <c r="K58" s="13">
+        <f t="shared" si="7"/>
+        <v>1.6153947092772968E-2</v>
+      </c>
+      <c r="L58" s="13">
+        <f t="shared" si="8"/>
+        <v>1.2921776404693554E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>200</v>
+      </c>
+      <c r="B59" s="15">
+        <v>50</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10450</v>
+      </c>
+      <c r="G59" s="5">
+        <v>444385</v>
+      </c>
+      <c r="H59" s="5">
+        <v>451299</v>
+      </c>
+      <c r="I59" s="5">
+        <v>446536</v>
+      </c>
+      <c r="J59" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K59" s="13">
+        <f t="shared" si="7"/>
+        <v>1.5320220075825562E-2</v>
+      </c>
+      <c r="L59" s="13">
+        <f t="shared" si="8"/>
+        <v>1.0553978626143642E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>200</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="2">
         <v>20000</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F60" s="2">
         <v>10450</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G60" s="2">
         <v>438446.5</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H60" s="2">
         <v>446269.83333300002</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I60" s="2">
         <v>440084.83333300002</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K60" s="13">
         <f t="shared" si="0"/>
         <v>1.7530500044268867E-2</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L60" s="13">
         <f t="shared" si="1"/>
         <v>1.3859328007467723E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>200</v>
       </c>
-      <c r="B46" s="5">
-        <v>50</v>
-      </c>
-      <c r="C46" s="5">
-        <v>10</v>
-      </c>
-      <c r="D46" s="15">
+      <c r="B61" s="5">
+        <v>50</v>
+      </c>
+      <c r="C61" s="5">
+        <v>10</v>
+      </c>
+      <c r="D61" s="15">
         <v>3600</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E61" s="5">
         <v>20000</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F61" s="5">
         <v>10450</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G61" s="5">
         <v>438446.5</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H61" s="5">
         <v>446128.66666699998</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I61" s="5">
         <v>440131</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J61" s="6">
         <v>3600</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K61" s="13">
         <f t="shared" si="0"/>
         <v>1.7219621246025236E-2</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L61" s="13">
         <f t="shared" si="1"/>
         <v>1.3443804702818548E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>200</v>
       </c>
-      <c r="B47" s="5">
-        <v>50</v>
-      </c>
-      <c r="C47" s="5">
-        <v>10</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="B62" s="5">
+        <v>50</v>
+      </c>
+      <c r="C62" s="5">
+        <v>10</v>
+      </c>
+      <c r="D62" s="15">
         <v>3600</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E62" s="5">
         <v>20000</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F62" s="5">
         <v>10450</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G62" s="5">
         <v>438446.5</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H62" s="5">
         <v>445875.66666699998</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I62" s="5">
         <v>440182.5</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J62" s="6">
         <v>3600</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K62" s="13">
         <f t="shared" si="0"/>
         <v>1.6661969294118083E-2</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L62" s="13">
         <f t="shared" si="1"/>
         <v>1.2768507215380058E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>200</v>
       </c>
-      <c r="B48" s="5">
-        <v>50</v>
-      </c>
-      <c r="C48" s="5">
-        <v>10</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="B63" s="5">
+        <v>50</v>
+      </c>
+      <c r="C63" s="5">
+        <v>10</v>
+      </c>
+      <c r="D63" s="15">
         <v>3600</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E63" s="5">
         <v>20000</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F63" s="5">
         <v>10450</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G63" s="5">
         <v>438446.5</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H63" s="5">
         <v>445810.83333300002</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I63" s="5">
         <v>440195.83333300002</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J63" s="6">
         <v>3600</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K63" s="13">
         <f t="shared" si="0"/>
         <v>1.6518964507753902E-2</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L63" s="13">
         <f t="shared" si="1"/>
         <v>1.2595028160309095E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>200</v>
       </c>
-      <c r="B49" s="8">
-        <v>50</v>
-      </c>
-      <c r="C49" s="8">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="B64" s="8">
+        <v>50</v>
+      </c>
+      <c r="C64" s="8">
+        <v>10</v>
+      </c>
+      <c r="D64" s="8">
         <v>3600</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E64" s="8">
         <v>20000</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F64" s="8">
         <v>10450</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G64" s="8">
         <v>438446.5</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H64" s="8">
         <v>445554.66666699998</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I64" s="8">
         <v>440202</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J64" s="9">
         <v>3600</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K64" s="13">
         <f t="shared" si="0"/>
         <v>1.5953523100034114E-2</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L64" s="13">
         <f t="shared" si="1"/>
         <v>1.2013490301966639E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>200</v>
       </c>
-      <c r="B50" s="2">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B65" s="2">
+        <v>50</v>
+      </c>
+      <c r="C65" s="2">
         <v>25</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D65" s="2">
         <v>3600</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E65" s="2">
         <v>20000</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F65" s="2">
         <v>10450</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G65" s="2">
         <v>479852</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H65" s="2">
         <v>488999.33333300002</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I65" s="2">
         <v>481421.33333300002</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J65" s="3">
         <v>3600</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K65" s="13">
         <f t="shared" si="0"/>
         <v>1.870622863767964E-2</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L65" s="13">
         <f t="shared" si="1"/>
         <v>1.5496953642755816E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>200</v>
       </c>
-      <c r="B51" s="5">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B66" s="5">
+        <v>50</v>
+      </c>
+      <c r="C66" s="5">
         <v>25</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D66" s="15">
         <v>3600</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E66" s="5">
         <v>20000</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F66" s="5">
         <v>10450</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G66" s="5">
         <v>479852</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H66" s="5">
         <v>488424.33333300002</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I66" s="5">
         <v>481479.66666699998</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J66" s="6">
         <v>3600</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K66" s="13">
         <f t="shared" si="0"/>
         <v>1.7550995615846058E-2</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L66" s="13">
         <f t="shared" si="1"/>
         <v>1.4218510815400489E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>200</v>
       </c>
-      <c r="B52" s="5">
-        <v>50</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B67" s="5">
+        <v>50</v>
+      </c>
+      <c r="C67" s="5">
         <v>25</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D67" s="15">
         <v>3600</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E67" s="5">
         <v>20000</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F67" s="5">
         <v>10450</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G67" s="5">
         <v>479852</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H67" s="5">
         <v>487986.66666699998</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I67" s="5">
         <v>481525</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J67" s="6">
         <v>3600</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K67" s="13">
         <f t="shared" si="0"/>
         <v>1.666985436827733E-2</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L67" s="13">
         <f t="shared" si="1"/>
         <v>1.3241482008379128E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>200</v>
       </c>
-      <c r="B53" s="5">
-        <v>50</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B68" s="5">
+        <v>50</v>
+      </c>
+      <c r="C68" s="5">
         <v>25</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D68" s="15">
         <v>3600</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E68" s="5">
         <v>20000</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F68" s="5">
         <v>10450</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G68" s="5">
         <v>479852</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H68" s="5">
         <v>487880</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I68" s="5">
         <v>481538.66666699998</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J68" s="6">
         <v>3600</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K68" s="13">
         <f t="shared" si="0"/>
         <v>1.6454865950643601E-2</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L68" s="13">
         <f t="shared" si="1"/>
         <v>1.2997731681971011E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>200</v>
       </c>
-      <c r="B54" s="8">
-        <v>50</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B69" s="8">
+        <v>50</v>
+      </c>
+      <c r="C69" s="8">
         <v>25</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D69" s="8">
         <v>3600</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E69" s="8">
         <v>20000</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F69" s="8">
         <v>10450</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G69" s="8">
         <v>479852</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H69" s="8">
         <v>487651.66666699998</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I69" s="8">
         <v>481546.33333300002</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J69" s="9">
         <v>3600</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K69" s="13">
         <f t="shared" si="0"/>
         <v>1.5994340223030753E-2</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L69" s="13">
         <f t="shared" si="1"/>
         <v>1.2519865615816876E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>300</v>
       </c>
-      <c r="B55" s="2">
-        <v>50</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="B70" s="15">
+        <v>50</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15">
         <v>3600</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E70" s="5">
         <v>30000</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F70" s="5">
         <v>15650</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G70" s="5">
+        <v>693832</v>
+      </c>
+      <c r="H70" s="5">
+        <v>704578</v>
+      </c>
+      <c r="I70" s="5">
+        <v>696292</v>
+      </c>
+      <c r="J70" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K70" s="13">
+        <f t="shared" ref="K70:K75" si="9">(H70-G70)/H70</f>
+        <v>1.525168256743753E-2</v>
+      </c>
+      <c r="L70" s="13">
+        <f t="shared" ref="L70:L75" si="10">(H70-I70)/H70</f>
+        <v>1.1760230946751105E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>300</v>
+      </c>
+      <c r="B71" s="15">
+        <v>50</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0</v>
+      </c>
+      <c r="D71" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E71" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F71" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G71" s="5">
+        <v>692642</v>
+      </c>
+      <c r="H71" s="5">
+        <v>698710</v>
+      </c>
+      <c r="I71" s="5">
+        <v>694109</v>
+      </c>
+      <c r="J71" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K71" s="13">
+        <f t="shared" si="9"/>
+        <v>8.6845758612299814E-3</v>
+      </c>
+      <c r="L71" s="13">
+        <f t="shared" si="10"/>
+        <v>6.5849923430321596E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>300</v>
+      </c>
+      <c r="B72" s="15">
+        <v>50</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E72" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F72" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G72" s="5">
+        <v>678912</v>
+      </c>
+      <c r="H72" s="5">
+        <v>683560</v>
+      </c>
+      <c r="I72" s="5">
+        <v>679629</v>
+      </c>
+      <c r="J72" s="6">
+        <v>3606</v>
+      </c>
+      <c r="K72" s="13">
+        <f t="shared" si="9"/>
+        <v>6.7996957106910881E-3</v>
+      </c>
+      <c r="L72" s="13">
+        <f t="shared" si="10"/>
+        <v>5.7507753525659778E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>300</v>
+      </c>
+      <c r="B73" s="15">
+        <v>50</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0</v>
+      </c>
+      <c r="D73" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E73" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F73" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G73" s="5">
+        <v>685618</v>
+      </c>
+      <c r="H73" s="5">
+        <v>691135</v>
+      </c>
+      <c r="I73" s="5">
+        <v>687060</v>
+      </c>
+      <c r="J73" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K73" s="13">
+        <f t="shared" si="9"/>
+        <v>7.9825215044817578E-3</v>
+      </c>
+      <c r="L73" s="13">
+        <f t="shared" si="10"/>
+        <v>5.8960984467578692E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>300</v>
+      </c>
+      <c r="B74" s="15">
+        <v>50</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E74" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F74" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G74" s="5">
+        <v>697035</v>
+      </c>
+      <c r="H74" s="5">
+        <v>702921</v>
+      </c>
+      <c r="I74" s="5">
+        <v>698375</v>
+      </c>
+      <c r="J74" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K74" s="13">
+        <f t="shared" si="9"/>
+        <v>8.3736294690299473E-3</v>
+      </c>
+      <c r="L74" s="13">
+        <f t="shared" si="10"/>
+        <v>6.4672986011230279E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>300</v>
+      </c>
+      <c r="B75" s="2">
+        <v>50</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E75" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F75" s="2">
+        <v>15650</v>
+      </c>
+      <c r="G75" s="2">
         <v>680189</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H75" s="2">
         <v>687166</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I75" s="2">
         <v>681482.2</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J75" s="3">
         <v>3600</v>
       </c>
-      <c r="K55" s="13">
-        <f t="shared" si="0"/>
+      <c r="K75" s="13">
+        <f t="shared" si="9"/>
         <v>1.0153296292307826E-2</v>
       </c>
-      <c r="L55" s="13">
-        <f t="shared" si="1"/>
+      <c r="L75" s="13">
+        <f t="shared" si="10"/>
         <v>8.2713638334842628E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>300</v>
       </c>
-      <c r="B56" s="5">
-        <v>50</v>
-      </c>
-      <c r="C56" s="5">
-        <v>10</v>
-      </c>
-      <c r="D56" s="15">
+      <c r="B76" s="5">
+        <v>50</v>
+      </c>
+      <c r="C76" s="5">
+        <v>10</v>
+      </c>
+      <c r="D76" s="15">
         <v>3600</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E76" s="5">
         <v>30000</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F76" s="5">
         <v>15650</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G76" s="5">
         <v>680189</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H76" s="5">
         <v>686692.8</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I76" s="5">
         <v>681547.4</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J76" s="6">
         <v>3600</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K76" s="13">
         <f t="shared" si="0"/>
         <v>9.471192941006585E-3</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L76" s="13">
         <f t="shared" si="1"/>
         <v>7.4930157997870703E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>300</v>
       </c>
-      <c r="B57" s="5">
-        <v>50</v>
-      </c>
-      <c r="C57" s="5">
-        <v>10</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="B77" s="5">
+        <v>50</v>
+      </c>
+      <c r="C77" s="5">
+        <v>10</v>
+      </c>
+      <c r="D77" s="15">
         <v>3600</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E77" s="5">
         <v>30000</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F77" s="5">
         <v>15650</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G77" s="5">
         <v>680189</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H77" s="5">
         <v>686525.4</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I77" s="5">
         <v>681599.8</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J77" s="6">
         <v>3600</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K77" s="13">
         <f t="shared" si="0"/>
         <v>9.229665792409171E-3</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L77" s="13">
         <f t="shared" si="1"/>
         <v>7.1746799171596223E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>300</v>
       </c>
-      <c r="B58" s="5">
-        <v>50</v>
-      </c>
-      <c r="C58" s="5">
-        <v>10</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="B78" s="5">
+        <v>50</v>
+      </c>
+      <c r="C78" s="5">
+        <v>10</v>
+      </c>
+      <c r="D78" s="15">
         <v>3600</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E78" s="5">
         <v>30000</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F78" s="5">
         <v>15650</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G78" s="5">
         <v>680189</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H78" s="5">
         <v>686495.2</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I78" s="5">
         <v>681612.80000000005</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J78" s="6">
         <v>3600</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K78" s="13">
         <f t="shared" si="0"/>
         <v>9.1860802522726361E-3</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L78" s="13">
         <f t="shared" si="1"/>
         <v>7.1120672074617671E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>300</v>
       </c>
-      <c r="B59" s="8">
-        <v>50</v>
-      </c>
-      <c r="C59" s="8">
-        <v>10</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="B79" s="8">
+        <v>50</v>
+      </c>
+      <c r="C79" s="8">
+        <v>10</v>
+      </c>
+      <c r="D79" s="8">
         <v>3600</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E79" s="8">
         <v>30000</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F79" s="8">
         <v>15650</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G79" s="8">
         <v>680189</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H79" s="8">
         <v>686009.8</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I79" s="8">
         <v>681618.6</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J79" s="9">
         <v>3600</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K79" s="13">
         <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L79" s="13">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8516F-ED68-447D-8EF7-C479D5ED8EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDA240-9E9B-4683-9261-6E957554E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="195" windowWidth="25005" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10633,11 +10633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,11 +10748,11 @@
         <v>2.7496999999999998</v>
       </c>
       <c r="K2" s="13">
-        <f t="shared" ref="K2:K79" si="0">(H2-G2)/H2</f>
+        <f t="shared" ref="K2:K89" si="0">(H2-G2)/H2</f>
         <v>3.8872040997512476E-3</v>
       </c>
       <c r="L2" s="13">
-        <f t="shared" ref="L2:L79" si="1">(H2-I2)/H2</f>
+        <f t="shared" ref="L2:L89" si="1">(H2-I2)/H2</f>
         <v>9.6692246160878318E-5</v>
       </c>
       <c r="O2">
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="14">
-        <f t="shared" ref="X12:X18" si="2">AVERAGE(J36:J40)</f>
+        <f t="shared" ref="X12:X14" si="2">AVERAGE(J36:J40)</f>
         <v>3606.6</v>
       </c>
       <c r="Y12">
@@ -11736,34 +11736,34 @@
         <v>200</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="S15">
-        <v>10450</v>
+        <v>2410</v>
       </c>
       <c r="T15" s="13">
         <f>AVERAGE(K55:K59)</f>
-        <v>1.6599806179806418E-2</v>
+        <v>1.7069240250987198E-3</v>
       </c>
       <c r="U15" s="13">
         <f>AVERAGE(L55:L59)</f>
-        <v>1.2596167768398525E-2</v>
+        <v>4.6130782631745944E-4</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="14">
         <f>AVERAGE(J55:J59)</f>
-        <v>3604</v>
+        <v>2368.7745999999997</v>
       </c>
       <c r="Y15">
         <v>3600</v>
@@ -11815,7 +11815,7 @@
         <v>50</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>20000</v>
@@ -11825,11 +11825,11 @@
       </c>
       <c r="T16" s="13">
         <f>AVERAGE(K60:K64)</f>
-        <v>1.677691563844004E-2</v>
+        <v>1.6599806179806418E-2</v>
       </c>
       <c r="U16" s="13">
         <f>AVERAGE(L60:L64)</f>
-        <v>1.2936031677588411E-2</v>
+        <v>1.2596167768398525E-2</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -11838,8 +11838,8 @@
         <v>0</v>
       </c>
       <c r="X16" s="14">
-        <f t="shared" si="2"/>
-        <v>3605.6</v>
+        <f>AVERAGE(J60:J64)</f>
+        <v>3604</v>
       </c>
       <c r="Y16">
         <v>3600</v>
@@ -11891,7 +11891,7 @@
         <v>50</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R17">
         <v>20000</v>
@@ -11901,11 +11901,11 @@
       </c>
       <c r="T17" s="13">
         <f>AVERAGE(K65:K69)</f>
-        <v>1.7075256959095477E-2</v>
+        <v>1.677691563844004E-2</v>
       </c>
       <c r="U17" s="13">
         <f>AVERAGE(L65:L69)</f>
-        <v>1.3694908752864665E-2</v>
+        <v>1.2936031677588411E-2</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="14">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(J40:J44)</f>
         <v>3605.6</v>
       </c>
       <c r="Y17">
@@ -11961,27 +11961,27 @@
         <v>2.7261522890700881E-3</v>
       </c>
       <c r="O18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R18">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="S18">
-        <v>15650</v>
+        <v>10450</v>
       </c>
       <c r="T18" s="13">
         <f>AVERAGE(K70:K74)</f>
-        <v>9.4184210225740604E-3</v>
+        <v>1.7075256959095477E-2</v>
       </c>
       <c r="U18" s="13">
         <f>AVERAGE(L70:L74)</f>
-        <v>7.2918791380460288E-3</v>
+        <v>1.3694908752864665E-2</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -11990,8 +11990,8 @@
         <v>0</v>
       </c>
       <c r="X18" s="14">
-        <f>AVERAGE(J70:J74)</f>
-        <v>3605.2</v>
+        <f>AVERAGE(J41:J45)</f>
+        <v>3605.6</v>
       </c>
       <c r="Y18">
         <v>3600</v>
@@ -12040,34 +12040,34 @@
         <v>300</v>
       </c>
       <c r="P19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="S19">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="T19" s="13">
         <f>AVERAGE(K75:K79)</f>
-        <v>9.3050490517806519E-3</v>
+        <v>8.7987824800820225E-4</v>
       </c>
       <c r="U19" s="13">
         <f>AVERAGE(L75:L79)</f>
-        <v>7.2904402989452059E-3</v>
+        <v>2.5784346008500341E-4</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X19" s="14">
         <f>AVERAGE(J75:J79)</f>
-        <v>3600</v>
+        <v>1798.4334000000003</v>
       </c>
       <c r="Y19">
         <v>3600</v>
@@ -12112,6 +12112,42 @@
         <f t="shared" si="1"/>
         <v>9.8969852922192489E-5</v>
       </c>
+      <c r="O20">
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>30000</v>
+      </c>
+      <c r="S20">
+        <v>15650</v>
+      </c>
+      <c r="T20" s="13">
+        <f>AVERAGE(K80:K84)</f>
+        <v>9.4184210225740604E-3</v>
+      </c>
+      <c r="U20" s="13">
+        <f>AVERAGE(L80:L84)</f>
+        <v>7.2918791380460288E-3</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f>AVERAGE(J80:J84)</f>
+        <v>3605.2</v>
+      </c>
+      <c r="Y20">
+        <v>3600</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -12152,6 +12188,42 @@
         <f t="shared" si="1"/>
         <v>2.3671648798810549E-3</v>
       </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>30000</v>
+      </c>
+      <c r="S21">
+        <v>15650</v>
+      </c>
+      <c r="T21" s="13">
+        <f>AVERAGE(K85:K89)</f>
+        <v>9.3050490517806519E-3</v>
+      </c>
+      <c r="U21" s="13">
+        <f>AVERAGE(L85:L89)</f>
+        <v>7.2904402989452059E-3</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <f>AVERAGE(J85:J89)</f>
+        <v>3600</v>
+      </c>
+      <c r="Y21">
+        <v>3600</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -13473,403 +13545,403 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>200</v>
       </c>
-      <c r="B55" s="15">
-        <v>50</v>
-      </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E55" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F55" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G55" s="5">
-        <v>435408</v>
-      </c>
-      <c r="H55" s="5">
-        <v>442525</v>
-      </c>
-      <c r="I55" s="5">
-        <v>436770</v>
-      </c>
-      <c r="J55" s="6">
-        <v>3604</v>
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2410</v>
+      </c>
+      <c r="G55" s="2">
+        <v>433380</v>
+      </c>
+      <c r="H55" s="2">
+        <v>434020</v>
+      </c>
+      <c r="I55" s="2">
+        <v>433977</v>
+      </c>
+      <c r="J55" s="3">
+        <v>504.13900000000001</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" ref="K55:K59" si="7">(H55-G55)/H55</f>
-        <v>1.6082707191684087E-2</v>
+        <v>1.4745864245887287E-3</v>
       </c>
       <c r="L55" s="13">
         <f t="shared" ref="L55:L59" si="8">(H55-I55)/H55</f>
-        <v>1.3004914976554998E-2</v>
+        <v>9.9073775402055205E-5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>200</v>
       </c>
-      <c r="B56" s="15">
-        <v>50</v>
-      </c>
-      <c r="C56" s="15">
+      <c r="B56" s="5">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5">
         <v>0</v>
       </c>
       <c r="D56" s="15">
         <v>3600</v>
       </c>
       <c r="E56" s="15">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F56" s="5">
-        <v>10450</v>
+        <v>2410</v>
       </c>
       <c r="G56" s="5">
-        <v>453567</v>
+        <v>472081</v>
       </c>
       <c r="H56" s="5">
-        <v>462883</v>
+        <v>473097</v>
       </c>
       <c r="I56" s="5">
-        <v>455366</v>
+        <v>472838</v>
       </c>
       <c r="J56" s="6">
-        <v>3603</v>
+        <v>3615.01</v>
       </c>
       <c r="K56" s="13">
         <f t="shared" si="7"/>
-        <v>2.0126036168967104E-2</v>
+        <v>2.1475511364477053E-3</v>
       </c>
       <c r="L56" s="13">
         <f t="shared" si="8"/>
-        <v>1.623952489073913E-2</v>
+        <v>5.4745644127948386E-4</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>200</v>
       </c>
-      <c r="B57" s="15">
-        <v>50</v>
-      </c>
-      <c r="C57" s="15">
+      <c r="B57" s="5">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5">
         <v>0</v>
       </c>
       <c r="D57" s="15">
         <v>3600</v>
       </c>
       <c r="E57" s="15">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F57" s="5">
-        <v>10450</v>
+        <v>2410</v>
       </c>
       <c r="G57" s="5">
-        <v>434155</v>
+        <v>585460</v>
       </c>
       <c r="H57" s="5">
-        <v>440908</v>
+        <v>586453</v>
       </c>
       <c r="I57" s="5">
-        <v>436384</v>
+        <v>586026</v>
       </c>
       <c r="J57" s="6">
-        <v>3604</v>
+        <v>3610.79</v>
       </c>
       <c r="K57" s="13">
-        <f>(H57-G57)/H57</f>
-        <v>1.5316120369782358E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6932303185421508E-3</v>
       </c>
       <c r="L57" s="13">
         <f t="shared" si="8"/>
-        <v>1.0260643943861305E-2</v>
+        <v>7.2810608863796422E-4</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>200</v>
       </c>
-      <c r="B58" s="15">
-        <v>50</v>
-      </c>
-      <c r="C58" s="15">
+      <c r="B58" s="5">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5">
         <v>0</v>
       </c>
       <c r="D58" s="15">
         <v>3600</v>
       </c>
       <c r="E58" s="15">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="5">
-        <v>10450</v>
+        <v>2410</v>
       </c>
       <c r="G58" s="5">
-        <v>427366</v>
+        <v>494413</v>
       </c>
       <c r="H58" s="5">
-        <v>434383</v>
+        <v>494920</v>
       </c>
       <c r="I58" s="5">
-        <v>428770</v>
+        <v>494871</v>
       </c>
       <c r="J58" s="6">
-        <v>3604</v>
+        <v>502.51400000000001</v>
       </c>
       <c r="K58" s="13">
         <f t="shared" si="7"/>
-        <v>1.6153947092772968E-2</v>
+        <v>1.0244079851289096E-3</v>
       </c>
       <c r="L58" s="13">
         <f t="shared" si="8"/>
-        <v>1.2921776404693554E-2</v>
+        <v>9.9005899943425206E-5</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="7">
         <v>200</v>
       </c>
-      <c r="B59" s="15">
-        <v>50</v>
-      </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E59" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F59" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G59" s="5">
-        <v>444385</v>
-      </c>
-      <c r="H59" s="5">
-        <v>451299</v>
-      </c>
-      <c r="I59" s="5">
-        <v>446536</v>
-      </c>
-      <c r="J59" s="6">
-        <v>3605</v>
+      <c r="B59" s="8">
+        <v>10</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2410</v>
+      </c>
+      <c r="G59" s="8">
+        <v>558265</v>
+      </c>
+      <c r="H59" s="8">
+        <v>559493</v>
+      </c>
+      <c r="I59" s="8">
+        <v>559027</v>
+      </c>
+      <c r="J59" s="9">
+        <v>3611.42</v>
       </c>
       <c r="K59" s="13">
         <f t="shared" si="7"/>
-        <v>1.5320220075825562E-2</v>
+        <v>2.1948442607861046E-3</v>
       </c>
       <c r="L59" s="13">
         <f t="shared" si="8"/>
-        <v>1.0553978626143642E-2</v>
+        <v>8.3289692632436863E-4</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>200</v>
       </c>
-      <c r="B60" s="2">
-        <v>50</v>
-      </c>
-      <c r="C60" s="2">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E60" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="B60" s="15">
+        <v>50</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="5">
         <v>10450</v>
       </c>
-      <c r="G60" s="2">
-        <v>438446.5</v>
-      </c>
-      <c r="H60" s="2">
-        <v>446269.83333300002</v>
-      </c>
-      <c r="I60" s="2">
-        <v>440084.83333300002</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3600</v>
+      <c r="G60" s="5">
+        <v>435408</v>
+      </c>
+      <c r="H60" s="5">
+        <v>442525</v>
+      </c>
+      <c r="I60" s="5">
+        <v>436770</v>
+      </c>
+      <c r="J60" s="6">
+        <v>3604</v>
       </c>
       <c r="K60" s="13">
-        <f t="shared" si="0"/>
-        <v>1.7530500044268867E-2</v>
+        <f t="shared" ref="K60:K64" si="9">(H60-G60)/H60</f>
+        <v>1.6082707191684087E-2</v>
       </c>
       <c r="L60" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3859328007467723E-2</v>
+        <f t="shared" ref="L60:L64" si="10">(H60-I60)/H60</f>
+        <v>1.3004914976554998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>200</v>
       </c>
-      <c r="B61" s="5">
-        <v>50</v>
-      </c>
-      <c r="C61" s="5">
-        <v>10</v>
+      <c r="B61" s="15">
+        <v>50</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
       </c>
       <c r="D61" s="15">
         <v>3600</v>
       </c>
-      <c r="E61" s="5">
-        <v>20000</v>
+      <c r="E61" s="15">
+        <v>10000</v>
       </c>
       <c r="F61" s="5">
         <v>10450</v>
       </c>
       <c r="G61" s="5">
-        <v>438446.5</v>
+        <v>453567</v>
       </c>
       <c r="H61" s="5">
-        <v>446128.66666699998</v>
+        <v>462883</v>
       </c>
       <c r="I61" s="5">
-        <v>440131</v>
+        <v>455366</v>
       </c>
       <c r="J61" s="6">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="0"/>
-        <v>1.7219621246025236E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.0126036168967104E-2</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3443804702818548E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.623952489073913E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>200</v>
       </c>
-      <c r="B62" s="5">
-        <v>50</v>
-      </c>
-      <c r="C62" s="5">
-        <v>10</v>
+      <c r="B62" s="15">
+        <v>50</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0</v>
       </c>
       <c r="D62" s="15">
         <v>3600</v>
       </c>
-      <c r="E62" s="5">
-        <v>20000</v>
+      <c r="E62" s="15">
+        <v>10000</v>
       </c>
       <c r="F62" s="5">
         <v>10450</v>
       </c>
       <c r="G62" s="5">
-        <v>438446.5</v>
+        <v>434155</v>
       </c>
       <c r="H62" s="5">
-        <v>445875.66666699998</v>
+        <v>440908</v>
       </c>
       <c r="I62" s="5">
-        <v>440182.5</v>
+        <v>436384</v>
       </c>
       <c r="J62" s="6">
-        <v>3600</v>
+        <v>3604</v>
       </c>
       <c r="K62" s="13">
-        <f t="shared" si="0"/>
-        <v>1.6661969294118083E-2</v>
+        <f>(H62-G62)/H62</f>
+        <v>1.5316120369782358E-2</v>
       </c>
       <c r="L62" s="13">
-        <f t="shared" si="1"/>
-        <v>1.2768507215380058E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.0260643943861305E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>200</v>
       </c>
-      <c r="B63" s="5">
-        <v>50</v>
-      </c>
-      <c r="C63" s="5">
-        <v>10</v>
+      <c r="B63" s="15">
+        <v>50</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0</v>
       </c>
       <c r="D63" s="15">
         <v>3600</v>
       </c>
-      <c r="E63" s="5">
-        <v>20000</v>
+      <c r="E63" s="15">
+        <v>10000</v>
       </c>
       <c r="F63" s="5">
         <v>10450</v>
       </c>
       <c r="G63" s="5">
-        <v>438446.5</v>
+        <v>427366</v>
       </c>
       <c r="H63" s="5">
-        <v>445810.83333300002</v>
+        <v>434383</v>
       </c>
       <c r="I63" s="5">
-        <v>440195.83333300002</v>
+        <v>428770</v>
       </c>
       <c r="J63" s="6">
-        <v>3600</v>
+        <v>3604</v>
       </c>
       <c r="K63" s="13">
-        <f t="shared" si="0"/>
-        <v>1.6518964507753902E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6153947092772968E-2</v>
       </c>
       <c r="L63" s="13">
-        <f t="shared" si="1"/>
-        <v>1.2595028160309095E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.2921776404693554E-2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="4">
         <v>200</v>
       </c>
-      <c r="B64" s="8">
-        <v>50</v>
-      </c>
-      <c r="C64" s="8">
-        <v>10</v>
-      </c>
-      <c r="D64" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E64" s="8">
-        <v>20000</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="B64" s="15">
+        <v>50</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0</v>
+      </c>
+      <c r="D64" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E64" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F64" s="5">
         <v>10450</v>
       </c>
-      <c r="G64" s="8">
-        <v>438446.5</v>
-      </c>
-      <c r="H64" s="8">
-        <v>445554.66666699998</v>
-      </c>
-      <c r="I64" s="8">
-        <v>440202</v>
-      </c>
-      <c r="J64" s="9">
-        <v>3600</v>
+      <c r="G64" s="5">
+        <v>444385</v>
+      </c>
+      <c r="H64" s="5">
+        <v>451299</v>
+      </c>
+      <c r="I64" s="5">
+        <v>446536</v>
+      </c>
+      <c r="J64" s="6">
+        <v>3605</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="0"/>
-        <v>1.5953523100034114E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.5320220075825562E-2</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="1"/>
-        <v>1.2013490301966639E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.0553978626143642E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -13880,7 +13952,7 @@
         <v>50</v>
       </c>
       <c r="C65" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2">
         <v>3600</v>
@@ -13892,24 +13964,24 @@
         <v>10450</v>
       </c>
       <c r="G65" s="2">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H65" s="2">
-        <v>488999.33333300002</v>
+        <v>446269.83333300002</v>
       </c>
       <c r="I65" s="2">
-        <v>481421.33333300002</v>
+        <v>440084.83333300002</v>
       </c>
       <c r="J65" s="3">
         <v>3600</v>
       </c>
       <c r="K65" s="13">
         <f t="shared" si="0"/>
-        <v>1.870622863767964E-2</v>
+        <v>1.7530500044268867E-2</v>
       </c>
       <c r="L65" s="13">
         <f t="shared" si="1"/>
-        <v>1.5496953642755816E-2</v>
+        <v>1.3859328007467723E-2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -13920,7 +13992,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D66" s="15">
         <v>3600</v>
@@ -13932,24 +14004,24 @@
         <v>10450</v>
       </c>
       <c r="G66" s="5">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H66" s="5">
-        <v>488424.33333300002</v>
+        <v>446128.66666699998</v>
       </c>
       <c r="I66" s="5">
-        <v>481479.66666699998</v>
+        <v>440131</v>
       </c>
       <c r="J66" s="6">
         <v>3600</v>
       </c>
       <c r="K66" s="13">
         <f t="shared" si="0"/>
-        <v>1.7550995615846058E-2</v>
+        <v>1.7219621246025236E-2</v>
       </c>
       <c r="L66" s="13">
         <f t="shared" si="1"/>
-        <v>1.4218510815400489E-2</v>
+        <v>1.3443804702818548E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -13960,7 +14032,7 @@
         <v>50</v>
       </c>
       <c r="C67" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D67" s="15">
         <v>3600</v>
@@ -13972,24 +14044,24 @@
         <v>10450</v>
       </c>
       <c r="G67" s="5">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H67" s="5">
-        <v>487986.66666699998</v>
+        <v>445875.66666699998</v>
       </c>
       <c r="I67" s="5">
-        <v>481525</v>
+        <v>440182.5</v>
       </c>
       <c r="J67" s="6">
         <v>3600</v>
       </c>
       <c r="K67" s="13">
         <f t="shared" si="0"/>
-        <v>1.666985436827733E-2</v>
+        <v>1.6661969294118083E-2</v>
       </c>
       <c r="L67" s="13">
         <f t="shared" si="1"/>
-        <v>1.3241482008379128E-2</v>
+        <v>1.2768507215380058E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -14000,7 +14072,7 @@
         <v>50</v>
       </c>
       <c r="C68" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D68" s="15">
         <v>3600</v>
@@ -14012,24 +14084,24 @@
         <v>10450</v>
       </c>
       <c r="G68" s="5">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H68" s="5">
-        <v>487880</v>
+        <v>445810.83333300002</v>
       </c>
       <c r="I68" s="5">
-        <v>481538.66666699998</v>
+        <v>440195.83333300002</v>
       </c>
       <c r="J68" s="6">
         <v>3600</v>
       </c>
       <c r="K68" s="13">
         <f t="shared" si="0"/>
-        <v>1.6454865950643601E-2</v>
+        <v>1.6518964507753902E-2</v>
       </c>
       <c r="L68" s="13">
         <f t="shared" si="1"/>
-        <v>1.2997731681971011E-2</v>
+        <v>1.2595028160309095E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -14040,7 +14112,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D69" s="8">
         <v>3600</v>
@@ -14052,422 +14124,822 @@
         <v>10450</v>
       </c>
       <c r="G69" s="8">
-        <v>479852</v>
+        <v>438446.5</v>
       </c>
       <c r="H69" s="8">
-        <v>487651.66666699998</v>
+        <v>445554.66666699998</v>
       </c>
       <c r="I69" s="8">
-        <v>481546.33333300002</v>
+        <v>440202</v>
       </c>
       <c r="J69" s="9">
         <v>3600</v>
       </c>
       <c r="K69" s="13">
         <f t="shared" si="0"/>
-        <v>1.5994340223030753E-2</v>
+        <v>1.5953523100034114E-2</v>
       </c>
       <c r="L69" s="13">
         <f t="shared" si="1"/>
-        <v>1.2519865615816876E-2</v>
+        <v>1.2013490301966639E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>300</v>
-      </c>
-      <c r="B70" s="15">
-        <v>50</v>
-      </c>
-      <c r="C70" s="15">
-        <v>0</v>
-      </c>
-      <c r="D70" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E70" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F70" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G70" s="5">
-        <v>693832</v>
-      </c>
-      <c r="H70" s="5">
-        <v>704578</v>
-      </c>
-      <c r="I70" s="5">
-        <v>696292</v>
-      </c>
-      <c r="J70" s="6">
-        <v>3605</v>
+      <c r="A70" s="1">
+        <v>200</v>
+      </c>
+      <c r="B70" s="2">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E70" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F70" s="2">
+        <v>10450</v>
+      </c>
+      <c r="G70" s="2">
+        <v>479852</v>
+      </c>
+      <c r="H70" s="2">
+        <v>488999.33333300002</v>
+      </c>
+      <c r="I70" s="2">
+        <v>481421.33333300002</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3600</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" ref="K70:K75" si="9">(H70-G70)/H70</f>
-        <v>1.525168256743753E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.870622863767964E-2</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" ref="L70:L75" si="10">(H70-I70)/H70</f>
-        <v>1.1760230946751105E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5496953642755816E-2</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>300</v>
-      </c>
-      <c r="B71" s="15">
-        <v>50</v>
-      </c>
-      <c r="C71" s="15">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B71" s="5">
+        <v>50</v>
+      </c>
+      <c r="C71" s="5">
+        <v>25</v>
       </c>
       <c r="D71" s="15">
         <v>3600</v>
       </c>
       <c r="E71" s="5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F71" s="5">
-        <v>15650</v>
+        <v>10450</v>
       </c>
       <c r="G71" s="5">
-        <v>692642</v>
+        <v>479852</v>
       </c>
       <c r="H71" s="5">
-        <v>698710</v>
+        <v>488424.33333300002</v>
       </c>
       <c r="I71" s="5">
-        <v>694109</v>
+        <v>481479.66666699998</v>
       </c>
       <c r="J71" s="6">
-        <v>3605</v>
+        <v>3600</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="9"/>
-        <v>8.6845758612299814E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7550995615846058E-2</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="10"/>
-        <v>6.5849923430321596E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.4218510815400489E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>300</v>
-      </c>
-      <c r="B72" s="15">
-        <v>50</v>
-      </c>
-      <c r="C72" s="15">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B72" s="5">
+        <v>50</v>
+      </c>
+      <c r="C72" s="5">
+        <v>25</v>
       </c>
       <c r="D72" s="15">
         <v>3600</v>
       </c>
       <c r="E72" s="5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F72" s="5">
-        <v>15650</v>
+        <v>10450</v>
       </c>
       <c r="G72" s="5">
-        <v>678912</v>
+        <v>479852</v>
       </c>
       <c r="H72" s="5">
-        <v>683560</v>
+        <v>487986.66666699998</v>
       </c>
       <c r="I72" s="5">
-        <v>679629</v>
+        <v>481525</v>
       </c>
       <c r="J72" s="6">
-        <v>3606</v>
+        <v>3600</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="9"/>
-        <v>6.7996957106910881E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.666985436827733E-2</v>
       </c>
       <c r="L72" s="13">
-        <f t="shared" si="10"/>
-        <v>5.7507753525659778E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3241482008379128E-2</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>300</v>
-      </c>
-      <c r="B73" s="15">
-        <v>50</v>
-      </c>
-      <c r="C73" s="15">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B73" s="5">
+        <v>50</v>
+      </c>
+      <c r="C73" s="5">
+        <v>25</v>
       </c>
       <c r="D73" s="15">
         <v>3600</v>
       </c>
       <c r="E73" s="5">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F73" s="5">
-        <v>15650</v>
+        <v>10450</v>
       </c>
       <c r="G73" s="5">
-        <v>685618</v>
+        <v>479852</v>
       </c>
       <c r="H73" s="5">
-        <v>691135</v>
+        <v>487880</v>
       </c>
       <c r="I73" s="5">
-        <v>687060</v>
+        <v>481538.66666699998</v>
       </c>
       <c r="J73" s="6">
-        <v>3605</v>
+        <v>3600</v>
       </c>
       <c r="K73" s="13">
-        <f t="shared" si="9"/>
-        <v>7.9825215044817578E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.6454865950643601E-2</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="10"/>
-        <v>5.8960984467578692E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2997731681971011E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>300</v>
-      </c>
-      <c r="B74" s="15">
-        <v>50</v>
-      </c>
-      <c r="C74" s="15">
-        <v>0</v>
-      </c>
-      <c r="D74" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E74" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F74" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G74" s="5">
-        <v>697035</v>
-      </c>
-      <c r="H74" s="5">
-        <v>702921</v>
-      </c>
-      <c r="I74" s="5">
-        <v>698375</v>
-      </c>
-      <c r="J74" s="6">
-        <v>3605</v>
+      <c r="A74" s="7">
+        <v>200</v>
+      </c>
+      <c r="B74" s="8">
+        <v>50</v>
+      </c>
+      <c r="C74" s="8">
+        <v>25</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E74" s="8">
+        <v>20000</v>
+      </c>
+      <c r="F74" s="8">
+        <v>10450</v>
+      </c>
+      <c r="G74" s="8">
+        <v>479852</v>
+      </c>
+      <c r="H74" s="8">
+        <v>487651.66666699998</v>
+      </c>
+      <c r="I74" s="8">
+        <v>481546.33333300002</v>
+      </c>
+      <c r="J74" s="9">
+        <v>3600</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" si="9"/>
-        <v>8.3736294690299473E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.5994340223030753E-2</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="10"/>
-        <v>6.4672986011230279E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2519865615816876E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>300</v>
       </c>
-      <c r="B75" s="2">
-        <v>50</v>
-      </c>
-      <c r="C75" s="2">
-        <v>10</v>
+      <c r="B75" s="16">
+        <v>10</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0</v>
       </c>
       <c r="D75" s="2">
         <v>3600</v>
       </c>
-      <c r="E75" s="2">
-        <v>30000</v>
+      <c r="E75" s="16">
+        <v>6000</v>
       </c>
       <c r="F75" s="2">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="G75" s="2">
-        <v>680189</v>
+        <v>702718</v>
       </c>
       <c r="H75" s="2">
-        <v>687166</v>
+        <v>703488</v>
       </c>
       <c r="I75" s="2">
-        <v>681482.2</v>
+        <v>703074</v>
       </c>
       <c r="J75" s="3">
-        <v>3600</v>
+        <v>3609.6</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="9"/>
-        <v>1.0153296292307826E-2</v>
+        <f t="shared" ref="K75:K79" si="11">(H75-G75)/H75</f>
+        <v>1.0945460334788938E-3</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="10"/>
-        <v>8.2713638334842628E-3</v>
+        <f t="shared" ref="L75:L79" si="12">(H75-I75)/H75</f>
+        <v>5.8849617903930127E-4</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>300</v>
       </c>
-      <c r="B76" s="5">
-        <v>50</v>
-      </c>
-      <c r="C76" s="5">
-        <v>10</v>
+      <c r="B76" s="15">
+        <v>10</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0</v>
       </c>
       <c r="D76" s="15">
         <v>3600</v>
       </c>
-      <c r="E76" s="5">
-        <v>30000</v>
+      <c r="E76" s="15">
+        <v>6000</v>
       </c>
       <c r="F76" s="5">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="G76" s="5">
-        <v>680189</v>
+        <v>713595</v>
       </c>
       <c r="H76" s="5">
-        <v>686692.8</v>
+        <v>713940</v>
       </c>
       <c r="I76" s="5">
-        <v>681547.4</v>
+        <v>713869</v>
       </c>
       <c r="J76" s="6">
-        <v>3600</v>
+        <v>496.34800000000001</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="0"/>
-        <v>9.471192941006585E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.83233885200437E-4</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="1"/>
-        <v>7.4930157997870703E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.9448132896321823E-5</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>300</v>
       </c>
-      <c r="B77" s="5">
-        <v>50</v>
-      </c>
-      <c r="C77" s="5">
-        <v>10</v>
+      <c r="B77" s="15">
+        <v>10</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0</v>
       </c>
       <c r="D77" s="15">
         <v>3600</v>
       </c>
-      <c r="E77" s="5">
-        <v>30000</v>
+      <c r="E77" s="15">
+        <v>6000</v>
       </c>
       <c r="F77" s="5">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="G77" s="5">
-        <v>680189</v>
+        <v>1020290</v>
       </c>
       <c r="H77" s="5">
-        <v>686525.4</v>
+        <v>1021130</v>
       </c>
       <c r="I77" s="5">
-        <v>681599.8</v>
+        <v>1020720</v>
       </c>
       <c r="J77" s="6">
-        <v>3600</v>
+        <v>3609</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="0"/>
-        <v>9.229665792409171E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.2261807997022901E-4</v>
       </c>
       <c r="L77" s="13">
-        <f t="shared" si="1"/>
-        <v>7.1746799171596223E-3</v>
+        <f t="shared" si="12"/>
+        <v>4.0151596760451655E-4</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>300</v>
       </c>
-      <c r="B78" s="5">
-        <v>50</v>
-      </c>
-      <c r="C78" s="5">
-        <v>10</v>
+      <c r="B78" s="15">
+        <v>10</v>
+      </c>
+      <c r="C78" s="15">
+        <v>0</v>
       </c>
       <c r="D78" s="15">
         <v>3600</v>
       </c>
-      <c r="E78" s="5">
-        <v>30000</v>
+      <c r="E78" s="15">
+        <v>6000</v>
       </c>
       <c r="F78" s="5">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="G78" s="5">
-        <v>680189</v>
+        <v>693873</v>
       </c>
       <c r="H78" s="5">
-        <v>686495.2</v>
+        <v>694699</v>
       </c>
       <c r="I78" s="5">
-        <v>681612.80000000005</v>
+        <v>694630</v>
       </c>
       <c r="J78" s="6">
-        <v>3600</v>
+        <v>1212.3499999999999</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="0"/>
-        <v>9.1860802522726361E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1890041586356105E-3</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" si="1"/>
-        <v>7.1120672074617671E-3</v>
+        <f t="shared" si="12"/>
+        <v>9.9323591944136961E-5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>300</v>
       </c>
-      <c r="B79" s="8">
-        <v>50</v>
-      </c>
-      <c r="C79" s="8">
-        <v>10</v>
+      <c r="B79" s="17">
+        <v>10</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
       </c>
       <c r="D79" s="8">
         <v>3600</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="17">
+        <v>6000</v>
+      </c>
+      <c r="F79" s="8">
+        <v>3610</v>
+      </c>
+      <c r="G79" s="8">
+        <v>766056</v>
+      </c>
+      <c r="H79" s="8">
+        <v>766677</v>
+      </c>
+      <c r="I79" s="8">
+        <v>766600</v>
+      </c>
+      <c r="J79" s="9">
+        <v>64.869</v>
+      </c>
+      <c r="K79" s="13">
+        <f t="shared" si="11"/>
+        <v>8.0998908275584113E-4</v>
+      </c>
+      <c r="L79" s="13">
+        <f t="shared" si="12"/>
+        <v>1.0043342894074037E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>300</v>
+      </c>
+      <c r="B80" s="15">
+        <v>50</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0</v>
+      </c>
+      <c r="D80" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E80" s="5">
         <v>30000</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="5">
         <v>15650</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="5">
+        <v>693832</v>
+      </c>
+      <c r="H80" s="5">
+        <v>704578</v>
+      </c>
+      <c r="I80" s="5">
+        <v>696292</v>
+      </c>
+      <c r="J80" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K80" s="13">
+        <f t="shared" ref="K80:K85" si="13">(H80-G80)/H80</f>
+        <v>1.525168256743753E-2</v>
+      </c>
+      <c r="L80" s="13">
+        <f t="shared" ref="L80:L85" si="14">(H80-I80)/H80</f>
+        <v>1.1760230946751105E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>300</v>
+      </c>
+      <c r="B81" s="15">
+        <v>50</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0</v>
+      </c>
+      <c r="D81" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F81" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G81" s="5">
+        <v>692642</v>
+      </c>
+      <c r="H81" s="5">
+        <v>698710</v>
+      </c>
+      <c r="I81" s="5">
+        <v>694109</v>
+      </c>
+      <c r="J81" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" si="13"/>
+        <v>8.6845758612299814E-3</v>
+      </c>
+      <c r="L81" s="13">
+        <f t="shared" si="14"/>
+        <v>6.5849923430321596E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>300</v>
+      </c>
+      <c r="B82" s="15">
+        <v>50</v>
+      </c>
+      <c r="C82" s="15">
+        <v>0</v>
+      </c>
+      <c r="D82" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E82" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F82" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G82" s="5">
+        <v>678912</v>
+      </c>
+      <c r="H82" s="5">
+        <v>683560</v>
+      </c>
+      <c r="I82" s="5">
+        <v>679629</v>
+      </c>
+      <c r="J82" s="6">
+        <v>3606</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="13"/>
+        <v>6.7996957106910881E-3</v>
+      </c>
+      <c r="L82" s="13">
+        <f t="shared" si="14"/>
+        <v>5.7507753525659778E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>300</v>
+      </c>
+      <c r="B83" s="15">
+        <v>50</v>
+      </c>
+      <c r="C83" s="15">
+        <v>0</v>
+      </c>
+      <c r="D83" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F83" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G83" s="5">
+        <v>685618</v>
+      </c>
+      <c r="H83" s="5">
+        <v>691135</v>
+      </c>
+      <c r="I83" s="5">
+        <v>687060</v>
+      </c>
+      <c r="J83" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K83" s="13">
+        <f t="shared" si="13"/>
+        <v>7.9825215044817578E-3</v>
+      </c>
+      <c r="L83" s="13">
+        <f t="shared" si="14"/>
+        <v>5.8960984467578692E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>300</v>
+      </c>
+      <c r="B84" s="15">
+        <v>50</v>
+      </c>
+      <c r="C84" s="15">
+        <v>0</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E84" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F84" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G84" s="5">
+        <v>697035</v>
+      </c>
+      <c r="H84" s="5">
+        <v>702921</v>
+      </c>
+      <c r="I84" s="5">
+        <v>698375</v>
+      </c>
+      <c r="J84" s="6">
+        <v>3605</v>
+      </c>
+      <c r="K84" s="13">
+        <f t="shared" si="13"/>
+        <v>8.3736294690299473E-3</v>
+      </c>
+      <c r="L84" s="13">
+        <f t="shared" si="14"/>
+        <v>6.4672986011230279E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>300</v>
+      </c>
+      <c r="B85" s="2">
+        <v>50</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E85" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F85" s="2">
+        <v>15650</v>
+      </c>
+      <c r="G85" s="2">
         <v>680189</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H85" s="2">
+        <v>687166</v>
+      </c>
+      <c r="I85" s="2">
+        <v>681482.2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K85" s="13">
+        <f t="shared" si="13"/>
+        <v>1.0153296292307826E-2</v>
+      </c>
+      <c r="L85" s="13">
+        <f t="shared" si="14"/>
+        <v>8.2713638334842628E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>300</v>
+      </c>
+      <c r="B86" s="5">
+        <v>50</v>
+      </c>
+      <c r="C86" s="5">
+        <v>10</v>
+      </c>
+      <c r="D86" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E86" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F86" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G86" s="5">
+        <v>680189</v>
+      </c>
+      <c r="H86" s="5">
+        <v>686692.8</v>
+      </c>
+      <c r="I86" s="5">
+        <v>681547.4</v>
+      </c>
+      <c r="J86" s="6">
+        <v>3600</v>
+      </c>
+      <c r="K86" s="13">
+        <f t="shared" si="0"/>
+        <v>9.471192941006585E-3</v>
+      </c>
+      <c r="L86" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4930157997870703E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>300</v>
+      </c>
+      <c r="B87" s="5">
+        <v>50</v>
+      </c>
+      <c r="C87" s="5">
+        <v>10</v>
+      </c>
+      <c r="D87" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E87" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F87" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G87" s="5">
+        <v>680189</v>
+      </c>
+      <c r="H87" s="5">
+        <v>686525.4</v>
+      </c>
+      <c r="I87" s="5">
+        <v>681599.8</v>
+      </c>
+      <c r="J87" s="6">
+        <v>3600</v>
+      </c>
+      <c r="K87" s="13">
+        <f t="shared" si="0"/>
+        <v>9.229665792409171E-3</v>
+      </c>
+      <c r="L87" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1746799171596223E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>300</v>
+      </c>
+      <c r="B88" s="5">
+        <v>50</v>
+      </c>
+      <c r="C88" s="5">
+        <v>10</v>
+      </c>
+      <c r="D88" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E88" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F88" s="5">
+        <v>15650</v>
+      </c>
+      <c r="G88" s="5">
+        <v>680189</v>
+      </c>
+      <c r="H88" s="5">
+        <v>686495.2</v>
+      </c>
+      <c r="I88" s="5">
+        <v>681612.80000000005</v>
+      </c>
+      <c r="J88" s="6">
+        <v>3600</v>
+      </c>
+      <c r="K88" s="13">
+        <f t="shared" si="0"/>
+        <v>9.1860802522726361E-3</v>
+      </c>
+      <c r="L88" s="13">
+        <f t="shared" si="1"/>
+        <v>7.1120672074617671E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>300</v>
+      </c>
+      <c r="B89" s="8">
+        <v>50</v>
+      </c>
+      <c r="C89" s="8">
+        <v>10</v>
+      </c>
+      <c r="D89" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="8">
+        <v>30000</v>
+      </c>
+      <c r="F89" s="8">
+        <v>15650</v>
+      </c>
+      <c r="G89" s="8">
+        <v>680189</v>
+      </c>
+      <c r="H89" s="8">
         <v>686009.8</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I89" s="8">
         <v>681618.6</v>
       </c>
-      <c r="J79" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K79" s="13">
+      <c r="J89" s="9">
+        <v>3600</v>
+      </c>
+      <c r="K89" s="13">
         <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L89" s="13">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>

--- a/stochastic/results_det.xlsx
+++ b/stochastic/results_det.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\stochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBDA240-9E9B-4683-9261-6E957554E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2682D45B-E1C4-4C72-8E18-3FECFF8694E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="195" windowWidth="25005" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1032" windowWidth="20592" windowHeight="11928" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_det" sheetId="1" r:id="rId1"/>
@@ -692,13 +692,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -708,9 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -770,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -810,7 +807,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -916,7 +913,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,7 +1055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,9 +1071,9 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>52</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>52</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>52</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>52</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>52</v>
       </c>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1391,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50</v>
       </c>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>50</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>1234.0899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>1216.4000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>162.11600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>57.445999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>1220.55</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>50</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>50</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>50</v>
       </c>
@@ -2191,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>50</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>50</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>50</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>52</v>
       </c>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>52</v>
       </c>
@@ -2366,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>52</v>
       </c>
@@ -2401,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>52</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>52</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>50</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>50</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>50</v>
       </c>
@@ -2646,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>50</v>
       </c>
@@ -2681,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>50</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>50</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>50</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2856,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2996,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>50</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>50</v>
       </c>
@@ -3136,7 +3133,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>50</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>50</v>
       </c>
@@ -3276,7 +3273,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>50</v>
       </c>
@@ -3311,7 +3308,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>50</v>
       </c>
@@ -3346,7 +3343,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>50</v>
       </c>
@@ -3381,7 +3378,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>50</v>
       </c>
@@ -3416,7 +3413,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>50</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>50</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>50</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>50</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>50</v>
       </c>
@@ -3591,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>50</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>50</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>50</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>50</v>
       </c>
@@ -3731,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>50</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>50</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>50</v>
       </c>
@@ -3836,7 +3833,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>50</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>50</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>50</v>
       </c>
@@ -3941,7 +3938,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>50</v>
       </c>
@@ -3976,7 +3973,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>50</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>50</v>
       </c>
@@ -4046,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>50</v>
       </c>
@@ -4081,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>50</v>
       </c>
@@ -4116,7 +4113,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50</v>
       </c>
@@ -4151,7 +4148,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>50</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>50</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>50</v>
       </c>
@@ -4256,7 +4253,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50</v>
       </c>
@@ -4291,7 +4288,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>100</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>100</v>
       </c>
@@ -4361,7 +4358,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>100</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>100</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>100</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>100</v>
       </c>
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>100</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>100</v>
       </c>
@@ -4606,7 +4603,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>100</v>
       </c>
@@ -4641,7 +4638,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>100</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4711,7 +4708,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4746,7 +4743,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>100</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>100</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>100</v>
       </c>
@@ -4921,7 +4918,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>100</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>100</v>
       </c>
@@ -4991,7 +4988,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>100</v>
       </c>
@@ -5026,7 +5023,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>100</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>100</v>
       </c>
@@ -5096,7 +5093,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>100</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>100</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>100</v>
       </c>
@@ -5201,7 +5198,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>100</v>
       </c>
@@ -5236,7 +5233,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>100</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>100</v>
       </c>
@@ -5306,7 +5303,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>100</v>
       </c>
@@ -5341,7 +5338,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>100</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>100</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>100</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>100</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>100</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>100</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>100</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>100</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>100</v>
       </c>
@@ -5656,7 +5653,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>100</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>100</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>100</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>100</v>
       </c>
@@ -5796,7 +5793,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>100</v>
       </c>
@@ -5831,7 +5828,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>100</v>
       </c>
@@ -5866,7 +5863,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>100</v>
       </c>
@@ -5901,7 +5898,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>100</v>
       </c>
@@ -5936,7 +5933,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>100</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>100</v>
       </c>
@@ -6006,7 +6003,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>100</v>
       </c>
@@ -6041,7 +6038,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>100</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>100</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>100</v>
       </c>
@@ -6146,7 +6143,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>100</v>
       </c>
@@ -6181,7 +6178,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>100</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>100</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>100</v>
       </c>
@@ -6286,7 +6283,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>100</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>100</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>100</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>100</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>100</v>
       </c>
@@ -6461,7 +6458,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>100</v>
       </c>
@@ -6496,7 +6493,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>100</v>
       </c>
@@ -6531,7 +6528,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>100</v>
       </c>
@@ -6566,7 +6563,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>100</v>
       </c>
@@ -6601,7 +6598,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>100</v>
       </c>
@@ -6636,7 +6633,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>200</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>200</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>200</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>200</v>
       </c>
@@ -6776,7 +6773,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>200</v>
       </c>
@@ -6811,7 +6808,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>200</v>
       </c>
@@ -6846,7 +6843,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>200</v>
       </c>
@@ -6881,7 +6878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>200</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>200</v>
       </c>
@@ -6951,7 +6948,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>200</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>200</v>
       </c>
@@ -7021,7 +7018,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>200</v>
       </c>
@@ -7056,7 +7053,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>200</v>
       </c>
@@ -7091,7 +7088,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>200</v>
       </c>
@@ -7126,7 +7123,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>200</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>200</v>
       </c>
@@ -7196,7 +7193,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>200</v>
       </c>
@@ -7231,7 +7228,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>200</v>
       </c>
@@ -7266,7 +7263,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>200</v>
       </c>
@@ -7301,7 +7298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>200</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>200</v>
       </c>
@@ -7371,7 +7368,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>200</v>
       </c>
@@ -7406,7 +7403,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>200</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>200</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>200</v>
       </c>
@@ -7511,7 +7508,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>200</v>
       </c>
@@ -7546,7 +7543,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>200</v>
       </c>
@@ -7581,7 +7578,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>200</v>
       </c>
@@ -7616,7 +7613,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>200</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>200</v>
       </c>
@@ -7686,7 +7683,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7721,7 +7718,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>200</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>200</v>
       </c>
@@ -7791,7 +7788,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>200</v>
       </c>
@@ -7826,7 +7823,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>200</v>
       </c>
@@ -7861,7 +7858,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>200</v>
       </c>
@@ -7896,7 +7893,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>200</v>
       </c>
@@ -7931,7 +7928,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>200</v>
       </c>
@@ -7966,7 +7963,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>200</v>
       </c>
@@ -8001,7 +7998,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>200</v>
       </c>
@@ -8036,7 +8033,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>200</v>
       </c>
@@ -8071,7 +8068,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>200</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>200</v>
       </c>
@@ -8141,7 +8138,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>200</v>
       </c>
@@ -8176,7 +8173,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -8211,7 +8208,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8281,7 +8278,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>200</v>
       </c>
@@ -8316,7 +8313,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>200</v>
       </c>
@@ -8351,7 +8348,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>200</v>
       </c>
@@ -8386,7 +8383,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>200</v>
       </c>
@@ -8421,7 +8418,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>200</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>200</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>200</v>
       </c>
@@ -8526,7 +8523,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>300</v>
       </c>
@@ -8561,7 +8558,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>300</v>
       </c>
@@ -8596,7 +8593,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>300</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>300</v>
       </c>
@@ -8666,7 +8663,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>300</v>
       </c>
@@ -8701,7 +8698,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>300</v>
       </c>
@@ -8736,7 +8733,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>300</v>
       </c>
@@ -8771,7 +8768,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>300</v>
       </c>
@@ -8806,7 +8803,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>300</v>
       </c>
@@ -8841,7 +8838,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>300</v>
       </c>
@@ -8876,7 +8873,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>300</v>
       </c>
@@ -8911,7 +8908,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>300</v>
       </c>
@@ -8946,7 +8943,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>300</v>
       </c>
@@ -8981,7 +8978,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>300</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>300</v>
       </c>
@@ -9051,7 +9048,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>300</v>
       </c>
@@ -9086,7 +9083,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>300</v>
       </c>
@@ -9121,7 +9118,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>300</v>
       </c>
@@ -9156,7 +9153,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>300</v>
       </c>
@@ -9191,7 +9188,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>300</v>
       </c>
@@ -9226,7 +9223,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>300</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>300</v>
       </c>
@@ -9296,7 +9293,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>300</v>
       </c>
@@ -9331,7 +9328,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>300</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>300</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>300</v>
       </c>
@@ -9436,7 +9433,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>300</v>
       </c>
@@ -9471,7 +9468,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>300</v>
       </c>
@@ -9506,7 +9503,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>300</v>
       </c>
@@ -9541,7 +9538,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>300</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>300</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>300</v>
       </c>
@@ -9646,7 +9643,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>300</v>
       </c>
@@ -9681,7 +9678,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>300</v>
       </c>
@@ -9716,7 +9713,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>300</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>300</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>300</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>300</v>
       </c>
@@ -9856,7 +9853,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>300</v>
       </c>
@@ -9891,7 +9888,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>300</v>
       </c>
@@ -9926,7 +9923,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>300</v>
       </c>
@@ -9961,7 +9958,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>300</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>300</v>
       </c>
@@ -10031,7 +10028,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>300</v>
       </c>
@@ -10066,7 +10063,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>300</v>
       </c>
@@ -10101,7 +10098,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>300</v>
       </c>
@@ -10136,7 +10133,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>300</v>
       </c>
@@ -10171,7 +10168,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>300</v>
       </c>
@@ -10206,7 +10203,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>300</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>300</v>
       </c>
@@ -10276,7 +10273,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>300</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>300</v>
       </c>
@@ -10346,7 +10343,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>300</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>300</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>300</v>
       </c>
@@ -10451,7 +10448,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>300</v>
       </c>
@@ -10486,7 +10483,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>300</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>300</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>300</v>
       </c>
@@ -10591,7 +10588,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>300</v>
       </c>
@@ -10633,19 +10630,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17958C69-7466-4BC9-990D-C43CF77031CE}">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -10716,43 +10713,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>50</v>
-      </c>
-      <c r="B2" s="11">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>500</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>355</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>113320.78</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>113763</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>113752</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>2.7496999999999998</v>
       </c>
-      <c r="K2" s="13">
-        <f t="shared" ref="K2:K89" si="0">(H2-G2)/H2</f>
+      <c r="K2" s="12">
+        <f t="shared" ref="K2:K99" si="0">(H2-G2)/H2</f>
         <v>3.8872040997512476E-3</v>
       </c>
-      <c r="L2" s="13">
-        <f t="shared" ref="L2:L89" si="1">(H2-I2)/H2</f>
+      <c r="L2" s="12">
+        <f t="shared" ref="L2:L99" si="1">(H2-I2)/H2</f>
         <v>9.6692246160878318E-5</v>
       </c>
       <c r="O2">
@@ -10770,10 +10767,10 @@
       <c r="S2">
         <v>316</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>2.1173348779865903E-3</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>0</v>
       </c>
       <c r="V2">
@@ -10782,49 +10779,49 @@
       <c r="W2">
         <v>5</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>0.2893</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>50</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>50</v>
+      </c>
+      <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>500</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>355</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>124097.36</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>124596.4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>124583.87</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>3.8605</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <f t="shared" si="0"/>
         <v>4.0052521581682423E-3</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <f t="shared" si="1"/>
         <v>1.005647033140511E-4</v>
       </c>
@@ -10843,10 +10840,10 @@
       <c r="S3">
         <v>355</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="12">
         <v>3.8872040997512476E-3</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <v>0</v>
       </c>
       <c r="V3">
@@ -10855,14 +10852,14 @@
       <c r="W3">
         <v>5</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <v>2.7496999999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -10893,11 +10890,11 @@
       <c r="J4" s="3">
         <v>1234.0899999999999</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f t="shared" si="0"/>
         <v>1.2756774702245092E-2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
         <v>3.6519068763746524E-3</v>
       </c>
@@ -10916,10 +10913,10 @@
       <c r="S4">
         <v>355</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>4.0052521581682423E-3</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <v>0</v>
       </c>
       <c r="V4">
@@ -10928,49 +10925,49 @@
       <c r="W4">
         <v>5</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <v>3.8605</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3600</v>
+      </c>
+      <c r="E5">
         <v>1000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>610</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>121765</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>123821</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>123326</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1216.4000000000001</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
         <v>1.6604614726096544E-2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f t="shared" si="1"/>
         <v>3.9977063664483406E-3</v>
       </c>
@@ -10989,11 +10986,11 @@
       <c r="S5">
         <v>610</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <f>AVERAGE(K4:K8)</f>
         <v>1.3203740549296456E-2</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <v>0</v>
       </c>
       <c r="V5">
@@ -11002,7 +10999,7 @@
       <c r="W5">
         <v>5</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <f>AVERAGE(J4:J8)</f>
         <v>583.46640000000002</v>
       </c>
@@ -11010,42 +11007,42 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50</v>
       </c>
-      <c r="B6" s="5">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3600</v>
+      </c>
+      <c r="E6">
         <v>1000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>610</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>149599</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>151532</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>151517</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>162.11600000000001</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>1.275638149037827E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
         <v>9.8988992424042449E-5</v>
       </c>
@@ -11064,11 +11061,11 @@
       <c r="S6">
         <v>610</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <f>AVERAGE(K9:K13)</f>
         <v>1.3359078842241917E-2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>0</v>
       </c>
       <c r="V6">
@@ -11077,7 +11074,7 @@
       <c r="W6">
         <v>5</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="13">
         <f>AVERAGE(J9:J13)</f>
         <v>278.04239999999999</v>
       </c>
@@ -11085,42 +11082,42 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>50</v>
       </c>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3600</v>
+      </c>
+      <c r="E7">
         <v>1000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>610</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>139311</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>140881</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>140867</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>57.445999999999998</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
         <v>1.1144157125517281E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>9.9374649526905691E-5</v>
       </c>
@@ -11139,11 +11136,11 @@
       <c r="S7">
         <v>610</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <f>AVERAGE(K14:K18)</f>
         <v>1.3499262756195752E-2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <f>AVERAGE(L14:L18)</f>
         <v>1.3088328468142947E-3</v>
       </c>
@@ -11153,7 +11150,7 @@
       <c r="W7">
         <v>4</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="13">
         <f>AVERAGE(J14:J18)</f>
         <v>1149.6170000000002</v>
       </c>
@@ -11161,42 +11158,42 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>50</v>
-      </c>
-      <c r="B8" s="8">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E8" s="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="7">
         <v>1000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>610</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>118948</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>120485</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>120044</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>247.28</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>1.2756774702245092E-2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
         <v>3.6602066647300493E-3</v>
       </c>
@@ -11215,11 +11212,11 @@
       <c r="S8">
         <v>1210</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <f>AVERAGE(K20:K24)</f>
         <v>5.0245828018450431E-3</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <f>AVERAGE(L20:L24)</f>
         <v>1.2416912052439734E-3</v>
       </c>
@@ -11229,7 +11226,7 @@
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="13">
         <f>AVERAGE(J20:J24)</f>
         <v>2919.5526</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -11268,11 +11265,11 @@
       <c r="J9">
         <v>29.484000000000002</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>8.4684964535859837E-3</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
         <v>1.0354493480367141E-4</v>
       </c>
@@ -11291,11 +11288,11 @@
       <c r="S9">
         <v>1210</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <f>AVERAGE(K25:K29)</f>
         <v>5.3581947972910051E-3</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <f>AVERAGE(L25:L29)</f>
         <v>4.678464118021763E-4</v>
       </c>
@@ -11305,7 +11302,7 @@
       <c r="W9">
         <v>3</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <f>AVERAGE(J25:J29)</f>
         <v>1514.0592000000001</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -11323,7 +11320,7 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10">
         <v>3600</v>
       </c>
       <c r="E10">
@@ -11344,11 +11341,11 @@
       <c r="J10">
         <v>600.04600000000005</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>1.3383067882978142E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <f t="shared" si="1"/>
         <v>5.0722997807205791E-4</v>
       </c>
@@ -11367,11 +11364,11 @@
       <c r="S10">
         <v>1210</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="12">
         <f>AVERAGE(K30:K34)</f>
         <v>4.7240919777485424E-3</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <f>AVERAGE(L30:L34)</f>
         <v>8.9149195400289752E-4</v>
       </c>
@@ -11381,7 +11378,7 @@
       <c r="W10">
         <v>3</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <f>AVERAGE(J30:J34)</f>
         <v>2062.7719999999999</v>
       </c>
@@ -11389,7 +11386,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
@@ -11399,7 +11396,7 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11">
         <v>3600</v>
       </c>
       <c r="E11">
@@ -11420,11 +11417,11 @@
       <c r="J11">
         <v>135.21100000000001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>9.686116566255034E-3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>9.9856871817062214E-5</v>
       </c>
@@ -11443,11 +11440,11 @@
       <c r="S11">
         <v>5250</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="12">
         <f>AVERAGE(K35:K39)</f>
         <v>5.2268514729052098E-2</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="12">
         <f>AVERAGE(L35:L39)</f>
         <v>3.055719944625233E-2</v>
       </c>
@@ -11457,7 +11454,7 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="13">
         <f>AVERAGE(J35:J39)</f>
         <v>3606</v>
       </c>
@@ -11465,7 +11462,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -11475,7 +11472,7 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12">
         <v>3600</v>
       </c>
       <c r="E12">
@@ -11496,11 +11493,11 @@
       <c r="J12">
         <v>120.17400000000001</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>2.0735821991150739E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>1.0101894441937678E-4</v>
       </c>
@@ -11519,11 +11516,11 @@
       <c r="S12">
         <v>5250</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="12">
         <f>AVERAGE(K40:K44)</f>
         <v>4.7676466412581137E-2</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="12">
         <f>AVERAGE(L40:L44)</f>
         <v>2.7045826390709671E-2</v>
       </c>
@@ -11533,7 +11530,7 @@
       <c r="W12">
         <v>0</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="13">
         <f t="shared" ref="X12:X14" si="2">AVERAGE(J36:J40)</f>
         <v>3606.6</v>
       </c>
@@ -11541,7 +11538,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>50</v>
       </c>
@@ -11551,7 +11548,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>3600</v>
       </c>
       <c r="E13">
@@ -11572,11 +11569,11 @@
       <c r="J13">
         <v>505.29700000000003</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>1.4521891317239683E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <f t="shared" si="1"/>
         <v>1.0124824623573485E-4</v>
       </c>
@@ -11595,11 +11592,11 @@
       <c r="S13">
         <v>5250</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <f>AVERAGE(K45:K49)</f>
         <v>4.5509053366806274E-2</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <f>AVERAGE(L45:L49)</f>
         <v>2.4199573920670858E-2</v>
       </c>
@@ -11609,7 +11606,7 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="13">
         <f t="shared" si="2"/>
         <v>3606.4</v>
       </c>
@@ -11617,7 +11614,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>50</v>
       </c>
@@ -11648,11 +11645,11 @@
       <c r="J14" s="3">
         <v>3601.63</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>1.6763957491393505E-2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <f t="shared" si="1"/>
         <v>3.5242410635315888E-3</v>
       </c>
@@ -11671,11 +11668,11 @@
       <c r="S14">
         <v>5250</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <f>AVERAGE(K50:K54)</f>
         <v>4.5192615529547821E-2</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="12">
         <f>AVERAGE(L50:L54)</f>
         <v>2.6107509893404796E-2</v>
       </c>
@@ -11685,7 +11682,7 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="13">
         <f t="shared" si="2"/>
         <v>3606.2</v>
       </c>
@@ -11693,42 +11690,42 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>50</v>
       </c>
-      <c r="B15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>3600</v>
+      </c>
+      <c r="E15">
         <v>1000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>610</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>98195.6</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>99220</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>99210.1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>281.226</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>1.032453134448694E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <f t="shared" si="1"/>
         <v>9.9778270509919158E-5</v>
       </c>
@@ -11747,11 +11744,11 @@
       <c r="S15">
         <v>2410</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <f>AVERAGE(K55:K59)</f>
         <v>1.7069240250987198E-3</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="12">
         <f>AVERAGE(L55:L59)</f>
         <v>4.6130782631745944E-4</v>
       </c>
@@ -11761,7 +11758,7 @@
       <c r="W15">
         <v>2</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="13">
         <f>AVERAGE(J55:J59)</f>
         <v>2368.7745999999997</v>
       </c>
@@ -11769,42 +11766,42 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>50</v>
       </c>
-      <c r="B16" s="5">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <v>10</v>
-      </c>
-      <c r="D16" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>3600</v>
+      </c>
+      <c r="E16">
         <v>1000</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>610</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>121248</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>122304</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>122292</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>7.391</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>8.634222919937205E-3</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f t="shared" si="1"/>
         <v>9.8116169544740979E-5</v>
       </c>
@@ -11812,75 +11809,75 @@
         <v>200</v>
       </c>
       <c r="P16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="S16">
-        <v>10450</v>
-      </c>
-      <c r="T16" s="13">
+        <v>2410</v>
+      </c>
+      <c r="T16" s="12">
         <f>AVERAGE(K60:K64)</f>
-        <v>1.6599806179806418E-2</v>
-      </c>
-      <c r="U16" s="13">
+        <v>1.7001248031646974E-3</v>
+      </c>
+      <c r="U16" s="12">
         <f>AVERAGE(L60:L64)</f>
-        <v>1.2596167768398525E-2</v>
+        <v>9.1032818483747743E-4</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13">
         <f>AVERAGE(J60:J64)</f>
-        <v>3604</v>
+        <v>2893.04</v>
       </c>
       <c r="Y16">
         <v>3600</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>50</v>
       </c>
-      <c r="B17" s="5">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>3600</v>
+      </c>
+      <c r="E17">
         <v>1000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>610</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>113054</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>114731</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <v>114720</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>38.878</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>1.4616799295743957E-2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <f t="shared" si="1"/>
         <v>9.587644141513627E-5</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>50</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>20000</v>
@@ -11899,181 +11896,181 @@
       <c r="S17">
         <v>10450</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <f>AVERAGE(K65:K69)</f>
+        <v>1.6599806179806418E-2</v>
+      </c>
+      <c r="U17" s="12">
+        <f>AVERAGE(L65:L69)</f>
+        <v>1.2596167768398525E-2</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="13">
+        <f>AVERAGE(J65:J69)</f>
+        <v>3604</v>
+      </c>
+      <c r="Y17">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>610</v>
+      </c>
+      <c r="G18" s="7">
+        <v>120415</v>
+      </c>
+      <c r="H18" s="7">
+        <v>122517</v>
+      </c>
+      <c r="I18" s="7">
+        <v>122183</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1818.96</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>1.7156802729417144E-2</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7261522890700881E-3</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>20000</v>
+      </c>
+      <c r="S18">
+        <v>10450</v>
+      </c>
+      <c r="T18" s="12">
+        <f>AVERAGE(K70:K74)</f>
         <v>1.677691563844004E-2</v>
       </c>
-      <c r="U17" s="13">
-        <f>AVERAGE(L65:L69)</f>
+      <c r="U18" s="12">
+        <f>AVERAGE(L70:L74)</f>
         <v>1.2936031677588411E-2</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
         <f>AVERAGE(J40:J44)</f>
         <v>3605.6</v>
       </c>
-      <c r="Y17">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>50</v>
-      </c>
-      <c r="B18" s="8">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="8">
-        <v>610</v>
-      </c>
-      <c r="G18" s="8">
-        <v>120415</v>
-      </c>
-      <c r="H18" s="8">
-        <v>122517</v>
-      </c>
-      <c r="I18" s="8">
-        <v>122183</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1818.96</v>
-      </c>
-      <c r="K18" s="13">
+      <c r="Y18">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>416</v>
+      </c>
+      <c r="F19" s="2">
+        <v>316</v>
+      </c>
+      <c r="G19" s="2">
+        <v>87170.14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>87355.1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>87348.88</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.2893</v>
+      </c>
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
-        <v>1.7156802729417144E-2</v>
-      </c>
-      <c r="L18" s="13">
+        <v>2.1173348779865903E-3</v>
+      </c>
+      <c r="L19" s="12">
         <f t="shared" si="1"/>
-        <v>2.7261522890700881E-3</v>
-      </c>
-      <c r="O18">
+        <v>7.1203627492855761E-5</v>
+      </c>
+      <c r="O19">
         <v>200</v>
       </c>
-      <c r="P18">
-        <v>50</v>
-      </c>
-      <c r="Q18">
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
         <v>25</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>20000</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>10450</v>
       </c>
-      <c r="T18" s="13">
-        <f>AVERAGE(K70:K74)</f>
+      <c r="T19" s="12">
+        <f>AVERAGE(K75:K79)</f>
         <v>1.7075256959095477E-2</v>
       </c>
-      <c r="U18" s="13">
-        <f>AVERAGE(L70:L74)</f>
+      <c r="U19" s="12">
+        <f>AVERAGE(L75:L79)</f>
         <v>1.3694908752864665E-2</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="14">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
         <f>AVERAGE(J41:J45)</f>
         <v>3605.6</v>
       </c>
-      <c r="Y18">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>52</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>416</v>
-      </c>
-      <c r="F19" s="2">
-        <v>316</v>
-      </c>
-      <c r="G19" s="2">
-        <v>87170.14</v>
-      </c>
-      <c r="H19" s="2">
-        <v>87355.1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>87348.88</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.2893</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="0"/>
-        <v>2.1173348779865903E-3</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="1"/>
-        <v>7.1203627492855761E-5</v>
-      </c>
-      <c r="O19">
-        <v>300</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>6000</v>
-      </c>
-      <c r="S19">
-        <v>3610</v>
-      </c>
-      <c r="T19" s="13">
-        <f>AVERAGE(K75:K79)</f>
-        <v>8.7987824800820225E-4</v>
-      </c>
-      <c r="U19" s="13">
-        <f>AVERAGE(L75:L79)</f>
-        <v>2.5784346008500341E-4</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="X19" s="14">
-        <f>AVERAGE(J75:J79)</f>
-        <v>1798.4334000000003</v>
-      </c>
       <c r="Y19">
         <v>3600</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>100</v>
       </c>
@@ -12104,11 +12101,11 @@
       <c r="J20" s="3">
         <v>129.203</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>2.2763066172104269E-3</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f t="shared" si="1"/>
         <v>9.8969852922192489E-5</v>
       </c>
@@ -12116,75 +12113,75 @@
         <v>300</v>
       </c>
       <c r="P20">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="S20">
-        <v>15650</v>
-      </c>
-      <c r="T20" s="13">
+        <v>3610</v>
+      </c>
+      <c r="T20" s="12">
         <f>AVERAGE(K80:K84)</f>
-        <v>9.4184210225740604E-3</v>
-      </c>
-      <c r="U20" s="13">
+        <v>8.7987824800820225E-4</v>
+      </c>
+      <c r="U20" s="12">
         <f>AVERAGE(L80:L84)</f>
-        <v>7.2918791380460288E-3</v>
+        <v>2.5784346008500341E-4</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" s="14">
+        <v>3</v>
+      </c>
+      <c r="X20" s="13">
         <f>AVERAGE(J80:J84)</f>
-        <v>3605.2</v>
+        <v>1798.4334000000003</v>
       </c>
       <c r="Y20">
         <v>3600</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>100</v>
       </c>
-      <c r="B21" s="5">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3600</v>
+      </c>
+      <c r="E21">
         <v>2000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21">
         <v>1210</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>253759</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>255580</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>254975</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>3623.87</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>7.1249706549808278E-3</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f t="shared" si="1"/>
         <v>2.3671648798810549E-3</v>
       </c>
@@ -12192,24 +12189,24 @@
         <v>300</v>
       </c>
       <c r="P21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="S21">
-        <v>15650</v>
-      </c>
-      <c r="T21" s="13">
+        <v>3610</v>
+      </c>
+      <c r="T21" s="12">
         <f>AVERAGE(K85:K89)</f>
-        <v>9.3050490517806519E-3</v>
-      </c>
-      <c r="U21" s="13">
+        <v>9.4092844816344673E-4</v>
+      </c>
+      <c r="U21" s="12">
         <f>AVERAGE(L85:L89)</f>
-        <v>7.2904402989452059E-3</v>
+        <v>6.503218710403008E-4</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -12217,142 +12214,214 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="14">
-        <f>AVERAGE(J85:J89)</f>
-        <v>3600</v>
+      <c r="X21" s="13">
+        <f>AVERAGE(J89:J93)</f>
+        <v>3607</v>
       </c>
       <c r="Y21">
         <v>3600</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>100</v>
       </c>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3600</v>
+      </c>
+      <c r="E22">
         <v>2000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22">
         <v>1210</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
         <v>308694</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>309757</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22">
         <v>309583</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>3612.51</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>3.4317222855334987E-3</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>5.617306469264617E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>300</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>30000</v>
+      </c>
+      <c r="S22">
+        <v>15650</v>
+      </c>
+      <c r="T22" s="12">
+        <f>AVERAGE(K90:K94)</f>
+        <v>9.4184210225740604E-3</v>
+      </c>
+      <c r="U22" s="12">
+        <f>AVERAGE(L90:L94)</f>
+        <v>7.2918791380460288E-3</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <f>AVERAGE(J90:J94)</f>
+        <v>3605.2</v>
+      </c>
+      <c r="Y22">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>100</v>
       </c>
-      <c r="B23" s="5">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3600</v>
+      </c>
+      <c r="E23">
         <v>2000</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23">
         <v>1210</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>251838</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>253595</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23">
         <v>252931</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>3617.39</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>6.9283700388414601E-3</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <f t="shared" si="1"/>
         <v>2.6183481535519233E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="O23">
+        <v>300</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>30000</v>
+      </c>
+      <c r="S23">
+        <v>15650</v>
+      </c>
+      <c r="T23" s="12">
+        <f>AVERAGE(K95:K99)</f>
+        <v>9.3050490517806519E-3</v>
+      </c>
+      <c r="U23" s="12">
+        <f>AVERAGE(L95:L99)</f>
+        <v>7.2904402989452059E-3</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <f>AVERAGE(J95:J99)</f>
+        <v>3600</v>
+      </c>
+      <c r="Y23">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>100</v>
       </c>
-      <c r="B24" s="8">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="B24" s="7">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="7">
         <v>2000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>1210</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>221132</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>222324</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>222199</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>3614.79</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <f t="shared" si="0"/>
         <v>5.3615444126590018E-3</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <f t="shared" si="1"/>
         <v>5.622424929382343E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>100</v>
       </c>
-      <c r="B25" s="15">
-        <v>10</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" s="2">
@@ -12364,188 +12433,188 @@
       <c r="F25" s="2">
         <v>1210</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>254308</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <v>254858</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25">
         <v>254781</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>3608.08</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f t="shared" si="0"/>
         <v>2.1580644908144927E-3</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f t="shared" si="1"/>
         <v>3.0212902871402898E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>100</v>
       </c>
-      <c r="B26" s="5">
-        <v>10</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26">
+        <v>3600</v>
+      </c>
+      <c r="E26">
         <v>2000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26">
         <v>1210</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
         <v>245727</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <v>247959</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26">
         <v>247934</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>30.928999999999998</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <f t="shared" si="0"/>
         <v>9.0014881492504802E-3</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <f t="shared" si="1"/>
         <v>1.0082311995128227E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>100</v>
       </c>
-      <c r="B27" s="5">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27">
+        <v>3600</v>
+      </c>
+      <c r="E27">
         <v>2000</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27">
         <v>1210</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>207647</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>208442</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27">
         <v>208421</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>57.79</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="0"/>
         <v>3.814010612064747E-3</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <f t="shared" si="1"/>
         <v>1.0074745013001219E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>100</v>
       </c>
-      <c r="B28" s="5">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D28">
+        <v>3600</v>
+      </c>
+      <c r="E28">
         <v>2000</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28">
         <v>1210</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28">
         <v>279116</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>281398</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28">
         <v>280910</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>3616.59</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <f t="shared" si="0"/>
         <v>8.1095103732080533E-3</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <f t="shared" si="1"/>
         <v>1.7341985373030371E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>100</v>
       </c>
-      <c r="B29" s="5">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="D29" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E29" s="7">
         <v>2000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>1210</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>216299</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>217104</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29">
         <v>217082</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>256.90699999999998</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f t="shared" si="0"/>
         <v>3.7079003611172525E-3</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <f t="shared" si="1"/>
         <v>1.0133392291252119E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>100</v>
       </c>
@@ -12576,182 +12645,182 @@
       <c r="J30" s="3">
         <v>3603.65</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <f t="shared" si="0"/>
         <v>5.495404255022953E-3</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <f t="shared" si="1"/>
         <v>1.5696183147658972E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>100</v>
       </c>
-      <c r="B31" s="5">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5">
-        <v>10</v>
-      </c>
-      <c r="D31" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>3600</v>
+      </c>
+      <c r="E31">
         <v>2000</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>1210</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>254945</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31">
         <v>255761</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31">
         <v>255735</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>41.738</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <f t="shared" si="0"/>
         <v>3.1904786108906363E-3</v>
       </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>100</v>
       </c>
-      <c r="B32" s="5">
-        <v>10</v>
-      </c>
-      <c r="C32" s="5">
-        <v>10</v>
-      </c>
-      <c r="D32" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>3600</v>
+      </c>
+      <c r="E32">
         <v>2000</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>1210</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32">
         <v>241227</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32">
         <v>242085</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32">
         <v>241839</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>2814.15</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <f t="shared" si="0"/>
         <v>3.5442096784187374E-3</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <f t="shared" si="1"/>
         <v>1.0161720057004771E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>100</v>
       </c>
-      <c r="B33" s="5">
-        <v>10</v>
-      </c>
-      <c r="C33" s="5">
-        <v>10</v>
-      </c>
-      <c r="D33" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>3600</v>
+      </c>
+      <c r="E33">
         <v>2000</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>1210</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>225783</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>227205</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <v>226791</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>3607.83</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <f t="shared" si="0"/>
         <v>6.2586650821944943E-3</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="12">
         <f t="shared" si="1"/>
         <v>1.8221429986135869E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>100</v>
       </c>
-      <c r="B34" s="8">
-        <v>10</v>
-      </c>
-      <c r="C34" s="8">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E34" s="7">
         <v>2000</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>1210</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>261139</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>262486</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>262473</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <v>246.49199999999999</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <f t="shared" si="0"/>
         <v>5.1317022622158898E-3</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="12">
         <f t="shared" si="1"/>
         <v>4.9526450934526034E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>100</v>
       </c>
       <c r="B35" s="2">
         <v>50</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="2">
@@ -12775,376 +12844,376 @@
       <c r="J35" s="3">
         <v>3605</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <f t="shared" ref="K35:K39" si="3">(H35-G35)/H35</f>
         <v>4.8213041352413735E-2</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="12">
         <f t="shared" ref="L35:L39" si="4">(H35-I35)/H35</f>
         <v>3.3552396022221966E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>100</v>
       </c>
-      <c r="B36" s="5">
-        <v>50</v>
-      </c>
-      <c r="C36" s="15">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3600</v>
+      </c>
+      <c r="E36">
         <v>10000</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>5250</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36">
         <v>224476</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36">
         <v>235695</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36">
         <v>229977</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>3606</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="12">
         <f t="shared" si="3"/>
         <v>4.7599652092746983E-2</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="12">
         <f t="shared" si="4"/>
         <v>2.4260166740915166E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>100</v>
       </c>
-      <c r="B37" s="5">
-        <v>50</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3600</v>
+      </c>
+      <c r="E37">
         <v>10000</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>5250</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>232975</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37">
         <v>247828</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37">
         <v>238128</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>3607</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <f t="shared" si="3"/>
         <v>5.9932695256387496E-2</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <f t="shared" si="4"/>
         <v>3.9140048743483383E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>100</v>
       </c>
-      <c r="B38" s="5">
-        <v>50</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3600</v>
+      </c>
+      <c r="E38">
         <v>10000</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>5250</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <v>226364</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38">
         <v>242161</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38">
         <v>235608</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>3606</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <f t="shared" si="3"/>
         <v>6.5233460383794253E-2</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="12">
         <f t="shared" si="4"/>
         <v>2.7060509330569332E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>100</v>
       </c>
-      <c r="B39" s="8">
-        <v>50</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="B39" s="7">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E39" s="7">
         <v>10000</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>5250</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>225527</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>235013</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>228251</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>3606</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <f t="shared" si="3"/>
         <v>4.0363724559917963E-2</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <f t="shared" si="4"/>
         <v>2.8772876394071816E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>100</v>
       </c>
-      <c r="B40" s="5">
-        <v>50</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40">
+        <v>3600</v>
+      </c>
+      <c r="E40">
         <v>10000</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>5250</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40">
         <v>224174</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40">
         <v>235072</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40">
         <v>229013</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>3608</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <f t="shared" ref="K40:K44" si="5">(H40-G40)/H40</f>
         <v>4.6360264089300302E-2</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="12">
         <f t="shared" ref="L40:L44" si="6">(H40-I40)/H40</f>
         <v>2.5775081677103184E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>100</v>
       </c>
-      <c r="B41" s="5">
-        <v>50</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41">
+        <v>3600</v>
+      </c>
+      <c r="E41">
         <v>10000</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>5250</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <v>246620</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <v>260165</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <v>253051</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>3605</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <f t="shared" si="5"/>
         <v>5.2063113793169719E-2</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="12">
         <f t="shared" si="6"/>
         <v>2.7344185420790652E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>100</v>
       </c>
-      <c r="B42" s="5">
-        <v>50</v>
-      </c>
-      <c r="C42" s="15">
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42">
+        <v>3600</v>
+      </c>
+      <c r="E42">
         <v>10000</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>5250</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <v>226983</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42">
         <v>236848</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42">
         <v>231589</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>3606</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <f t="shared" si="5"/>
         <v>4.1651185570492466E-2</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="12">
         <f t="shared" si="6"/>
         <v>2.2204114030939675E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>100</v>
       </c>
-      <c r="B43" s="5">
-        <v>50</v>
-      </c>
-      <c r="C43" s="15">
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43">
+        <v>3600</v>
+      </c>
+      <c r="E43">
         <v>10000</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>5250</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43">
         <v>216797</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <v>226342</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43">
         <v>220887</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>3604</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <f t="shared" si="5"/>
         <v>4.2170697440156932E-2</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="12">
         <f t="shared" si="6"/>
         <v>2.4100697175071351E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>100</v>
       </c>
-      <c r="B44" s="5">
-        <v>50</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44">
+        <v>3600</v>
+      </c>
+      <c r="E44">
         <v>10000</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>5250</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44">
         <v>244368</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44">
         <v>258902</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44">
         <v>249632</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>3605</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="12">
         <f t="shared" si="5"/>
         <v>5.6137071169786251E-2</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="12">
         <f t="shared" si="6"/>
         <v>3.5805053649643495E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>100</v>
       </c>
@@ -13175,176 +13244,176 @@
       <c r="J45" s="3">
         <v>3608</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="12">
         <f t="shared" si="0"/>
         <v>4.5980764793214994E-2</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="12">
         <f t="shared" si="1"/>
         <v>2.2761806489814223E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>100</v>
       </c>
-      <c r="B46" s="5">
-        <v>50</v>
-      </c>
-      <c r="C46" s="5">
-        <v>10</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>3600</v>
+      </c>
+      <c r="E46">
         <v>10000</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>5250</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46">
         <v>222991</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46">
         <v>234301</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46">
         <v>228626</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>3606</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="12">
         <f t="shared" si="0"/>
         <v>4.8271240839774479E-2</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="12">
         <f t="shared" si="1"/>
         <v>2.4220980704307705E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>100</v>
       </c>
-      <c r="B47" s="5">
-        <v>50</v>
-      </c>
-      <c r="C47" s="5">
-        <v>10</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>3600</v>
+      </c>
+      <c r="E47">
         <v>10000</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>5250</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47">
         <v>214388</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
         <v>223455</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47">
         <v>218843</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>3608</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="12">
         <f t="shared" si="0"/>
         <v>4.0576402407643597E-2</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="12">
         <f t="shared" si="1"/>
         <v>2.0639502360654271E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>100</v>
       </c>
-      <c r="B48" s="5">
-        <v>50</v>
-      </c>
-      <c r="C48" s="5">
-        <v>10</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3600</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>3600</v>
+      </c>
+      <c r="E48">
         <v>10000</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48">
         <v>5250</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48">
         <v>229638</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48">
         <v>242696</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48">
         <v>233907</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>3606</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="12">
         <f t="shared" si="0"/>
         <v>5.380393578798167E-2</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="12">
         <f t="shared" si="1"/>
         <v>3.6214029073408711E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>100</v>
       </c>
-      <c r="B49" s="8">
-        <v>50</v>
-      </c>
-      <c r="C49" s="8">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E49" s="8">
+      <c r="B49" s="7">
+        <v>50</v>
+      </c>
+      <c r="C49" s="7">
+        <v>10</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="7">
         <v>10000</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>5250</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>215049</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>223756</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>219916</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="8">
         <v>3607</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="12">
         <f t="shared" si="0"/>
         <v>3.8912923005416614E-2</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="12">
         <f t="shared" si="1"/>
         <v>1.716155097516938E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>100</v>
       </c>
@@ -13375,176 +13444,176 @@
       <c r="J50" s="3">
         <v>3600</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="12">
         <f t="shared" si="0"/>
         <v>4.5733261861492826E-2</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="12">
         <f t="shared" si="1"/>
         <v>2.7278328343378639E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>100</v>
       </c>
-      <c r="B51" s="5">
-        <v>50</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
         <v>25</v>
       </c>
-      <c r="D51" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51">
+        <v>3600</v>
+      </c>
+      <c r="E51">
         <v>10000</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>5250</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>233564.79999999999</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
         <v>244669.6</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51">
         <v>238183.6</v>
       </c>
-      <c r="J51" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K51" s="13">
+      <c r="J51" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K51" s="12">
         <f t="shared" si="0"/>
         <v>4.5386921791673411E-2</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="12">
         <f t="shared" si="1"/>
         <v>2.6509218963042404E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>100</v>
       </c>
-      <c r="B52" s="5">
-        <v>50</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
         <v>25</v>
       </c>
-      <c r="D52" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52">
+        <v>3600</v>
+      </c>
+      <c r="E52">
         <v>10000</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52">
         <v>5250</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52">
         <v>233564.79999999999</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52">
         <v>244664.6</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52">
         <v>238277.2</v>
       </c>
-      <c r="J52" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K52" s="13">
+      <c r="J52" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K52" s="12">
         <f t="shared" si="0"/>
         <v>4.536741318523406E-2</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="12">
         <f t="shared" si="1"/>
         <v>2.6106760029853088E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>100</v>
       </c>
-      <c r="B53" s="5">
-        <v>50</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
         <v>25</v>
       </c>
-      <c r="D53" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D53">
+        <v>3600</v>
+      </c>
+      <c r="E53">
         <v>10000</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>5250</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53">
         <v>233564.79999999999</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53">
         <v>244637.6</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53">
         <v>238301.6</v>
       </c>
-      <c r="J53" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K53" s="13">
+      <c r="J53" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K53" s="12">
         <f t="shared" si="0"/>
         <v>4.5262052930538955E-2</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="12">
         <f t="shared" si="1"/>
         <v>2.5899534658613395E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>100</v>
       </c>
-      <c r="B54" s="8">
-        <v>50</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="B54" s="7">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7">
         <v>25</v>
       </c>
-      <c r="D54" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E54" s="8">
+      <c r="D54" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="7">
         <v>10000</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>5250</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>233564.79999999999</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>244369.2</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>238322.6</v>
       </c>
-      <c r="J54" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K54" s="13">
+      <c r="J54" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K54" s="12">
         <f t="shared" si="0"/>
         <v>4.421342787879988E-2</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="12">
         <f t="shared" si="1"/>
         <v>2.4743707472136445E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>200</v>
       </c>
@@ -13575,1371 +13644,1771 @@
       <c r="J55" s="3">
         <v>504.13900000000001</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="12">
         <f t="shared" ref="K55:K59" si="7">(H55-G55)/H55</f>
         <v>1.4745864245887287E-3</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L55" s="12">
         <f t="shared" ref="L55:L59" si="8">(H55-I55)/H55</f>
         <v>9.9073775402055205E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>200</v>
       </c>
-      <c r="B56" s="5">
-        <v>10</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E56" s="15">
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>3600</v>
+      </c>
+      <c r="E56">
         <v>4000</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56">
         <v>2410</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>472081</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56">
         <v>473097</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56">
         <v>472838</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>3615.01</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="12">
         <f t="shared" si="7"/>
         <v>2.1475511364477053E-3</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="12">
         <f t="shared" si="8"/>
         <v>5.4745644127948386E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>200</v>
       </c>
-      <c r="B57" s="5">
-        <v>10</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E57" s="15">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3600</v>
+      </c>
+      <c r="E57">
         <v>4000</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>2410</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>585460</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>586453</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57">
         <v>586026</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>3610.79</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <f t="shared" si="7"/>
         <v>1.6932303185421508E-3</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="12">
         <f t="shared" si="8"/>
         <v>7.2810608863796422E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>200</v>
       </c>
-      <c r="B58" s="5">
-        <v>10</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E58" s="15">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>3600</v>
+      </c>
+      <c r="E58">
         <v>4000</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58">
         <v>2410</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>494413</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58">
         <v>494920</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58">
         <v>494871</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>502.51400000000001</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="12">
         <f t="shared" si="7"/>
         <v>1.0244079851289096E-3</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="12">
         <f t="shared" si="8"/>
         <v>9.9005899943425206E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>200</v>
       </c>
-      <c r="B59" s="8">
-        <v>10</v>
-      </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E59" s="8">
+      <c r="B59" s="7">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="7">
         <v>4000</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <v>2410</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>558265</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="7">
         <v>559493</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>559027</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="8">
         <v>3611.42</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="12">
         <f t="shared" si="7"/>
         <v>2.1948442607861046E-3</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="12">
         <f t="shared" si="8"/>
         <v>8.3289692632436863E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>200</v>
       </c>
-      <c r="B60" s="15">
-        <v>50</v>
-      </c>
-      <c r="C60" s="15">
-        <v>0</v>
-      </c>
-      <c r="D60" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E60" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F60" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G60" s="5">
-        <v>435408</v>
-      </c>
-      <c r="H60" s="5">
-        <v>442525</v>
-      </c>
-      <c r="I60" s="5">
-        <v>436770</v>
-      </c>
-      <c r="J60" s="6">
-        <v>3604</v>
-      </c>
-      <c r="K60" s="13">
+      <c r="B60" s="2">
+        <v>10</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2410</v>
+      </c>
+      <c r="G60" s="2">
+        <v>554230</v>
+      </c>
+      <c r="H60" s="2">
+        <v>555095</v>
+      </c>
+      <c r="I60" s="2">
+        <v>554406</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3610</v>
+      </c>
+      <c r="K60" s="12">
         <f t="shared" ref="K60:K64" si="9">(H60-G60)/H60</f>
-        <v>1.6082707191684087E-2</v>
-      </c>
-      <c r="L60" s="13">
+        <v>1.5582918239220314E-3</v>
+      </c>
+      <c r="L60" s="12">
         <f t="shared" ref="L60:L64" si="10">(H60-I60)/H60</f>
-        <v>1.3004914976554998E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.2412289788234446E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>200</v>
       </c>
-      <c r="B61" s="15">
-        <v>50</v>
-      </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E61" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F61" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G61" s="5">
-        <v>453567</v>
-      </c>
-      <c r="H61" s="5">
-        <v>462883</v>
-      </c>
-      <c r="I61" s="5">
-        <v>455366</v>
-      </c>
-      <c r="J61" s="6">
-        <v>3603</v>
-      </c>
-      <c r="K61" s="13">
+      <c r="B61" s="14">
+        <v>10</v>
+      </c>
+      <c r="C61" s="14">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>3600</v>
+      </c>
+      <c r="E61">
+        <v>4000</v>
+      </c>
+      <c r="F61">
+        <v>2410</v>
+      </c>
+      <c r="G61" s="14">
+        <v>518724</v>
+      </c>
+      <c r="H61" s="14">
+        <v>520018</v>
+      </c>
+      <c r="I61" s="14">
+        <v>519329</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3614</v>
+      </c>
+      <c r="K61" s="12">
         <f t="shared" si="9"/>
-        <v>2.0126036168967104E-2</v>
-      </c>
-      <c r="L61" s="13">
+        <v>2.4883754023899171E-3</v>
+      </c>
+      <c r="L61" s="12">
         <f t="shared" si="10"/>
-        <v>1.623952489073913E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.3249541362029776E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>200</v>
       </c>
-      <c r="B62" s="15">
-        <v>50</v>
-      </c>
-      <c r="C62" s="15">
-        <v>0</v>
-      </c>
-      <c r="D62" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E62" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F62" s="5">
-        <v>10450</v>
-      </c>
-      <c r="G62" s="5">
-        <v>434155</v>
-      </c>
-      <c r="H62" s="5">
-        <v>440908</v>
-      </c>
-      <c r="I62" s="5">
-        <v>436384</v>
-      </c>
-      <c r="J62" s="6">
-        <v>3604</v>
-      </c>
-      <c r="K62" s="13">
-        <f>(H62-G62)/H62</f>
-        <v>1.5316120369782358E-2</v>
-      </c>
-      <c r="L62" s="13">
+      <c r="B62" s="14">
+        <v>10</v>
+      </c>
+      <c r="C62" s="14">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>3600</v>
+      </c>
+      <c r="E62">
+        <v>4000</v>
+      </c>
+      <c r="F62">
+        <v>2410</v>
+      </c>
+      <c r="G62" s="14">
+        <v>572279</v>
+      </c>
+      <c r="H62" s="14">
+        <v>573377</v>
+      </c>
+      <c r="I62" s="14">
+        <v>572782</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3613</v>
+      </c>
+      <c r="K62" s="12">
+        <f t="shared" si="9"/>
+        <v>1.9149704295777473E-3</v>
+      </c>
+      <c r="L62" s="12">
         <f t="shared" si="10"/>
-        <v>1.0260643943861305E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0377116626582509E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>200</v>
       </c>
-      <c r="B63" s="15">
-        <v>50</v>
-      </c>
-      <c r="C63" s="15">
-        <v>0</v>
-      </c>
-      <c r="D63" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E63" s="15">
+      <c r="B63" s="14">
+        <v>10</v>
+      </c>
+      <c r="C63" s="14">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>3600</v>
+      </c>
+      <c r="E63">
+        <v>4000</v>
+      </c>
+      <c r="F63">
+        <v>2410</v>
+      </c>
+      <c r="G63" s="14">
+        <v>526018</v>
+      </c>
+      <c r="H63" s="14">
+        <v>526258</v>
+      </c>
+      <c r="I63" s="14">
+        <v>526205</v>
+      </c>
+      <c r="J63" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" si="9"/>
+        <v>4.5605007429815796E-4</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="10"/>
+        <v>1.0071105807417655E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>200</v>
+      </c>
+      <c r="B64" s="7">
+        <v>10</v>
+      </c>
+      <c r="C64" s="7">
+        <v>5</v>
+      </c>
+      <c r="D64" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E64" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2410</v>
+      </c>
+      <c r="G64" s="7">
+        <v>518377</v>
+      </c>
+      <c r="H64" s="7">
+        <v>519459</v>
+      </c>
+      <c r="I64" s="7">
+        <v>519019</v>
+      </c>
+      <c r="J64" s="8">
+        <v>3616</v>
+      </c>
+      <c r="K64" s="12">
+        <f t="shared" si="9"/>
+        <v>2.0829362856356324E-3</v>
+      </c>
+      <c r="L64" s="12">
+        <f t="shared" si="10"/>
+        <v>8.4703508842853814E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>3600</v>
+      </c>
+      <c r="E65">
         <v>10000</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F65">
         <v>10450</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G65">
+        <v>435408</v>
+      </c>
+      <c r="H65">
+        <v>442525</v>
+      </c>
+      <c r="I65">
+        <v>436770</v>
+      </c>
+      <c r="J65" s="5">
+        <v>3604</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" ref="K65:K69" si="11">(H65-G65)/H65</f>
+        <v>1.6082707191684087E-2</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" ref="L65:L69" si="12">(H65-I65)/H65</f>
+        <v>1.3004914976554998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>200</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>3600</v>
+      </c>
+      <c r="E66">
+        <v>10000</v>
+      </c>
+      <c r="F66">
+        <v>10450</v>
+      </c>
+      <c r="G66">
+        <v>453567</v>
+      </c>
+      <c r="H66">
+        <v>462883</v>
+      </c>
+      <c r="I66">
+        <v>455366</v>
+      </c>
+      <c r="J66" s="5">
+        <v>3603</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="11"/>
+        <v>2.0126036168967104E-2</v>
+      </c>
+      <c r="L66" s="12">
+        <f t="shared" si="12"/>
+        <v>1.623952489073913E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>200</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>3600</v>
+      </c>
+      <c r="E67">
+        <v>10000</v>
+      </c>
+      <c r="F67">
+        <v>10450</v>
+      </c>
+      <c r="G67">
+        <v>434155</v>
+      </c>
+      <c r="H67">
+        <v>440908</v>
+      </c>
+      <c r="I67">
+        <v>436384</v>
+      </c>
+      <c r="J67" s="5">
+        <v>3604</v>
+      </c>
+      <c r="K67" s="12">
+        <f>(H67-G67)/H67</f>
+        <v>1.5316120369782358E-2</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="12"/>
+        <v>1.0260643943861305E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>200</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>3600</v>
+      </c>
+      <c r="E68">
+        <v>10000</v>
+      </c>
+      <c r="F68">
+        <v>10450</v>
+      </c>
+      <c r="G68">
         <v>427366</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H68">
         <v>434383</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I68">
         <v>428770</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J68" s="5">
         <v>3604</v>
       </c>
-      <c r="K63" s="13">
-        <f t="shared" si="9"/>
+      <c r="K68" s="12">
+        <f t="shared" si="11"/>
         <v>1.6153947092772968E-2</v>
       </c>
-      <c r="L63" s="13">
-        <f t="shared" si="10"/>
+      <c r="L68" s="12">
+        <f t="shared" si="12"/>
         <v>1.2921776404693554E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>200</v>
       </c>
-      <c r="B64" s="15">
-        <v>50</v>
-      </c>
-      <c r="C64" s="15">
-        <v>0</v>
-      </c>
-      <c r="D64" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E64" s="15">
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>3600</v>
+      </c>
+      <c r="E69">
         <v>10000</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F69">
         <v>10450</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G69">
         <v>444385</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H69">
         <v>451299</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I69">
         <v>446536</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J69" s="5">
         <v>3605</v>
       </c>
-      <c r="K64" s="13">
-        <f t="shared" si="9"/>
+      <c r="K69" s="12">
+        <f t="shared" si="11"/>
         <v>1.5320220075825562E-2</v>
       </c>
-      <c r="L64" s="13">
-        <f t="shared" si="10"/>
+      <c r="L69" s="12">
+        <f t="shared" si="12"/>
         <v>1.0553978626143642E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>200</v>
       </c>
-      <c r="B65" s="2">
-        <v>50</v>
-      </c>
-      <c r="C65" s="2">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="B70" s="2">
+        <v>50</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E70" s="2">
         <v>20000</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F70" s="2">
         <v>10450</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G70" s="2">
         <v>438446.5</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H70" s="2">
         <v>446269.83333300002</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I70" s="2">
         <v>440084.83333300002</v>
       </c>
-      <c r="J65" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K65" s="13">
+      <c r="J70" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K70" s="12">
         <f t="shared" si="0"/>
         <v>1.7530500044268867E-2</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L70" s="12">
         <f t="shared" si="1"/>
         <v>1.3859328007467723E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>200</v>
       </c>
-      <c r="B66" s="5">
-        <v>50</v>
-      </c>
-      <c r="C66" s="5">
-        <v>10</v>
-      </c>
-      <c r="D66" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E66" s="5">
+      <c r="B71">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>3600</v>
+      </c>
+      <c r="E71">
         <v>20000</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F71">
         <v>10450</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G71">
         <v>438446.5</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H71">
         <v>446128.66666699998</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I71">
         <v>440131</v>
       </c>
-      <c r="J66" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K66" s="13">
+      <c r="J71" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K71" s="12">
         <f t="shared" si="0"/>
         <v>1.7219621246025236E-2</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L71" s="12">
         <f t="shared" si="1"/>
         <v>1.3443804702818548E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>200</v>
       </c>
-      <c r="B67" s="5">
-        <v>50</v>
-      </c>
-      <c r="C67" s="5">
-        <v>10</v>
-      </c>
-      <c r="D67" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E67" s="5">
+      <c r="B72">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>3600</v>
+      </c>
+      <c r="E72">
         <v>20000</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F72">
         <v>10450</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G72">
         <v>438446.5</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H72">
         <v>445875.66666699998</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I72">
         <v>440182.5</v>
       </c>
-      <c r="J67" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K67" s="13">
+      <c r="J72" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K72" s="12">
         <f t="shared" si="0"/>
         <v>1.6661969294118083E-2</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L72" s="12">
         <f t="shared" si="1"/>
         <v>1.2768507215380058E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>200</v>
       </c>
-      <c r="B68" s="5">
-        <v>50</v>
-      </c>
-      <c r="C68" s="5">
-        <v>10</v>
-      </c>
-      <c r="D68" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E68" s="5">
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>3600</v>
+      </c>
+      <c r="E73">
         <v>20000</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F73">
         <v>10450</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G73">
         <v>438446.5</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H73">
         <v>445810.83333300002</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I73">
         <v>440195.83333300002</v>
       </c>
-      <c r="J68" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K68" s="13">
+      <c r="J73" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K73" s="12">
         <f t="shared" si="0"/>
         <v>1.6518964507753902E-2</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L73" s="12">
         <f t="shared" si="1"/>
         <v>1.2595028160309095E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>200</v>
       </c>
-      <c r="B69" s="8">
-        <v>50</v>
-      </c>
-      <c r="C69" s="8">
-        <v>10</v>
-      </c>
-      <c r="D69" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E69" s="8">
+      <c r="B74" s="7">
+        <v>50</v>
+      </c>
+      <c r="C74" s="7">
+        <v>10</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E74" s="7">
         <v>20000</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F74" s="7">
         <v>10450</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G74" s="7">
         <v>438446.5</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H74" s="7">
         <v>445554.66666699998</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I74" s="7">
         <v>440202</v>
       </c>
-      <c r="J69" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K69" s="13">
+      <c r="J74" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K74" s="12">
         <f t="shared" si="0"/>
         <v>1.5953523100034114E-2</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L74" s="12">
         <f t="shared" si="1"/>
         <v>1.2013490301966639E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>200</v>
       </c>
-      <c r="B70" s="2">
-        <v>50</v>
-      </c>
-      <c r="C70" s="2">
+      <c r="B75" s="2">
+        <v>50</v>
+      </c>
+      <c r="C75" s="2">
         <v>25</v>
       </c>
-      <c r="D70" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="D75" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E75" s="2">
         <v>20000</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F75" s="2">
         <v>10450</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G75" s="2">
         <v>479852</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H75" s="2">
         <v>488999.33333300002</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I75" s="2">
         <v>481421.33333300002</v>
       </c>
-      <c r="J70" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K70" s="13">
+      <c r="J75" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K75" s="12">
         <f t="shared" si="0"/>
         <v>1.870622863767964E-2</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L75" s="12">
         <f t="shared" si="1"/>
         <v>1.5496953642755816E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>200</v>
       </c>
-      <c r="B71" s="5">
-        <v>50</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="B76">
+        <v>50</v>
+      </c>
+      <c r="C76">
         <v>25</v>
       </c>
-      <c r="D71" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="D76">
+        <v>3600</v>
+      </c>
+      <c r="E76">
         <v>20000</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F76">
         <v>10450</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G76">
         <v>479852</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H76">
         <v>488424.33333300002</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I76">
         <v>481479.66666699998</v>
       </c>
-      <c r="J71" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K71" s="13">
+      <c r="J76" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K76" s="12">
         <f t="shared" si="0"/>
         <v>1.7550995615846058E-2</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L76" s="12">
         <f t="shared" si="1"/>
         <v>1.4218510815400489E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>200</v>
       </c>
-      <c r="B72" s="5">
-        <v>50</v>
-      </c>
-      <c r="C72" s="5">
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
         <v>25</v>
       </c>
-      <c r="D72" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="D77">
+        <v>3600</v>
+      </c>
+      <c r="E77">
         <v>20000</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F77">
         <v>10450</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G77">
         <v>479852</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H77">
         <v>487986.66666699998</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I77">
         <v>481525</v>
       </c>
-      <c r="J72" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K72" s="13">
+      <c r="J77" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K77" s="12">
         <f t="shared" si="0"/>
         <v>1.666985436827733E-2</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L77" s="12">
         <f t="shared" si="1"/>
         <v>1.3241482008379128E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>200</v>
       </c>
-      <c r="B73" s="5">
-        <v>50</v>
-      </c>
-      <c r="C73" s="5">
+      <c r="B78">
+        <v>50</v>
+      </c>
+      <c r="C78">
         <v>25</v>
       </c>
-      <c r="D73" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E73" s="5">
+      <c r="D78">
+        <v>3600</v>
+      </c>
+      <c r="E78">
         <v>20000</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F78">
         <v>10450</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G78">
         <v>479852</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H78">
         <v>487880</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I78">
         <v>481538.66666699998</v>
       </c>
-      <c r="J73" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K73" s="13">
+      <c r="J78" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K78" s="12">
         <f t="shared" si="0"/>
         <v>1.6454865950643601E-2</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L78" s="12">
         <f t="shared" si="1"/>
         <v>1.2997731681971011E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>200</v>
       </c>
-      <c r="B74" s="8">
-        <v>50</v>
-      </c>
-      <c r="C74" s="8">
+      <c r="B79" s="7">
+        <v>50</v>
+      </c>
+      <c r="C79" s="7">
         <v>25</v>
       </c>
-      <c r="D74" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="D79" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E79" s="7">
         <v>20000</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F79" s="7">
         <v>10450</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G79" s="7">
         <v>479852</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H79" s="7">
         <v>487651.66666699998</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I79" s="7">
         <v>481546.33333300002</v>
       </c>
-      <c r="J74" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K74" s="13">
+      <c r="J79" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K79" s="12">
         <f t="shared" si="0"/>
         <v>1.5994340223030753E-2</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L79" s="12">
         <f t="shared" si="1"/>
         <v>1.2519865615816876E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>300</v>
       </c>
-      <c r="B75" s="16">
-        <v>10</v>
-      </c>
-      <c r="C75" s="16">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E75" s="16">
+      <c r="B80" s="2">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E80" s="2">
         <v>6000</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F80" s="2">
         <v>3610</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G80" s="2">
         <v>702718</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H80" s="2">
         <v>703488</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I80" s="2">
         <v>703074</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J80" s="3">
         <v>3609.6</v>
       </c>
-      <c r="K75" s="13">
-        <f t="shared" ref="K75:K79" si="11">(H75-G75)/H75</f>
+      <c r="K80" s="12">
+        <f t="shared" ref="K80:K84" si="13">(H80-G80)/H80</f>
         <v>1.0945460334788938E-3</v>
       </c>
-      <c r="L75" s="13">
-        <f t="shared" ref="L75:L79" si="12">(H75-I75)/H75</f>
+      <c r="L80" s="12">
+        <f t="shared" ref="L80:L84" si="14">(H80-I80)/H80</f>
         <v>5.8849617903930127E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>300</v>
-      </c>
-      <c r="B76" s="15">
-        <v>10</v>
-      </c>
-      <c r="C76" s="15">
-        <v>0</v>
-      </c>
-      <c r="D76" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E76" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F76" s="5">
-        <v>3610</v>
-      </c>
-      <c r="G76" s="5">
-        <v>713595</v>
-      </c>
-      <c r="H76" s="5">
-        <v>713940</v>
-      </c>
-      <c r="I76" s="5">
-        <v>713869</v>
-      </c>
-      <c r="J76" s="6">
-        <v>496.34800000000001</v>
-      </c>
-      <c r="K76" s="13">
-        <f t="shared" si="11"/>
-        <v>4.83233885200437E-4</v>
-      </c>
-      <c r="L76" s="13">
-        <f t="shared" si="12"/>
-        <v>9.9448132896321823E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>300</v>
-      </c>
-      <c r="B77" s="15">
-        <v>10</v>
-      </c>
-      <c r="C77" s="15">
-        <v>0</v>
-      </c>
-      <c r="D77" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E77" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F77" s="5">
-        <v>3610</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1020290</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1021130</v>
-      </c>
-      <c r="I77" s="5">
-        <v>1020720</v>
-      </c>
-      <c r="J77" s="6">
-        <v>3609</v>
-      </c>
-      <c r="K77" s="13">
-        <f t="shared" si="11"/>
-        <v>8.2261807997022901E-4</v>
-      </c>
-      <c r="L77" s="13">
-        <f t="shared" si="12"/>
-        <v>4.0151596760451655E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>300</v>
-      </c>
-      <c r="B78" s="15">
-        <v>10</v>
-      </c>
-      <c r="C78" s="15">
-        <v>0</v>
-      </c>
-      <c r="D78" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E78" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F78" s="5">
-        <v>3610</v>
-      </c>
-      <c r="G78" s="5">
-        <v>693873</v>
-      </c>
-      <c r="H78" s="5">
-        <v>694699</v>
-      </c>
-      <c r="I78" s="5">
-        <v>694630</v>
-      </c>
-      <c r="J78" s="6">
-        <v>1212.3499999999999</v>
-      </c>
-      <c r="K78" s="13">
-        <f t="shared" si="11"/>
-        <v>1.1890041586356105E-3</v>
-      </c>
-      <c r="L78" s="13">
-        <f t="shared" si="12"/>
-        <v>9.9323591944136961E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>300</v>
-      </c>
-      <c r="B79" s="17">
-        <v>10</v>
-      </c>
-      <c r="C79" s="17">
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E79" s="17">
-        <v>6000</v>
-      </c>
-      <c r="F79" s="8">
-        <v>3610</v>
-      </c>
-      <c r="G79" s="8">
-        <v>766056</v>
-      </c>
-      <c r="H79" s="8">
-        <v>766677</v>
-      </c>
-      <c r="I79" s="8">
-        <v>766600</v>
-      </c>
-      <c r="J79" s="9">
-        <v>64.869</v>
-      </c>
-      <c r="K79" s="13">
-        <f t="shared" si="11"/>
-        <v>8.0998908275584113E-4</v>
-      </c>
-      <c r="L79" s="13">
-        <f t="shared" si="12"/>
-        <v>1.0043342894074037E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>300</v>
-      </c>
-      <c r="B80" s="15">
-        <v>50</v>
-      </c>
-      <c r="C80" s="15">
-        <v>0</v>
-      </c>
-      <c r="D80" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E80" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F80" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G80" s="5">
-        <v>693832</v>
-      </c>
-      <c r="H80" s="5">
-        <v>704578</v>
-      </c>
-      <c r="I80" s="5">
-        <v>696292</v>
-      </c>
-      <c r="J80" s="6">
-        <v>3605</v>
-      </c>
-      <c r="K80" s="13">
-        <f t="shared" ref="K80:K85" si="13">(H80-G80)/H80</f>
-        <v>1.525168256743753E-2</v>
-      </c>
-      <c r="L80" s="13">
-        <f t="shared" ref="L80:L85" si="14">(H80-I80)/H80</f>
-        <v>1.1760230946751105E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>300</v>
       </c>
-      <c r="B81" s="15">
-        <v>50</v>
-      </c>
-      <c r="C81" s="15">
-        <v>0</v>
-      </c>
-      <c r="D81" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E81" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F81" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G81" s="5">
-        <v>692642</v>
-      </c>
-      <c r="H81" s="5">
-        <v>698710</v>
-      </c>
-      <c r="I81" s="5">
-        <v>694109</v>
-      </c>
-      <c r="J81" s="6">
-        <v>3605</v>
-      </c>
-      <c r="K81" s="13">
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>3600</v>
+      </c>
+      <c r="E81">
+        <v>6000</v>
+      </c>
+      <c r="F81">
+        <v>3610</v>
+      </c>
+      <c r="G81">
+        <v>713595</v>
+      </c>
+      <c r="H81">
+        <v>713940</v>
+      </c>
+      <c r="I81">
+        <v>713869</v>
+      </c>
+      <c r="J81" s="5">
+        <v>496.34800000000001</v>
+      </c>
+      <c r="K81" s="12">
         <f t="shared" si="13"/>
-        <v>8.6845758612299814E-3</v>
-      </c>
-      <c r="L81" s="13">
+        <v>4.83233885200437E-4</v>
+      </c>
+      <c r="L81" s="12">
         <f t="shared" si="14"/>
-        <v>6.5849923430321596E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9.9448132896321823E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>300</v>
       </c>
-      <c r="B82" s="15">
-        <v>50</v>
-      </c>
-      <c r="C82" s="15">
-        <v>0</v>
-      </c>
-      <c r="D82" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E82" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F82" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G82" s="5">
-        <v>678912</v>
-      </c>
-      <c r="H82" s="5">
-        <v>683560</v>
-      </c>
-      <c r="I82" s="5">
-        <v>679629</v>
-      </c>
-      <c r="J82" s="6">
-        <v>3606</v>
-      </c>
-      <c r="K82" s="13">
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>3600</v>
+      </c>
+      <c r="E82">
+        <v>6000</v>
+      </c>
+      <c r="F82">
+        <v>3610</v>
+      </c>
+      <c r="G82">
+        <v>1020290</v>
+      </c>
+      <c r="H82">
+        <v>1021130</v>
+      </c>
+      <c r="I82">
+        <v>1020720</v>
+      </c>
+      <c r="J82" s="5">
+        <v>3609</v>
+      </c>
+      <c r="K82" s="12">
         <f t="shared" si="13"/>
-        <v>6.7996957106910881E-3</v>
-      </c>
-      <c r="L82" s="13">
+        <v>8.2261807997022901E-4</v>
+      </c>
+      <c r="L82" s="12">
         <f t="shared" si="14"/>
-        <v>5.7507753525659778E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.0151596760451655E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>300</v>
       </c>
-      <c r="B83" s="15">
-        <v>50</v>
-      </c>
-      <c r="C83" s="15">
-        <v>0</v>
-      </c>
-      <c r="D83" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E83" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F83" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G83" s="5">
-        <v>685618</v>
-      </c>
-      <c r="H83" s="5">
-        <v>691135</v>
-      </c>
-      <c r="I83" s="5">
-        <v>687060</v>
-      </c>
-      <c r="J83" s="6">
-        <v>3605</v>
-      </c>
-      <c r="K83" s="13">
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3600</v>
+      </c>
+      <c r="E83">
+        <v>6000</v>
+      </c>
+      <c r="F83">
+        <v>3610</v>
+      </c>
+      <c r="G83">
+        <v>693873</v>
+      </c>
+      <c r="H83">
+        <v>694699</v>
+      </c>
+      <c r="I83">
+        <v>694630</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1212.3499999999999</v>
+      </c>
+      <c r="K83" s="12">
         <f t="shared" si="13"/>
-        <v>7.9825215044817578E-3</v>
-      </c>
-      <c r="L83" s="13">
+        <v>1.1890041586356105E-3</v>
+      </c>
+      <c r="L83" s="12">
         <f t="shared" si="14"/>
-        <v>5.8960984467578692E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+        <v>9.9323591944136961E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>300</v>
       </c>
-      <c r="B84" s="15">
-        <v>50</v>
-      </c>
-      <c r="C84" s="15">
-        <v>0</v>
-      </c>
-      <c r="D84" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E84" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F84" s="5">
-        <v>15650</v>
-      </c>
-      <c r="G84" s="5">
-        <v>697035</v>
-      </c>
-      <c r="H84" s="5">
-        <v>702921</v>
-      </c>
-      <c r="I84" s="5">
-        <v>698375</v>
-      </c>
-      <c r="J84" s="6">
-        <v>3605</v>
-      </c>
-      <c r="K84" s="13">
+      <c r="B84" s="7">
+        <v>10</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E84" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F84" s="7">
+        <v>3610</v>
+      </c>
+      <c r="G84" s="7">
+        <v>766056</v>
+      </c>
+      <c r="H84" s="7">
+        <v>766677</v>
+      </c>
+      <c r="I84" s="7">
+        <v>766600</v>
+      </c>
+      <c r="J84" s="8">
+        <v>64.869</v>
+      </c>
+      <c r="K84" s="12">
         <f t="shared" si="13"/>
-        <v>8.3736294690299473E-3</v>
-      </c>
-      <c r="L84" s="13">
+        <v>8.0998908275584113E-4</v>
+      </c>
+      <c r="L84" s="12">
         <f t="shared" si="14"/>
-        <v>6.4672986011230279E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0043342894074037E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>300</v>
       </c>
       <c r="B85" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C85" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D85" s="2">
         <v>3600</v>
       </c>
       <c r="E85" s="2">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="F85" s="2">
-        <v>15650</v>
+        <v>3610</v>
       </c>
       <c r="G85" s="2">
-        <v>680189</v>
+        <v>882304</v>
       </c>
       <c r="H85" s="2">
-        <v>687166</v>
+        <v>883005</v>
       </c>
       <c r="I85" s="2">
-        <v>681482.2</v>
+        <v>882535</v>
       </c>
       <c r="J85" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K85" s="13">
-        <f t="shared" si="13"/>
-        <v>1.0153296292307826E-2</v>
-      </c>
-      <c r="L85" s="13">
-        <f t="shared" si="14"/>
-        <v>8.2713638334842628E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3609</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" ref="K85:K89" si="15">(H85-G85)/H85</f>
+        <v>7.9387998935453368E-4</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" ref="L85:L89" si="16">(H85-I85)/H85</f>
+        <v>5.3227331668563593E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>300</v>
       </c>
-      <c r="B86" s="5">
-        <v>50</v>
-      </c>
-      <c r="C86" s="5">
-        <v>10</v>
-      </c>
-      <c r="D86" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E86" s="5">
+      <c r="B86" s="14">
+        <v>10</v>
+      </c>
+      <c r="C86" s="14">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3600</v>
+      </c>
+      <c r="E86">
+        <v>6000</v>
+      </c>
+      <c r="F86">
+        <v>3610</v>
+      </c>
+      <c r="G86" s="14">
+        <v>877081</v>
+      </c>
+      <c r="H86" s="14">
+        <v>878010</v>
+      </c>
+      <c r="I86" s="14">
+        <v>877322</v>
+      </c>
+      <c r="J86" s="5">
+        <v>3612</v>
+      </c>
+      <c r="K86" s="12">
+        <f t="shared" si="15"/>
+        <v>1.0580745094019429E-3</v>
+      </c>
+      <c r="L86" s="12">
+        <f t="shared" si="16"/>
+        <v>7.835901641211376E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>300</v>
+      </c>
+      <c r="B87" s="14">
+        <v>10</v>
+      </c>
+      <c r="C87" s="14">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>3600</v>
+      </c>
+      <c r="E87">
+        <v>6000</v>
+      </c>
+      <c r="F87">
+        <v>3610</v>
+      </c>
+      <c r="G87" s="14">
+        <v>808270</v>
+      </c>
+      <c r="H87" s="14">
+        <v>809242</v>
+      </c>
+      <c r="I87" s="14">
+        <v>808511</v>
+      </c>
+      <c r="J87" s="5">
+        <v>3608</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="15"/>
+        <v>1.2011240148188057E-3</v>
+      </c>
+      <c r="L87" s="12">
+        <f t="shared" si="16"/>
+        <v>9.0331445970426641E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>300</v>
+      </c>
+      <c r="B88" s="14">
+        <v>10</v>
+      </c>
+      <c r="C88" s="14">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>3600</v>
+      </c>
+      <c r="E88">
+        <v>6000</v>
+      </c>
+      <c r="F88">
+        <v>3610</v>
+      </c>
+      <c r="G88" s="14">
+        <v>866391</v>
+      </c>
+      <c r="H88" s="14">
+        <v>867025</v>
+      </c>
+      <c r="I88" s="14">
+        <v>866618</v>
+      </c>
+      <c r="J88" s="5">
+        <v>3612</v>
+      </c>
+      <c r="K88" s="12">
+        <f t="shared" si="15"/>
+        <v>7.3123612352584994E-4</v>
+      </c>
+      <c r="L88" s="12">
+        <f t="shared" si="16"/>
+        <v>4.6942129696375538E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>300</v>
+      </c>
+      <c r="B89" s="7">
+        <v>10</v>
+      </c>
+      <c r="C89" s="7">
+        <v>5</v>
+      </c>
+      <c r="D89" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F89" s="7">
+        <v>3610</v>
+      </c>
+      <c r="G89" s="7">
+        <v>850001</v>
+      </c>
+      <c r="H89" s="7">
+        <v>850784</v>
+      </c>
+      <c r="I89" s="7">
+        <v>850305</v>
+      </c>
+      <c r="J89" s="8">
+        <v>3614</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" si="15"/>
+        <v>9.2032760371610182E-4</v>
+      </c>
+      <c r="L89" s="12">
+        <f t="shared" si="16"/>
+        <v>5.6301011772670855E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>300</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>3600</v>
+      </c>
+      <c r="E90">
         <v>30000</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F90">
         <v>15650</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G90">
+        <v>693832</v>
+      </c>
+      <c r="H90">
+        <v>704578</v>
+      </c>
+      <c r="I90">
+        <v>696292</v>
+      </c>
+      <c r="J90" s="5">
+        <v>3605</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" ref="K90:K95" si="17">(H90-G90)/H90</f>
+        <v>1.525168256743753E-2</v>
+      </c>
+      <c r="L90" s="12">
+        <f t="shared" ref="L90:L95" si="18">(H90-I90)/H90</f>
+        <v>1.1760230946751105E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>300</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>3600</v>
+      </c>
+      <c r="E91">
+        <v>30000</v>
+      </c>
+      <c r="F91">
+        <v>15650</v>
+      </c>
+      <c r="G91">
+        <v>692642</v>
+      </c>
+      <c r="H91">
+        <v>698710</v>
+      </c>
+      <c r="I91">
+        <v>694109</v>
+      </c>
+      <c r="J91" s="5">
+        <v>3605</v>
+      </c>
+      <c r="K91" s="12">
+        <f t="shared" si="17"/>
+        <v>8.6845758612299814E-3</v>
+      </c>
+      <c r="L91" s="12">
+        <f t="shared" si="18"/>
+        <v>6.5849923430321596E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>300</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>3600</v>
+      </c>
+      <c r="E92">
+        <v>30000</v>
+      </c>
+      <c r="F92">
+        <v>15650</v>
+      </c>
+      <c r="G92">
+        <v>678912</v>
+      </c>
+      <c r="H92">
+        <v>683560</v>
+      </c>
+      <c r="I92">
+        <v>679629</v>
+      </c>
+      <c r="J92" s="5">
+        <v>3606</v>
+      </c>
+      <c r="K92" s="12">
+        <f t="shared" si="17"/>
+        <v>6.7996957106910881E-3</v>
+      </c>
+      <c r="L92" s="12">
+        <f t="shared" si="18"/>
+        <v>5.7507753525659778E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>300</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>3600</v>
+      </c>
+      <c r="E93">
+        <v>30000</v>
+      </c>
+      <c r="F93">
+        <v>15650</v>
+      </c>
+      <c r="G93">
+        <v>685618</v>
+      </c>
+      <c r="H93">
+        <v>691135</v>
+      </c>
+      <c r="I93">
+        <v>687060</v>
+      </c>
+      <c r="J93" s="5">
+        <v>3605</v>
+      </c>
+      <c r="K93" s="12">
+        <f t="shared" si="17"/>
+        <v>7.9825215044817578E-3</v>
+      </c>
+      <c r="L93" s="12">
+        <f t="shared" si="18"/>
+        <v>5.8960984467578692E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>300</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3600</v>
+      </c>
+      <c r="E94">
+        <v>30000</v>
+      </c>
+      <c r="F94">
+        <v>15650</v>
+      </c>
+      <c r="G94">
+        <v>697035</v>
+      </c>
+      <c r="H94">
+        <v>702921</v>
+      </c>
+      <c r="I94">
+        <v>698375</v>
+      </c>
+      <c r="J94" s="5">
+        <v>3605</v>
+      </c>
+      <c r="K94" s="12">
+        <f t="shared" si="17"/>
+        <v>8.3736294690299473E-3</v>
+      </c>
+      <c r="L94" s="12">
+        <f t="shared" si="18"/>
+        <v>6.4672986011230279E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>300</v>
+      </c>
+      <c r="B95" s="2">
+        <v>50</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E95" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F95" s="2">
+        <v>15650</v>
+      </c>
+      <c r="G95" s="2">
         <v>680189</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H95" s="2">
+        <v>687166</v>
+      </c>
+      <c r="I95" s="2">
+        <v>681482.2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K95" s="12">
+        <f t="shared" si="17"/>
+        <v>1.0153296292307826E-2</v>
+      </c>
+      <c r="L95" s="12">
+        <f t="shared" si="18"/>
+        <v>8.2713638334842628E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>300</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>3600</v>
+      </c>
+      <c r="E96">
+        <v>30000</v>
+      </c>
+      <c r="F96">
+        <v>15650</v>
+      </c>
+      <c r="G96">
+        <v>680189</v>
+      </c>
+      <c r="H96">
         <v>686692.8</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I96">
         <v>681547.4</v>
       </c>
-      <c r="J86" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K86" s="13">
+      <c r="J96" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K96" s="12">
         <f t="shared" si="0"/>
         <v>9.471192941006585E-3</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L96" s="12">
         <f t="shared" si="1"/>
         <v>7.4930157997870703E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <v>300</v>
       </c>
-      <c r="B87" s="5">
-        <v>50</v>
-      </c>
-      <c r="C87" s="5">
-        <v>10</v>
-      </c>
-      <c r="D87" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E87" s="5">
+      <c r="B97">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>3600</v>
+      </c>
+      <c r="E97">
         <v>30000</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F97">
         <v>15650</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G97">
         <v>680189</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H97">
         <v>686525.4</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I97">
         <v>681599.8</v>
       </c>
-      <c r="J87" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K87" s="13">
+      <c r="J97" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K97" s="12">
         <f t="shared" si="0"/>
         <v>9.229665792409171E-3</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L97" s="12">
         <f t="shared" si="1"/>
         <v>7.1746799171596223E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>300</v>
       </c>
-      <c r="B88" s="5">
-        <v>50</v>
-      </c>
-      <c r="C88" s="5">
-        <v>10</v>
-      </c>
-      <c r="D88" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="B98">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>3600</v>
+      </c>
+      <c r="E98">
         <v>30000</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F98">
         <v>15650</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G98">
         <v>680189</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H98">
         <v>686495.2</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I98">
         <v>681612.80000000005</v>
       </c>
-      <c r="J88" s="6">
-        <v>3600</v>
-      </c>
-      <c r="K88" s="13">
+      <c r="J98" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K98" s="12">
         <f t="shared" si="0"/>
         <v>9.1860802522726361E-3</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L98" s="12">
         <f t="shared" si="1"/>
         <v>7.1120672074617671E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
         <v>300</v>
       </c>
-      <c r="B89" s="8">
-        <v>50</v>
-      </c>
-      <c r="C89" s="8">
-        <v>10</v>
-      </c>
-      <c r="D89" s="8">
-        <v>3600</v>
-      </c>
-      <c r="E89" s="8">
+      <c r="B99" s="7">
+        <v>50</v>
+      </c>
+      <c r="C99" s="7">
+        <v>10</v>
+      </c>
+      <c r="D99" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E99" s="7">
         <v>30000</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F99" s="7">
         <v>15650</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G99" s="7">
         <v>680189</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H99" s="7">
         <v>686009.8</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I99" s="7">
         <v>681618.6</v>
       </c>
-      <c r="J89" s="9">
-        <v>3600</v>
-      </c>
-      <c r="K89" s="13">
+      <c r="J99" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K99" s="12">
         <f t="shared" si="0"/>
         <v>8.4850099809070448E-3</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L99" s="12">
         <f t="shared" si="1"/>
         <v>6.4010747368333067E-3</v>
       </c>
